--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -7727,28 +7727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>553.3652866305539</v>
+        <v>749.0342268110356</v>
       </c>
       <c r="AB2" t="n">
-        <v>757.1387979214052</v>
+        <v>1024.861674180743</v>
       </c>
       <c r="AC2" t="n">
-        <v>684.8785336987626</v>
+        <v>927.0503143993262</v>
       </c>
       <c r="AD2" t="n">
-        <v>553365.2866305539</v>
+        <v>749034.2268110357</v>
       </c>
       <c r="AE2" t="n">
-        <v>757138.7979214052</v>
+        <v>1024861.674180743</v>
       </c>
       <c r="AF2" t="n">
         <v>3.980621493940071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.42708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>684878.5336987625</v>
+        <v>927050.3143993262</v>
       </c>
     </row>
     <row r="3">
@@ -7833,28 +7833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.6281113458995</v>
+        <v>584.1429664449878</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.0996475642645</v>
+        <v>799.2501772589173</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.2585583932432</v>
+        <v>722.9708620959946</v>
       </c>
       <c r="AD3" t="n">
-        <v>427628.1113458995</v>
+        <v>584142.9664449878</v>
       </c>
       <c r="AE3" t="n">
-        <v>585099.6475642645</v>
+        <v>799250.1772589174</v>
       </c>
       <c r="AF3" t="n">
         <v>4.983446164820942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>529258.5583932432</v>
+        <v>722970.8620959945</v>
       </c>
     </row>
     <row r="4">
@@ -7939,28 +7939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.8230383900956</v>
+        <v>542.5493722188356</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.5825436053435</v>
+        <v>742.339986658825</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.8946657595228</v>
+        <v>671.4921002128207</v>
       </c>
       <c r="AD4" t="n">
-        <v>395823.0383900956</v>
+        <v>542549.3722188356</v>
       </c>
       <c r="AE4" t="n">
-        <v>541582.5436053436</v>
+        <v>742339.986658825</v>
       </c>
       <c r="AF4" t="n">
         <v>5.3725462354506e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>489894.6657595228</v>
+        <v>671492.1002128207</v>
       </c>
     </row>
     <row r="5">
@@ -8045,28 +8045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.8516861108722</v>
+        <v>516.8236640880447</v>
       </c>
       <c r="AB5" t="n">
-        <v>519.7298348105762</v>
+        <v>707.140937856134</v>
       </c>
       <c r="AC5" t="n">
-        <v>470.1275488216585</v>
+        <v>639.6523992256834</v>
       </c>
       <c r="AD5" t="n">
-        <v>379851.6861108722</v>
+        <v>516823.6640880447</v>
       </c>
       <c r="AE5" t="n">
-        <v>519729.8348105762</v>
+        <v>707140.937856134</v>
       </c>
       <c r="AF5" t="n">
         <v>5.590119230334906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.07291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>470127.5488216585</v>
+        <v>639652.3992256834</v>
       </c>
     </row>
     <row r="6">
@@ -8151,28 +8151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.5675539211337</v>
+        <v>503.5053664795253</v>
       </c>
       <c r="AB6" t="n">
-        <v>501.5538990940253</v>
+        <v>688.9182555063353</v>
       </c>
       <c r="AC6" t="n">
-        <v>453.6862988998092</v>
+        <v>623.1688641036542</v>
       </c>
       <c r="AD6" t="n">
-        <v>366567.5539211336</v>
+        <v>503505.3664795253</v>
       </c>
       <c r="AE6" t="n">
-        <v>501553.8990940253</v>
+        <v>688918.2555063353</v>
       </c>
       <c r="AF6" t="n">
         <v>5.71710712513303e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.44791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>453686.2988998092</v>
+        <v>623168.8641036542</v>
       </c>
     </row>
     <row r="7">
@@ -8257,28 +8257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>365.1292429064361</v>
+        <v>502.0670554648278</v>
       </c>
       <c r="AB7" t="n">
-        <v>499.5859385099125</v>
+        <v>686.9502949222224</v>
       </c>
       <c r="AC7" t="n">
-        <v>451.9061577117942</v>
+        <v>621.3887229156391</v>
       </c>
       <c r="AD7" t="n">
-        <v>365129.2429064361</v>
+        <v>502067.0554648277</v>
       </c>
       <c r="AE7" t="n">
-        <v>499585.9385099125</v>
+        <v>686950.2949222224</v>
       </c>
       <c r="AF7" t="n">
         <v>5.773700211614017e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>451906.1577117941</v>
+        <v>621388.7229156391</v>
       </c>
     </row>
     <row r="8">
@@ -8363,28 +8363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>353.4683956044664</v>
+        <v>490.4735279705624</v>
       </c>
       <c r="AB8" t="n">
-        <v>483.6310527910819</v>
+        <v>671.0875191342335</v>
       </c>
       <c r="AC8" t="n">
-        <v>437.4739838931461</v>
+        <v>607.03986818531</v>
       </c>
       <c r="AD8" t="n">
-        <v>353468.3956044664</v>
+        <v>490473.5279705625</v>
       </c>
       <c r="AE8" t="n">
-        <v>483631.0527910818</v>
+        <v>671087.5191342335</v>
       </c>
       <c r="AF8" t="n">
         <v>5.841141813075385e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>437473.983893146</v>
+        <v>607039.8681853099</v>
       </c>
     </row>
     <row r="9">
@@ -8469,28 +8469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>351.5291160934028</v>
+        <v>488.5342484594989</v>
       </c>
       <c r="AB9" t="n">
-        <v>480.9776450090709</v>
+        <v>668.4341113522224</v>
       </c>
       <c r="AC9" t="n">
-        <v>435.0738136257689</v>
+        <v>604.6396979179328</v>
       </c>
       <c r="AD9" t="n">
-        <v>351529.1160934028</v>
+        <v>488534.2484594989</v>
       </c>
       <c r="AE9" t="n">
-        <v>480977.6450090709</v>
+        <v>668434.1113522224</v>
       </c>
       <c r="AF9" t="n">
         <v>5.91503225399731e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.53645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>435073.8136257689</v>
+        <v>604639.6979179329</v>
       </c>
     </row>
     <row r="10">
@@ -8575,28 +8575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>350.7311314189506</v>
+        <v>487.6347785585614</v>
       </c>
       <c r="AB10" t="n">
-        <v>479.8858071728861</v>
+        <v>667.2034169519483</v>
       </c>
       <c r="AC10" t="n">
-        <v>434.0861792602656</v>
+        <v>603.5264592639305</v>
       </c>
       <c r="AD10" t="n">
-        <v>350731.1314189506</v>
+        <v>487634.7785585614</v>
       </c>
       <c r="AE10" t="n">
-        <v>479885.8071728861</v>
+        <v>667203.4169519483</v>
       </c>
       <c r="AF10" t="n">
         <v>5.943901357750658e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH10" t="n">
-        <v>434086.1792602656</v>
+        <v>603526.4592639306</v>
       </c>
     </row>
     <row r="11">
@@ -8681,28 +8681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>350.301191940484</v>
+        <v>477.4846486473081</v>
       </c>
       <c r="AB11" t="n">
-        <v>479.2975450108571</v>
+        <v>653.3155614152436</v>
       </c>
       <c r="AC11" t="n">
-        <v>433.5540600133495</v>
+        <v>590.9640411679213</v>
       </c>
       <c r="AD11" t="n">
-        <v>350301.191940484</v>
+        <v>477484.6486473081</v>
       </c>
       <c r="AE11" t="n">
-        <v>479297.5450108571</v>
+        <v>653315.5614152435</v>
       </c>
       <c r="AF11" t="n">
         <v>5.949446154296186e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>433554.0600133495</v>
+        <v>590964.0411679213</v>
       </c>
     </row>
     <row r="12">
@@ -8787,28 +8787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>349.3357848815655</v>
+        <v>476.5192415883896</v>
       </c>
       <c r="AB12" t="n">
-        <v>477.9766324820913</v>
+        <v>651.9946488864776</v>
       </c>
       <c r="AC12" t="n">
-        <v>432.3592135224168</v>
+        <v>589.7691946769885</v>
       </c>
       <c r="AD12" t="n">
-        <v>349335.7848815655</v>
+        <v>476519.2415883896</v>
       </c>
       <c r="AE12" t="n">
-        <v>477976.6324820913</v>
+        <v>651994.6488864777</v>
       </c>
       <c r="AF12" t="n">
         <v>5.98735568719985e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.22395833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>432359.2135224168</v>
+        <v>589769.1946769885</v>
       </c>
     </row>
     <row r="13">
@@ -8893,28 +8893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>348.6918339696328</v>
+        <v>475.8752906764569</v>
       </c>
       <c r="AB13" t="n">
-        <v>477.0955504352756</v>
+        <v>651.113566839662</v>
       </c>
       <c r="AC13" t="n">
-        <v>431.5622207095428</v>
+        <v>588.9722018641145</v>
       </c>
       <c r="AD13" t="n">
-        <v>348691.8339696328</v>
+        <v>475875.2906764569</v>
       </c>
       <c r="AE13" t="n">
-        <v>477095.5504352757</v>
+        <v>651113.566839662</v>
       </c>
       <c r="AF13" t="n">
         <v>6.014778322289146e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH13" t="n">
-        <v>431562.2207095427</v>
+        <v>588972.2018641145</v>
       </c>
     </row>
     <row r="14">
@@ -8999,28 +8999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>348.359239137953</v>
+        <v>475.5426958447771</v>
       </c>
       <c r="AB14" t="n">
-        <v>476.640479513523</v>
+        <v>650.6584959179094</v>
       </c>
       <c r="AC14" t="n">
-        <v>431.1505811178662</v>
+        <v>588.5605622724379</v>
       </c>
       <c r="AD14" t="n">
-        <v>348359.239137953</v>
+        <v>475542.6958447771</v>
       </c>
       <c r="AE14" t="n">
-        <v>476640.479513523</v>
+        <v>650658.4959179093</v>
       </c>
       <c r="AF14" t="n">
         <v>6.016405599536203e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH14" t="n">
-        <v>431150.5811178662</v>
+        <v>588560.5622724378</v>
       </c>
     </row>
     <row r="15">
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>337.1603735530477</v>
+        <v>474.131340500363</v>
       </c>
       <c r="AB15" t="n">
-        <v>461.3176975611751</v>
+        <v>648.7274172710787</v>
       </c>
       <c r="AC15" t="n">
-        <v>417.2901839693907</v>
+        <v>586.8137830613747</v>
       </c>
       <c r="AD15" t="n">
-        <v>337160.3735530478</v>
+        <v>474131.340500363</v>
       </c>
       <c r="AE15" t="n">
-        <v>461317.697561175</v>
+        <v>648727.4172710787</v>
       </c>
       <c r="AF15" t="n">
         <v>6.056725913546619e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>417290.1839693907</v>
+        <v>586813.7830613747</v>
       </c>
     </row>
     <row r="16">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>337.2229905508311</v>
+        <v>474.1939574981463</v>
       </c>
       <c r="AB16" t="n">
-        <v>461.4033729000091</v>
+        <v>648.8130926099127</v>
       </c>
       <c r="AC16" t="n">
-        <v>417.3676825741325</v>
+        <v>586.8912816661166</v>
       </c>
       <c r="AD16" t="n">
-        <v>337222.9905508311</v>
+        <v>474193.9574981463</v>
       </c>
       <c r="AE16" t="n">
-        <v>461403.3729000091</v>
+        <v>648813.0926099127</v>
       </c>
       <c r="AF16" t="n">
         <v>6.056906722129625e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>417367.6825741325</v>
+        <v>586891.2816661166</v>
       </c>
     </row>
     <row r="17">
@@ -9317,28 +9317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>336.902799528834</v>
+        <v>473.8737664761492</v>
       </c>
       <c r="AB17" t="n">
-        <v>460.9652734178817</v>
+        <v>648.3749931277854</v>
       </c>
       <c r="AC17" t="n">
-        <v>416.9713946917028</v>
+        <v>586.4949937836869</v>
       </c>
       <c r="AD17" t="n">
-        <v>336902.7995288339</v>
+        <v>473873.7664761492</v>
       </c>
       <c r="AE17" t="n">
-        <v>460965.2734178817</v>
+        <v>648374.9931277854</v>
       </c>
       <c r="AF17" t="n">
         <v>6.056545104963611e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>416971.3946917028</v>
+        <v>586494.9937836869</v>
       </c>
     </row>
     <row r="18">
@@ -9423,28 +9423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>335.9001747561445</v>
+        <v>472.8711417034597</v>
       </c>
       <c r="AB18" t="n">
-        <v>459.5934379712049</v>
+        <v>647.0031576811084</v>
       </c>
       <c r="AC18" t="n">
-        <v>415.7304852946737</v>
+        <v>585.2540843866577</v>
       </c>
       <c r="AD18" t="n">
-        <v>335900.1747561445</v>
+        <v>472871.1417034597</v>
       </c>
       <c r="AE18" t="n">
-        <v>459593.4379712049</v>
+        <v>647003.1576811085</v>
       </c>
       <c r="AF18" t="n">
         <v>6.08734283360236e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH18" t="n">
-        <v>415730.4852946737</v>
+        <v>585254.0843866577</v>
       </c>
     </row>
     <row r="19">
@@ -9529,28 +9529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>336.0102911550917</v>
+        <v>472.981258102407</v>
       </c>
       <c r="AB19" t="n">
-        <v>459.7441040862371</v>
+        <v>647.1538237961407</v>
       </c>
       <c r="AC19" t="n">
-        <v>415.8667720471486</v>
+        <v>585.3903711391326</v>
       </c>
       <c r="AD19" t="n">
-        <v>336010.2911550917</v>
+        <v>472981.258102407</v>
       </c>
       <c r="AE19" t="n">
-        <v>459744.1040862371</v>
+        <v>647153.8237961407</v>
       </c>
       <c r="AF19" t="n">
         <v>6.08631825163199e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH19" t="n">
-        <v>415866.7720471486</v>
+        <v>585390.3711391327</v>
       </c>
     </row>
     <row r="20">
@@ -9635,28 +9635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>335.8085563667958</v>
+        <v>472.779523314111</v>
       </c>
       <c r="AB20" t="n">
-        <v>459.4680816489798</v>
+        <v>646.8778013588835</v>
       </c>
       <c r="AC20" t="n">
-        <v>415.6170928039031</v>
+        <v>585.1406918958871</v>
       </c>
       <c r="AD20" t="n">
-        <v>335808.5563667958</v>
+        <v>472779.523314111</v>
       </c>
       <c r="AE20" t="n">
-        <v>459468.0816489798</v>
+        <v>646877.8013588835</v>
       </c>
       <c r="AF20" t="n">
         <v>6.089030380377086e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH20" t="n">
-        <v>415617.0928039031</v>
+        <v>585140.6918958871</v>
       </c>
     </row>
     <row r="21">
@@ -9741,28 +9741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>335.3802555088969</v>
+        <v>472.3512224562121</v>
       </c>
       <c r="AB21" t="n">
-        <v>458.8820615199023</v>
+        <v>646.2917812298059</v>
       </c>
       <c r="AC21" t="n">
-        <v>415.0870016134603</v>
+        <v>584.6106007054443</v>
       </c>
       <c r="AD21" t="n">
-        <v>335380.2555088969</v>
+        <v>472351.2224562121</v>
       </c>
       <c r="AE21" t="n">
-        <v>458882.0615199023</v>
+        <v>646291.7812298059</v>
       </c>
       <c r="AF21" t="n">
         <v>6.092646552037213e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.75520833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>415087.0016134603</v>
+        <v>584610.6007054443</v>
       </c>
     </row>
     <row r="22">
@@ -9847,28 +9847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>334.93741569868</v>
+        <v>471.9083826459952</v>
       </c>
       <c r="AB22" t="n">
-        <v>458.2761485548499</v>
+        <v>645.6858682647536</v>
       </c>
       <c r="AC22" t="n">
-        <v>414.5389161313884</v>
+        <v>584.0625152233725</v>
       </c>
       <c r="AD22" t="n">
-        <v>334937.41569868</v>
+        <v>471908.3826459952</v>
       </c>
       <c r="AE22" t="n">
-        <v>458276.1485548499</v>
+        <v>645685.8682647536</v>
       </c>
       <c r="AF22" t="n">
         <v>6.088487954628067e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH22" t="n">
-        <v>414538.9161313884</v>
+        <v>584062.5152233725</v>
       </c>
     </row>
     <row r="23">
@@ -9953,28 +9953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>333.6678233080815</v>
+        <v>460.91859982261</v>
       </c>
       <c r="AB23" t="n">
-        <v>456.5390362355698</v>
+        <v>630.6491625707977</v>
       </c>
       <c r="AC23" t="n">
-        <v>412.9675913738079</v>
+        <v>570.4608916166987</v>
       </c>
       <c r="AD23" t="n">
-        <v>333667.8233080815</v>
+        <v>460918.59982261</v>
       </c>
       <c r="AE23" t="n">
-        <v>456539.0362355697</v>
+        <v>630649.1625707977</v>
       </c>
       <c r="AF23" t="n">
         <v>6.129109616276826e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>412967.5913738079</v>
+        <v>570460.8916166987</v>
       </c>
     </row>
     <row r="24">
@@ -10059,28 +10059,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>333.8796345734401</v>
+        <v>461.1304110879686</v>
       </c>
       <c r="AB24" t="n">
-        <v>456.8288457532869</v>
+        <v>630.9389720885149</v>
       </c>
       <c r="AC24" t="n">
-        <v>413.2297418779044</v>
+        <v>570.7230421207952</v>
       </c>
       <c r="AD24" t="n">
-        <v>333879.6345734401</v>
+        <v>461130.4110879686</v>
       </c>
       <c r="AE24" t="n">
-        <v>456828.845753287</v>
+        <v>630938.9720885149</v>
       </c>
       <c r="AF24" t="n">
         <v>6.129290424859833e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>413229.7418779044</v>
+        <v>570723.0421207952</v>
       </c>
     </row>
     <row r="25">
@@ -10165,28 +10165,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>333.7810788752885</v>
+        <v>461.0318553898171</v>
       </c>
       <c r="AB25" t="n">
-        <v>456.6939974991055</v>
+        <v>630.8041238343335</v>
       </c>
       <c r="AC25" t="n">
-        <v>413.1077633518412</v>
+        <v>570.6010635947321</v>
       </c>
       <c r="AD25" t="n">
-        <v>333781.0788752885</v>
+        <v>461031.8553898171</v>
       </c>
       <c r="AE25" t="n">
-        <v>456693.9974991055</v>
+        <v>630804.1238343335</v>
       </c>
       <c r="AF25" t="n">
         <v>6.129471233442839e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>413107.7633518412</v>
+        <v>570601.0635947321</v>
       </c>
     </row>
     <row r="26">
@@ -10271,28 +10271,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>333.6700560520868</v>
+        <v>460.9208325666153</v>
       </c>
       <c r="AB26" t="n">
-        <v>456.5420911744196</v>
+        <v>630.6522175096475</v>
       </c>
       <c r="AC26" t="n">
-        <v>412.9703547535815</v>
+        <v>570.4636549964723</v>
       </c>
       <c r="AD26" t="n">
-        <v>333670.0560520868</v>
+        <v>460920.8325666153</v>
       </c>
       <c r="AE26" t="n">
-        <v>456542.0911744196</v>
+        <v>630652.2175096475</v>
       </c>
       <c r="AF26" t="n">
         <v>6.12892880769382e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>412970.3547535815</v>
+        <v>570463.6549964723</v>
       </c>
     </row>
     <row r="27">
@@ -10377,28 +10377,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>333.3731803867637</v>
+        <v>460.6239569012923</v>
       </c>
       <c r="AB27" t="n">
-        <v>456.1358927918945</v>
+        <v>630.2460191271225</v>
       </c>
       <c r="AC27" t="n">
-        <v>412.6029233745817</v>
+        <v>570.0962236174724</v>
       </c>
       <c r="AD27" t="n">
-        <v>333373.1803867637</v>
+        <v>460623.9569012923</v>
       </c>
       <c r="AE27" t="n">
-        <v>456135.8927918946</v>
+        <v>630246.0191271225</v>
       </c>
       <c r="AF27" t="n">
         <v>6.128265842889463e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>412602.9233745817</v>
+        <v>570096.2236174725</v>
       </c>
     </row>
     <row r="28">
@@ -10483,28 +10483,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>333.1412105586666</v>
+        <v>460.3919870731951</v>
       </c>
       <c r="AB28" t="n">
-        <v>455.8185014393055</v>
+        <v>629.9286277745334</v>
       </c>
       <c r="AC28" t="n">
-        <v>412.3158234072222</v>
+        <v>569.809123650113</v>
       </c>
       <c r="AD28" t="n">
-        <v>333141.2105586666</v>
+        <v>460391.9870731952</v>
       </c>
       <c r="AE28" t="n">
-        <v>455818.5014393055</v>
+        <v>629928.6277745335</v>
       </c>
       <c r="AF28" t="n">
         <v>6.127542608557438e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH28" t="n">
-        <v>412315.8234072222</v>
+        <v>569809.123650113</v>
       </c>
     </row>
     <row r="29">
@@ -10589,28 +10589,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>332.4464364387416</v>
+        <v>459.6972129532701</v>
       </c>
       <c r="AB29" t="n">
-        <v>454.8678808371532</v>
+        <v>628.9780071723811</v>
       </c>
       <c r="AC29" t="n">
-        <v>411.4559287011348</v>
+        <v>568.9492289440257</v>
       </c>
       <c r="AD29" t="n">
-        <v>332446.4364387416</v>
+        <v>459697.2129532701</v>
       </c>
       <c r="AE29" t="n">
-        <v>454867.8808371532</v>
+        <v>628978.0071723812</v>
       </c>
       <c r="AF29" t="n">
         <v>6.133629830851985e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH29" t="n">
-        <v>411455.9287011349</v>
+        <v>568949.2289440257</v>
       </c>
     </row>
     <row r="30">
@@ -10695,28 +10695,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>331.8284118005511</v>
+        <v>459.0791883150796</v>
       </c>
       <c r="AB30" t="n">
-        <v>454.0222722618583</v>
+        <v>628.1323985970862</v>
       </c>
       <c r="AC30" t="n">
-        <v>410.691023821447</v>
+        <v>568.1843240643377</v>
       </c>
       <c r="AD30" t="n">
-        <v>331828.4118005511</v>
+        <v>459079.1883150797</v>
       </c>
       <c r="AE30" t="n">
-        <v>454022.2722618583</v>
+        <v>628132.3985970862</v>
       </c>
       <c r="AF30" t="n">
         <v>6.132544979353947e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH30" t="n">
-        <v>410691.023821447</v>
+        <v>568184.3240643378</v>
       </c>
     </row>
     <row r="31">
@@ -10801,28 +10801,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>330.9825135126479</v>
+        <v>458.2332900271765</v>
       </c>
       <c r="AB31" t="n">
-        <v>452.8648769059505</v>
+        <v>626.9750032411785</v>
       </c>
       <c r="AC31" t="n">
-        <v>409.6440886538925</v>
+        <v>567.1373888967832</v>
       </c>
       <c r="AD31" t="n">
-        <v>330982.5135126479</v>
+        <v>458233.2900271765</v>
       </c>
       <c r="AE31" t="n">
-        <v>452864.8769059505</v>
+        <v>626975.0032411785</v>
       </c>
       <c r="AF31" t="n">
         <v>6.136221420541743e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH31" t="n">
-        <v>409644.0886538925</v>
+        <v>567137.3888967832</v>
       </c>
     </row>
     <row r="32">
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA32" t="n">
-        <v>330.0938584152939</v>
+        <v>457.2431497033372</v>
       </c>
       <c r="AB32" t="n">
-        <v>451.6489797970548</v>
+        <v>625.6202495681935</v>
       </c>
       <c r="AC32" t="n">
-        <v>408.5442350585474</v>
+        <v>565.9119310129392</v>
       </c>
       <c r="AD32" t="n">
-        <v>330093.8584152939</v>
+        <v>457243.1497033372</v>
       </c>
       <c r="AE32" t="n">
-        <v>451648.9797970548</v>
+        <v>625620.2495681935</v>
       </c>
       <c r="AF32" t="n">
         <v>6.169550469342579e-06</v>
       </c>
       <c r="AG32" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH32" t="n">
-        <v>408544.2350585474</v>
+        <v>565911.9310129392</v>
       </c>
     </row>
     <row r="33">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA33" t="n">
-        <v>330.4163112223503</v>
+        <v>457.5656025103936</v>
       </c>
       <c r="AB33" t="n">
-        <v>452.0901739532831</v>
+        <v>626.0614437244218</v>
       </c>
       <c r="AC33" t="n">
-        <v>408.9433222637252</v>
+        <v>566.3110182181171</v>
       </c>
       <c r="AD33" t="n">
-        <v>330416.3112223503</v>
+        <v>457565.6025103936</v>
       </c>
       <c r="AE33" t="n">
-        <v>452090.1739532831</v>
+        <v>626061.4437244218</v>
       </c>
       <c r="AF33" t="n">
         <v>6.16653699295914e-06</v>
       </c>
       <c r="AG33" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH33" t="n">
-        <v>408943.3222637252</v>
+        <v>566311.0182181171</v>
       </c>
     </row>
   </sheetData>
@@ -11310,28 +11310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.1210718061944</v>
+        <v>648.2694712816553</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.7133671906944</v>
+        <v>886.9908902381738</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.801073900943</v>
+        <v>802.337724573375</v>
       </c>
       <c r="AD2" t="n">
-        <v>474121.0718061944</v>
+        <v>648269.4712816554</v>
       </c>
       <c r="AE2" t="n">
-        <v>648713.3671906944</v>
+        <v>886990.8902381739</v>
       </c>
       <c r="AF2" t="n">
         <v>4.857183651067339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.36458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>586801.073900943</v>
+        <v>802337.724573375</v>
       </c>
     </row>
     <row r="3">
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.5256322490071</v>
+        <v>529.6323842741436</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.1249341167231</v>
+        <v>724.6663938956077</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.9123088256051</v>
+        <v>655.5052503378819</v>
       </c>
       <c r="AD3" t="n">
-        <v>384525.6322490071</v>
+        <v>529632.3842741436</v>
       </c>
       <c r="AE3" t="n">
-        <v>526124.9341167231</v>
+        <v>724666.3938956077</v>
       </c>
       <c r="AF3" t="n">
         <v>5.833513571425391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>475912.3088256051</v>
+        <v>655505.2503378819</v>
       </c>
     </row>
     <row r="4">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.1034887478338</v>
+        <v>502.2433951618939</v>
       </c>
       <c r="AB4" t="n">
-        <v>488.6047475988285</v>
+        <v>687.1915706753069</v>
       </c>
       <c r="AC4" t="n">
-        <v>441.9729962490658</v>
+        <v>621.6069716494818</v>
       </c>
       <c r="AD4" t="n">
-        <v>357103.4887478338</v>
+        <v>502243.3951618939</v>
       </c>
       <c r="AE4" t="n">
-        <v>488604.7475988285</v>
+        <v>687191.570675307</v>
       </c>
       <c r="AF4" t="n">
         <v>6.171156880593458e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.83854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>441972.9962490659</v>
+        <v>621606.9716494818</v>
       </c>
     </row>
     <row r="5">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.9889376106819</v>
+        <v>478.4824602934147</v>
       </c>
       <c r="AB5" t="n">
-        <v>469.2925960429284</v>
+        <v>654.6808113297895</v>
       </c>
       <c r="AC5" t="n">
-        <v>424.5039693328858</v>
+        <v>592.1989935467633</v>
       </c>
       <c r="AD5" t="n">
-        <v>342988.9376106819</v>
+        <v>478482.4602934147</v>
       </c>
       <c r="AE5" t="n">
-        <v>469292.5960429284</v>
+        <v>654680.8113297896</v>
       </c>
       <c r="AF5" t="n">
         <v>6.367478000006218e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>424503.9693328858</v>
+        <v>592198.9935467633</v>
       </c>
     </row>
     <row r="6">
@@ -11734,28 +11734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>340.0544692572926</v>
+        <v>475.4465067135402</v>
       </c>
       <c r="AB6" t="n">
-        <v>465.2775269822141</v>
+        <v>650.5268857049861</v>
       </c>
       <c r="AC6" t="n">
-        <v>420.8720928281413</v>
+        <v>588.4415127535198</v>
       </c>
       <c r="AD6" t="n">
-        <v>340054.4692572926</v>
+        <v>475446.5067135402</v>
       </c>
       <c r="AE6" t="n">
-        <v>465277.5269822141</v>
+        <v>650526.8857049861</v>
       </c>
       <c r="AF6" t="n">
         <v>6.505700729696895e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH6" t="n">
-        <v>420872.0928281413</v>
+        <v>588441.5127535198</v>
       </c>
     </row>
     <row r="7">
@@ -11840,28 +11840,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>338.7433699901616</v>
+        <v>464.5231891338627</v>
       </c>
       <c r="AB7" t="n">
-        <v>463.4836231233081</v>
+        <v>635.5811206897107</v>
       </c>
       <c r="AC7" t="n">
-        <v>419.2493966357694</v>
+        <v>574.9221505747894</v>
       </c>
       <c r="AD7" t="n">
-        <v>338743.3699901616</v>
+        <v>464523.1891338627</v>
       </c>
       <c r="AE7" t="n">
-        <v>463483.6231233081</v>
+        <v>635581.1206897107</v>
       </c>
       <c r="AF7" t="n">
         <v>6.564326687089554e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>419249.3966357694</v>
+        <v>574922.1505747894</v>
       </c>
     </row>
     <row r="8">
@@ -11946,28 +11946,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>327.2108481482121</v>
+        <v>462.670205412164</v>
       </c>
       <c r="AB8" t="n">
-        <v>447.7043179601969</v>
+        <v>633.0457866138104</v>
       </c>
       <c r="AC8" t="n">
-        <v>404.9760462110317</v>
+        <v>572.6287852247292</v>
       </c>
       <c r="AD8" t="n">
-        <v>327210.8481482121</v>
+        <v>462670.205412164</v>
       </c>
       <c r="AE8" t="n">
-        <v>447704.3179601969</v>
+        <v>633045.7866138103</v>
       </c>
       <c r="AF8" t="n">
         <v>6.641285621034698e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>404976.0462110317</v>
+        <v>572628.7852247292</v>
       </c>
     </row>
     <row r="9">
@@ -12052,28 +12052,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>326.4989930125766</v>
+        <v>461.9583502765286</v>
       </c>
       <c r="AB9" t="n">
-        <v>446.7303263587883</v>
+        <v>632.0717950124018</v>
       </c>
       <c r="AC9" t="n">
-        <v>404.0950110010557</v>
+        <v>571.7477500147533</v>
       </c>
       <c r="AD9" t="n">
-        <v>326498.9930125766</v>
+        <v>461958.3502765286</v>
       </c>
       <c r="AE9" t="n">
-        <v>446730.3263587883</v>
+        <v>632071.7950124018</v>
       </c>
       <c r="AF9" t="n">
         <v>6.668323464151672e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.75520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>404095.0110010557</v>
+        <v>571747.7500147532</v>
       </c>
     </row>
     <row r="10">
@@ -12158,28 +12158,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>325.3338073528725</v>
+        <v>451.180946304278</v>
       </c>
       <c r="AB10" t="n">
-        <v>445.1360679348177</v>
+        <v>617.3256754320619</v>
       </c>
       <c r="AC10" t="n">
-        <v>402.6529063635132</v>
+        <v>558.4089793908523</v>
       </c>
       <c r="AD10" t="n">
-        <v>325333.8073528725</v>
+        <v>451180.946304278</v>
       </c>
       <c r="AE10" t="n">
-        <v>445136.0679348178</v>
+        <v>617325.6754320619</v>
       </c>
       <c r="AF10" t="n">
         <v>6.714353743409349e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>402652.9063635132</v>
+        <v>558408.9793908523</v>
       </c>
     </row>
     <row r="11">
@@ -12264,28 +12264,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>325.1660342548642</v>
+        <v>451.0131732062697</v>
       </c>
       <c r="AB11" t="n">
-        <v>444.9065133804961</v>
+        <v>617.0961208777402</v>
       </c>
       <c r="AC11" t="n">
-        <v>402.4452601736741</v>
+        <v>558.2013332010132</v>
       </c>
       <c r="AD11" t="n">
-        <v>325166.0342548642</v>
+        <v>451013.1732062697</v>
       </c>
       <c r="AE11" t="n">
-        <v>444906.5133804961</v>
+        <v>617096.1208777402</v>
       </c>
       <c r="AF11" t="n">
         <v>6.70109860568615e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH11" t="n">
-        <v>402445.2601736741</v>
+        <v>558201.3332010132</v>
       </c>
     </row>
     <row r="12">
@@ -12370,28 +12370,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>324.1982359488362</v>
+        <v>449.9438896737565</v>
       </c>
       <c r="AB12" t="n">
-        <v>443.5823290419407</v>
+        <v>615.6330799750956</v>
       </c>
       <c r="AC12" t="n">
-        <v>401.2474541298861</v>
+        <v>556.877922868726</v>
       </c>
       <c r="AD12" t="n">
-        <v>324198.2359488362</v>
+        <v>449943.8896737565</v>
       </c>
       <c r="AE12" t="n">
-        <v>443582.3290419407</v>
+        <v>615633.0799750956</v>
       </c>
       <c r="AF12" t="n">
         <v>6.748513750079087e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>401247.4541298861</v>
+        <v>556877.9228687261</v>
       </c>
     </row>
     <row r="13">
@@ -12476,28 +12476,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>322.9644191916618</v>
+        <v>448.7100729165821</v>
       </c>
       <c r="AB13" t="n">
-        <v>441.894166522621</v>
+        <v>613.9449174557758</v>
       </c>
       <c r="AC13" t="n">
-        <v>399.7204074720593</v>
+        <v>555.3508762108993</v>
       </c>
       <c r="AD13" t="n">
-        <v>322964.4191916618</v>
+        <v>448710.0729165821</v>
       </c>
       <c r="AE13" t="n">
-        <v>441894.166522621</v>
+        <v>613944.9174557758</v>
       </c>
       <c r="AF13" t="n">
         <v>6.785707270854632e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>399720.4074720592</v>
+        <v>555350.8762108993</v>
       </c>
     </row>
     <row r="14">
@@ -12582,28 +12582,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>322.9643456067555</v>
+        <v>448.7099993316758</v>
       </c>
       <c r="AB14" t="n">
-        <v>441.8940658405059</v>
+        <v>613.9448167736607</v>
       </c>
       <c r="AC14" t="n">
-        <v>399.7203163989038</v>
+        <v>555.350785137744</v>
       </c>
       <c r="AD14" t="n">
-        <v>322964.3456067555</v>
+        <v>448709.9993316758</v>
       </c>
       <c r="AE14" t="n">
-        <v>441894.0658405059</v>
+        <v>613944.8167736607</v>
       </c>
       <c r="AF14" t="n">
         <v>6.783597000172331e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH14" t="n">
-        <v>399720.3163989038</v>
+        <v>555350.7851377439</v>
       </c>
     </row>
     <row r="15">
@@ -12688,28 +12688,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>322.4259666477644</v>
+        <v>448.1716203726847</v>
       </c>
       <c r="AB15" t="n">
-        <v>441.1574319972109</v>
+        <v>613.2081829303656</v>
       </c>
       <c r="AC15" t="n">
-        <v>399.0539858557409</v>
+        <v>554.6844545945809</v>
       </c>
       <c r="AD15" t="n">
-        <v>322425.9666477644</v>
+        <v>448171.6203726847</v>
       </c>
       <c r="AE15" t="n">
-        <v>441157.431997211</v>
+        <v>613208.1829303657</v>
       </c>
       <c r="AF15" t="n">
         <v>6.782607810790002e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH15" t="n">
-        <v>399053.9858557409</v>
+        <v>554684.4545945809</v>
       </c>
     </row>
     <row r="16">
@@ -12794,28 +12794,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>321.6453139943981</v>
+        <v>447.3909677193183</v>
       </c>
       <c r="AB16" t="n">
-        <v>440.0893085969107</v>
+        <v>612.1400595300655</v>
       </c>
       <c r="AC16" t="n">
-        <v>398.0878026536447</v>
+        <v>553.7182713924848</v>
       </c>
       <c r="AD16" t="n">
-        <v>321645.3139943981</v>
+        <v>447390.9677193183</v>
       </c>
       <c r="AE16" t="n">
-        <v>440089.3085969107</v>
+        <v>612140.0595300655</v>
       </c>
       <c r="AF16" t="n">
         <v>6.816504033624453e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>398087.8026536447</v>
+        <v>553718.2713924848</v>
       </c>
     </row>
     <row r="17">
@@ -12900,28 +12900,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>321.4595266421685</v>
+        <v>447.2051803670888</v>
       </c>
       <c r="AB17" t="n">
-        <v>439.8351061452307</v>
+        <v>611.8858570783855</v>
       </c>
       <c r="AC17" t="n">
-        <v>397.8578609271776</v>
+        <v>553.4883296660178</v>
       </c>
       <c r="AD17" t="n">
-        <v>321459.5266421685</v>
+        <v>447205.1803670888</v>
       </c>
       <c r="AE17" t="n">
-        <v>439835.1061452306</v>
+        <v>611885.8570783854</v>
       </c>
       <c r="AF17" t="n">
         <v>6.818284574512644e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>397857.8609271777</v>
+        <v>553488.3296660178</v>
       </c>
     </row>
     <row r="18">
@@ -13006,28 +13006,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>320.7647598954024</v>
+        <v>446.5104136203227</v>
       </c>
       <c r="AB18" t="n">
-        <v>438.8844956313598</v>
+        <v>610.9352465645145</v>
       </c>
       <c r="AC18" t="n">
-        <v>396.9979753465603</v>
+        <v>552.6284440854004</v>
       </c>
       <c r="AD18" t="n">
-        <v>320764.7598954025</v>
+        <v>446510.4136203227</v>
       </c>
       <c r="AE18" t="n">
-        <v>438884.4956313598</v>
+        <v>610935.2465645145</v>
       </c>
       <c r="AF18" t="n">
         <v>6.825736467859517e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH18" t="n">
-        <v>396997.9753465603</v>
+        <v>552628.4440854003</v>
       </c>
     </row>
     <row r="19">
@@ -13112,28 +13112,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>320.1030590755968</v>
+        <v>445.8487128005171</v>
       </c>
       <c r="AB19" t="n">
-        <v>437.9791273775218</v>
+        <v>610.0298783106765</v>
       </c>
       <c r="AC19" t="n">
-        <v>396.1790141681763</v>
+        <v>551.8094829070164</v>
       </c>
       <c r="AD19" t="n">
-        <v>320103.0590755969</v>
+        <v>445848.7128005171</v>
       </c>
       <c r="AE19" t="n">
-        <v>437979.1273775218</v>
+        <v>610029.8783106765</v>
       </c>
       <c r="AF19" t="n">
         <v>6.818680250265576e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>396179.0141681763</v>
+        <v>551809.4829070164</v>
       </c>
     </row>
     <row r="20">
@@ -13218,28 +13218,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>319.403313841137</v>
+        <v>435.5367492535108</v>
       </c>
       <c r="AB20" t="n">
-        <v>437.0217050771528</v>
+        <v>595.9205948539383</v>
       </c>
       <c r="AC20" t="n">
-        <v>395.312966908404</v>
+        <v>539.0467696608855</v>
       </c>
       <c r="AD20" t="n">
-        <v>319403.313841137</v>
+        <v>435536.7492535108</v>
       </c>
       <c r="AE20" t="n">
-        <v>437021.7050771528</v>
+        <v>595920.5948539383</v>
       </c>
       <c r="AF20" t="n">
         <v>6.858247825558709e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>395312.966908404</v>
+        <v>539046.7696608854</v>
       </c>
     </row>
     <row r="21">
@@ -13324,28 +13324,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>319.2158543876184</v>
+        <v>435.3492897999922</v>
       </c>
       <c r="AB21" t="n">
-        <v>436.7652147827213</v>
+        <v>595.6641045595068</v>
       </c>
       <c r="AC21" t="n">
-        <v>395.0809556876866</v>
+        <v>538.8147584401681</v>
       </c>
       <c r="AD21" t="n">
-        <v>319215.8543876184</v>
+        <v>435349.2897999922</v>
       </c>
       <c r="AE21" t="n">
-        <v>436765.2147827213</v>
+        <v>595664.1045595068</v>
       </c>
       <c r="AF21" t="n">
         <v>6.859830528570434e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>395080.9556876866</v>
+        <v>538814.7584401681</v>
       </c>
     </row>
     <row r="22">
@@ -13430,28 +13430,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>318.9634751994412</v>
+        <v>435.096910611815</v>
       </c>
       <c r="AB22" t="n">
-        <v>436.4198984432732</v>
+        <v>595.3187882200587</v>
       </c>
       <c r="AC22" t="n">
-        <v>394.7685958550209</v>
+        <v>538.5023986075023</v>
       </c>
       <c r="AD22" t="n">
-        <v>318963.4751994412</v>
+        <v>435096.9106118149</v>
       </c>
       <c r="AE22" t="n">
-        <v>436419.8984432732</v>
+        <v>595318.7882200587</v>
       </c>
       <c r="AF22" t="n">
         <v>6.858841339188105e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>394768.5958550209</v>
+        <v>538502.3986075023</v>
       </c>
     </row>
     <row r="23">
@@ -13536,28 +13536,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>318.8020940658802</v>
+        <v>434.9355294782539</v>
       </c>
       <c r="AB23" t="n">
-        <v>436.1990896567019</v>
+        <v>595.0979794334874</v>
       </c>
       <c r="AC23" t="n">
-        <v>394.5688607491329</v>
+        <v>538.3026635016145</v>
       </c>
       <c r="AD23" t="n">
-        <v>318802.0940658802</v>
+        <v>434935.5294782539</v>
       </c>
       <c r="AE23" t="n">
-        <v>436199.0896567019</v>
+        <v>595097.9794334874</v>
       </c>
       <c r="AF23" t="n">
         <v>6.857060798299914e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>394568.8607491329</v>
+        <v>538302.6635016145</v>
       </c>
     </row>
   </sheetData>
@@ -13833,28 +13833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.6868595420052</v>
+        <v>464.596284090472</v>
       </c>
       <c r="AB2" t="n">
-        <v>456.5650824506436</v>
+        <v>635.6811324340656</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.9911517746712</v>
+        <v>575.0126173386303</v>
       </c>
       <c r="AD2" t="n">
-        <v>333686.8595420052</v>
+        <v>464596.284090472</v>
       </c>
       <c r="AE2" t="n">
-        <v>456565.0824506435</v>
+        <v>635681.1324340656</v>
       </c>
       <c r="AF2" t="n">
         <v>8.557817063797503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>412991.1517746712</v>
+        <v>575012.6173386304</v>
       </c>
     </row>
     <row r="3">
@@ -13939,28 +13939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.7344708065602</v>
+        <v>417.2542481965197</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.6369498415858</v>
+        <v>570.9056703407413</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.0189672602301</v>
+        <v>516.4192344345608</v>
       </c>
       <c r="AD3" t="n">
-        <v>295734.4708065602</v>
+        <v>417254.2481965197</v>
       </c>
       <c r="AE3" t="n">
-        <v>404636.9498415858</v>
+        <v>570905.6703407413</v>
       </c>
       <c r="AF3" t="n">
         <v>9.401236957267398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.49479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>366018.96726023</v>
+        <v>516419.2344345609</v>
       </c>
     </row>
     <row r="4">
@@ -14045,28 +14045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>283.1446114711196</v>
+        <v>404.7317086687835</v>
       </c>
       <c r="AB4" t="n">
-        <v>387.4109488734421</v>
+        <v>553.771779303439</v>
       </c>
       <c r="AC4" t="n">
-        <v>350.4369916476417</v>
+        <v>500.9205779102916</v>
       </c>
       <c r="AD4" t="n">
-        <v>283144.6114711196</v>
+        <v>404731.7086687835</v>
       </c>
       <c r="AE4" t="n">
-        <v>387410.9488734421</v>
+        <v>553771.779303439</v>
       </c>
       <c r="AF4" t="n">
         <v>9.666146097658794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>350436.9916476416</v>
+        <v>500920.5779102916</v>
       </c>
     </row>
     <row r="5">
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>281.3086722474466</v>
+        <v>402.7942842186253</v>
       </c>
       <c r="AB5" t="n">
-        <v>384.8989358316906</v>
+        <v>551.1209096975981</v>
       </c>
       <c r="AC5" t="n">
-        <v>348.1647216049624</v>
+        <v>498.5227035791133</v>
       </c>
       <c r="AD5" t="n">
-        <v>281308.6722474465</v>
+        <v>402794.2842186253</v>
       </c>
       <c r="AE5" t="n">
-        <v>384898.9358316906</v>
+        <v>551120.9096975981</v>
       </c>
       <c r="AF5" t="n">
         <v>9.799060899161633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>348164.7216049624</v>
+        <v>498522.7035791134</v>
       </c>
     </row>
     <row r="6">
@@ -14257,28 +14257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.6763266339366</v>
+        <v>391.8747877029504</v>
       </c>
       <c r="AB6" t="n">
-        <v>382.6654885492802</v>
+        <v>536.1803728306645</v>
       </c>
       <c r="AC6" t="n">
-        <v>346.1444313965225</v>
+        <v>485.0080705815848</v>
       </c>
       <c r="AD6" t="n">
-        <v>279676.3266339366</v>
+        <v>391874.7877029504</v>
       </c>
       <c r="AE6" t="n">
-        <v>382665.4885492802</v>
+        <v>536180.3728306645</v>
       </c>
       <c r="AF6" t="n">
         <v>9.880613886787338e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>346144.4313965224</v>
+        <v>485008.0705815848</v>
       </c>
     </row>
     <row r="7">
@@ -14363,28 +14363,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>278.3464954166027</v>
+        <v>390.5449564856165</v>
       </c>
       <c r="AB7" t="n">
-        <v>380.8459548097112</v>
+        <v>534.3608390910955</v>
       </c>
       <c r="AC7" t="n">
-        <v>344.4985514033262</v>
+        <v>483.3621905883886</v>
       </c>
       <c r="AD7" t="n">
-        <v>278346.4954166027</v>
+        <v>390544.9564856165</v>
       </c>
       <c r="AE7" t="n">
-        <v>380845.9548097112</v>
+        <v>534360.8390910955</v>
       </c>
       <c r="AF7" t="n">
         <v>9.962350966935898e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>344498.5514033262</v>
+        <v>483362.1905883886</v>
       </c>
     </row>
     <row r="8">
@@ -14469,28 +14469,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>278.4644051939922</v>
+        <v>390.662866263006</v>
       </c>
       <c r="AB8" t="n">
-        <v>381.0072841689478</v>
+        <v>534.5221684503322</v>
       </c>
       <c r="AC8" t="n">
-        <v>344.6444837149445</v>
+        <v>483.5081229000069</v>
       </c>
       <c r="AD8" t="n">
-        <v>278464.4051939922</v>
+        <v>390662.866263006</v>
       </c>
       <c r="AE8" t="n">
-        <v>381007.2841689478</v>
+        <v>534522.1684503321</v>
       </c>
       <c r="AF8" t="n">
         <v>9.955723636113042e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>344644.4837149445</v>
+        <v>483508.1229000069</v>
       </c>
     </row>
   </sheetData>
@@ -14766,28 +14766,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.6909278219331</v>
+        <v>517.862159941412</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.036901759949</v>
+        <v>708.5618536979149</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.9779413113015</v>
+        <v>640.9377048537925</v>
       </c>
       <c r="AD2" t="n">
-        <v>375690.9278219331</v>
+        <v>517862.159941412</v>
       </c>
       <c r="AE2" t="n">
-        <v>514036.901759949</v>
+        <v>708561.8536979149</v>
       </c>
       <c r="AF2" t="n">
         <v>6.870217104877799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>464977.9413113015</v>
+        <v>640937.7048537926</v>
       </c>
     </row>
     <row r="3">
@@ -14872,28 +14872,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.6773742724238</v>
+        <v>455.3991906523474</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.5014190005915</v>
+        <v>623.0972634448973</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.3651432223077</v>
+        <v>563.6297351442172</v>
       </c>
       <c r="AD3" t="n">
-        <v>322677.3742724238</v>
+        <v>455399.1906523475</v>
       </c>
       <c r="AE3" t="n">
-        <v>441501.4190005915</v>
+        <v>623097.2634448973</v>
       </c>
       <c r="AF3" t="n">
         <v>7.751114320569132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>399365.1432223077</v>
+        <v>563629.7351442171</v>
       </c>
     </row>
     <row r="4">
@@ -14978,28 +14978,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.3962968611592</v>
+        <v>431.6697085313847</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.9614188498297</v>
+        <v>590.6295391361293</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.690013261372</v>
+        <v>534.2606848747408</v>
       </c>
       <c r="AD4" t="n">
-        <v>308396.2968611592</v>
+        <v>431669.7085313847</v>
       </c>
       <c r="AE4" t="n">
-        <v>421961.4188498297</v>
+        <v>590629.5391361293</v>
       </c>
       <c r="AF4" t="n">
         <v>8.068926029822715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>381690.013261372</v>
+        <v>534260.6848747408</v>
       </c>
     </row>
     <row r="5">
@@ -15084,28 +15084,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.3538038594003</v>
+        <v>429.5257303031406</v>
       </c>
       <c r="AB5" t="n">
-        <v>419.1667898163915</v>
+        <v>587.6960535386019</v>
       </c>
       <c r="AC5" t="n">
-        <v>379.1620997005987</v>
+        <v>531.6071670254685</v>
       </c>
       <c r="AD5" t="n">
-        <v>306353.8038594003</v>
+        <v>429525.7303031406</v>
       </c>
       <c r="AE5" t="n">
-        <v>419166.7898163915</v>
+        <v>587696.0535386018</v>
       </c>
       <c r="AF5" t="n">
         <v>8.195428959992124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.33854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>379162.0997005987</v>
+        <v>531607.1670254684</v>
       </c>
     </row>
     <row r="6">
@@ -15190,28 +15190,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>294.9020642782143</v>
+        <v>418.141310529659</v>
       </c>
       <c r="AB6" t="n">
-        <v>403.4980145063187</v>
+        <v>572.1193881593705</v>
       </c>
       <c r="AC6" t="n">
-        <v>364.988730314855</v>
+        <v>517.5171167280438</v>
       </c>
       <c r="AD6" t="n">
-        <v>294902.0642782143</v>
+        <v>418141.310529659</v>
       </c>
       <c r="AE6" t="n">
-        <v>403498.0145063187</v>
+        <v>572119.3881593705</v>
       </c>
       <c r="AF6" t="n">
         <v>8.31340270709403e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.97395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>364988.730314855</v>
+        <v>517517.1167280438</v>
       </c>
     </row>
     <row r="7">
@@ -15296,28 +15296,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>293.4197734460183</v>
+        <v>416.659019697463</v>
       </c>
       <c r="AB7" t="n">
-        <v>401.4698787956521</v>
+        <v>570.0912524487038</v>
       </c>
       <c r="AC7" t="n">
-        <v>363.154157029908</v>
+        <v>515.6825434430968</v>
       </c>
       <c r="AD7" t="n">
-        <v>293419.7734460183</v>
+        <v>416659.019697463</v>
       </c>
       <c r="AE7" t="n">
-        <v>401469.8787956521</v>
+        <v>570091.2524487039</v>
       </c>
       <c r="AF7" t="n">
         <v>8.389527658771274e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>363154.157029908</v>
+        <v>515682.5434430968</v>
       </c>
     </row>
     <row r="8">
@@ -15402,28 +15402,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>292.3232117651983</v>
+        <v>415.5624580166429</v>
       </c>
       <c r="AB8" t="n">
-        <v>399.969514727067</v>
+        <v>568.5908883801187</v>
       </c>
       <c r="AC8" t="n">
-        <v>361.7969856022544</v>
+        <v>514.3253720154432</v>
       </c>
       <c r="AD8" t="n">
-        <v>292323.2117651983</v>
+        <v>415562.458016643</v>
       </c>
       <c r="AE8" t="n">
-        <v>399969.514727067</v>
+        <v>568590.8883801188</v>
       </c>
       <c r="AF8" t="n">
         <v>8.434883781812479e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>361796.9856022545</v>
+        <v>514325.3720154433</v>
       </c>
     </row>
     <row r="9">
@@ -15508,28 +15508,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>291.4165252761991</v>
+        <v>414.6557715276437</v>
       </c>
       <c r="AB9" t="n">
-        <v>398.7289462726334</v>
+        <v>567.3503199256852</v>
       </c>
       <c r="AC9" t="n">
-        <v>360.6748152599633</v>
+        <v>513.2032016731521</v>
       </c>
       <c r="AD9" t="n">
-        <v>291416.5252761991</v>
+        <v>414655.7715276437</v>
       </c>
       <c r="AE9" t="n">
-        <v>398728.9462726334</v>
+        <v>567350.3199256852</v>
       </c>
       <c r="AF9" t="n">
         <v>8.467007714300363e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.50520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>360674.8152599633</v>
+        <v>513203.2016731521</v>
       </c>
     </row>
     <row r="10">
@@ -15614,28 +15614,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>290.3883837320155</v>
+        <v>404.1119054660577</v>
       </c>
       <c r="AB10" t="n">
-        <v>397.3221976534778</v>
+        <v>552.9237372176821</v>
       </c>
       <c r="AC10" t="n">
-        <v>359.4023247546358</v>
+        <v>500.1534717709649</v>
       </c>
       <c r="AD10" t="n">
-        <v>290388.3837320156</v>
+        <v>404111.9054660577</v>
       </c>
       <c r="AE10" t="n">
-        <v>397322.1976534778</v>
+        <v>552923.7372176821</v>
       </c>
       <c r="AF10" t="n">
         <v>8.503595518300212e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>359402.3247546358</v>
+        <v>500153.4717709649</v>
       </c>
     </row>
     <row r="11">
@@ -15720,28 +15720,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>289.5930530442745</v>
+        <v>403.3165747783167</v>
       </c>
       <c r="AB11" t="n">
-        <v>396.233991118997</v>
+        <v>551.8355306832012</v>
       </c>
       <c r="AC11" t="n">
-        <v>358.4179751244984</v>
+        <v>499.1691221408274</v>
       </c>
       <c r="AD11" t="n">
-        <v>289593.0530442745</v>
+        <v>403316.5747783167</v>
       </c>
       <c r="AE11" t="n">
-        <v>396233.991118997</v>
+        <v>551835.5306832013</v>
       </c>
       <c r="AF11" t="n">
         <v>8.502878110378647e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>358417.9751244984</v>
+        <v>499169.1221408274</v>
       </c>
     </row>
     <row r="12">
@@ -15826,28 +15826,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>289.1567730598682</v>
+        <v>402.8802947939104</v>
       </c>
       <c r="AB12" t="n">
-        <v>395.6370535970177</v>
+        <v>551.238593161222</v>
       </c>
       <c r="AC12" t="n">
-        <v>357.8780084818096</v>
+        <v>498.6291554981387</v>
       </c>
       <c r="AD12" t="n">
-        <v>289156.7730598681</v>
+        <v>402880.2947939103</v>
       </c>
       <c r="AE12" t="n">
-        <v>395637.0535970177</v>
+        <v>551238.5931612219</v>
       </c>
       <c r="AF12" t="n">
         <v>8.530697595337137e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>357878.0084818096</v>
+        <v>498629.1554981387</v>
       </c>
     </row>
   </sheetData>
@@ -16123,28 +16123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.8895086339676</v>
+        <v>428.3727478916672</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.95381178749</v>
+        <v>586.1184921372297</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.9238339607709</v>
+        <v>530.1801658701221</v>
       </c>
       <c r="AD2" t="n">
-        <v>298889.5086339676</v>
+        <v>428372.7478916672</v>
       </c>
       <c r="AE2" t="n">
-        <v>408953.81178749</v>
+        <v>586118.4921372298</v>
       </c>
       <c r="AF2" t="n">
         <v>1.033906523850044e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>369923.8339607709</v>
+        <v>530180.1658701221</v>
       </c>
     </row>
     <row r="3">
@@ -16229,28 +16229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.6954591583244</v>
+        <v>393.9274552248469</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.4822018118967</v>
+        <v>538.9889230914231</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.7421460600398</v>
+        <v>487.5485767472815</v>
       </c>
       <c r="AD3" t="n">
-        <v>273695.4591583244</v>
+        <v>393927.4552248469</v>
       </c>
       <c r="AE3" t="n">
-        <v>374482.2018118967</v>
+        <v>538988.9230914231</v>
       </c>
       <c r="AF3" t="n">
         <v>1.109170457139518e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>338742.1460600398</v>
+        <v>487548.5767472815</v>
       </c>
     </row>
     <row r="4">
@@ -16335,28 +16335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.8973615981999</v>
+        <v>381.8449600846216</v>
       </c>
       <c r="AB4" t="n">
-        <v>370.6537212867822</v>
+        <v>522.4571201985013</v>
       </c>
       <c r="AC4" t="n">
-        <v>335.279050342936</v>
+        <v>472.5945459199293</v>
       </c>
       <c r="AD4" t="n">
-        <v>270897.3615981999</v>
+        <v>381844.9600846216</v>
       </c>
       <c r="AE4" t="n">
-        <v>370653.7212867822</v>
+        <v>522457.1201985014</v>
       </c>
       <c r="AF4" t="n">
         <v>1.13419869325511e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>335279.050342936</v>
+        <v>472594.5459199293</v>
       </c>
     </row>
     <row r="5">
@@ -16441,28 +16441,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>260.1378724276407</v>
+        <v>380.3357030753824</v>
       </c>
       <c r="AB5" t="n">
-        <v>355.9321135284618</v>
+        <v>520.3920881747404</v>
       </c>
       <c r="AC5" t="n">
-        <v>321.9624521671634</v>
+        <v>470.7265976542254</v>
       </c>
       <c r="AD5" t="n">
-        <v>260137.8724276407</v>
+        <v>380335.7030753824</v>
       </c>
       <c r="AE5" t="n">
-        <v>355932.1135284618</v>
+        <v>520392.0881747403</v>
       </c>
       <c r="AF5" t="n">
         <v>1.14545823671402e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>321962.4521671634</v>
+        <v>470726.5976542254</v>
       </c>
     </row>
     <row r="6">
@@ -16547,28 +16547,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>260.4482465139587</v>
+        <v>380.6460771617004</v>
       </c>
       <c r="AB6" t="n">
-        <v>356.3567810461004</v>
+        <v>520.8167556923789</v>
       </c>
       <c r="AC6" t="n">
-        <v>322.3465900129432</v>
+        <v>471.1107355000051</v>
       </c>
       <c r="AD6" t="n">
-        <v>260448.2465139587</v>
+        <v>380646.0771617004</v>
       </c>
       <c r="AE6" t="n">
-        <v>356356.7810461004</v>
+        <v>520816.7556923789</v>
       </c>
       <c r="AF6" t="n">
         <v>1.14562691901303e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>322346.5900129433</v>
+        <v>471110.7355000051</v>
       </c>
     </row>
   </sheetData>
@@ -16844,28 +16844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.2826892343913</v>
+        <v>677.6166838668338</v>
       </c>
       <c r="AB2" t="n">
-        <v>674.9311375068523</v>
+        <v>927.1450412048583</v>
       </c>
       <c r="AC2" t="n">
-        <v>610.5166570149985</v>
+        <v>838.659619728504</v>
       </c>
       <c r="AD2" t="n">
-        <v>493282.6892343913</v>
+        <v>677616.6838668338</v>
       </c>
       <c r="AE2" t="n">
-        <v>674931.1375068524</v>
+        <v>927145.0412048583</v>
       </c>
       <c r="AF2" t="n">
         <v>4.616868113591063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.30208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>610516.6570149985</v>
+        <v>838659.619728504</v>
       </c>
     </row>
     <row r="3">
@@ -16950,28 +16950,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.8240595105084</v>
+        <v>545.0985878541751</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.3744760460228</v>
+        <v>745.8279359545528</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.4699646479683</v>
+        <v>674.6471645231321</v>
       </c>
       <c r="AD3" t="n">
-        <v>389824.0595105084</v>
+        <v>545098.5878541751</v>
       </c>
       <c r="AE3" t="n">
-        <v>533374.4760460227</v>
+        <v>745827.9359545528</v>
       </c>
       <c r="AF3" t="n">
         <v>5.613694104691596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>482469.9646479683</v>
+        <v>674647.1645231321</v>
       </c>
     </row>
     <row r="4">
@@ -17056,28 +17056,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>360.9197071748245</v>
+        <v>506.4853068196645</v>
       </c>
       <c r="AB4" t="n">
-        <v>493.8262660103119</v>
+        <v>692.995541345403</v>
       </c>
       <c r="AC4" t="n">
-        <v>446.6961802718043</v>
+        <v>626.8570195047479</v>
       </c>
       <c r="AD4" t="n">
-        <v>360919.7071748245</v>
+        <v>506485.3068196644</v>
       </c>
       <c r="AE4" t="n">
-        <v>493826.2660103119</v>
+        <v>692995.5413454031</v>
       </c>
       <c r="AF4" t="n">
         <v>5.98443100170452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.99479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>446696.1802718043</v>
+        <v>626857.0195047479</v>
       </c>
     </row>
     <row r="5">
@@ -17162,28 +17162,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>356.6160652308376</v>
+        <v>492.4395817879271</v>
       </c>
       <c r="AB5" t="n">
-        <v>487.9378332392664</v>
+        <v>673.7775607033248</v>
       </c>
       <c r="AC5" t="n">
-        <v>441.3697312599601</v>
+        <v>609.4731759625444</v>
       </c>
       <c r="AD5" t="n">
-        <v>356616.0652308377</v>
+        <v>492439.5817879271</v>
       </c>
       <c r="AE5" t="n">
-        <v>487937.8332392664</v>
+        <v>673777.5607033247</v>
       </c>
       <c r="AF5" t="n">
         <v>6.171633507070009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>441369.7312599601</v>
+        <v>609473.1759625444</v>
       </c>
     </row>
     <row r="6">
@@ -17268,28 +17268,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>344.7456563822942</v>
+        <v>480.6364927470881</v>
       </c>
       <c r="AB6" t="n">
-        <v>471.6962161672107</v>
+        <v>657.6280535621105</v>
       </c>
       <c r="AC6" t="n">
-        <v>426.6781913260087</v>
+        <v>594.864955116912</v>
       </c>
       <c r="AD6" t="n">
-        <v>344745.6563822941</v>
+        <v>480636.4927470881</v>
       </c>
       <c r="AE6" t="n">
-        <v>471696.2161672107</v>
+        <v>657628.0535621105</v>
       </c>
       <c r="AF6" t="n">
         <v>6.264044231616192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>426678.1913260087</v>
+        <v>594864.955116912</v>
       </c>
     </row>
     <row r="7">
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>342.4729172678518</v>
+        <v>468.6216705448953</v>
       </c>
       <c r="AB7" t="n">
-        <v>468.5865542446573</v>
+        <v>641.1888437685243</v>
       </c>
       <c r="AC7" t="n">
-        <v>423.8653111729059</v>
+        <v>579.9946804334498</v>
       </c>
       <c r="AD7" t="n">
-        <v>342472.9172678518</v>
+        <v>468621.6705448953</v>
       </c>
       <c r="AE7" t="n">
-        <v>468586.5542446573</v>
+        <v>641188.8437685242</v>
       </c>
       <c r="AF7" t="n">
         <v>6.364563418065452e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>423865.3111729059</v>
+        <v>579994.6804334498</v>
       </c>
     </row>
     <row r="8">
@@ -17480,28 +17480,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>341.4700097512948</v>
+        <v>467.6187630283383</v>
       </c>
       <c r="AB8" t="n">
-        <v>467.214331935347</v>
+        <v>639.816621459214</v>
       </c>
       <c r="AC8" t="n">
-        <v>422.62405183487</v>
+        <v>578.753421095414</v>
       </c>
       <c r="AD8" t="n">
-        <v>341470.0097512947</v>
+        <v>467618.7630283383</v>
       </c>
       <c r="AE8" t="n">
-        <v>467214.3319353471</v>
+        <v>639816.621459214</v>
       </c>
       <c r="AF8" t="n">
         <v>6.403239494285686e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>422624.05183487</v>
+        <v>578753.421095414</v>
       </c>
     </row>
     <row r="9">
@@ -17586,28 +17586,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>329.838565640099</v>
+        <v>465.6952365861122</v>
       </c>
       <c r="AB9" t="n">
-        <v>451.2996769593106</v>
+        <v>637.1847677209627</v>
       </c>
       <c r="AC9" t="n">
-        <v>408.2282691933879</v>
+        <v>576.3727477841114</v>
       </c>
       <c r="AD9" t="n">
-        <v>329838.565640099</v>
+        <v>465695.2365861122</v>
       </c>
       <c r="AE9" t="n">
-        <v>451299.6769593106</v>
+        <v>637184.7677209626</v>
       </c>
       <c r="AF9" t="n">
         <v>6.476666121519108e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.88541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>408228.2691933879</v>
+        <v>576372.7477841114</v>
       </c>
     </row>
     <row r="10">
@@ -17692,28 +17692,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>329.665513211626</v>
+        <v>465.5221841576392</v>
       </c>
       <c r="AB10" t="n">
-        <v>451.0628989921396</v>
+        <v>636.9479897537916</v>
       </c>
       <c r="AC10" t="n">
-        <v>408.0140889830839</v>
+        <v>576.1585675738072</v>
       </c>
       <c r="AD10" t="n">
-        <v>329665.513211626</v>
+        <v>465522.1841576392</v>
       </c>
       <c r="AE10" t="n">
-        <v>451062.8989921396</v>
+        <v>636947.9897537916</v>
       </c>
       <c r="AF10" t="n">
         <v>6.472869302056557e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.88541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>408014.0889830838</v>
+        <v>576158.5675738072</v>
       </c>
     </row>
     <row r="11">
@@ -17798,28 +17798,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>328.85835479567</v>
+        <v>464.7150257416832</v>
       </c>
       <c r="AB11" t="n">
-        <v>449.9585092381124</v>
+        <v>635.8435999997645</v>
       </c>
       <c r="AC11" t="n">
-        <v>407.0151006371602</v>
+        <v>575.1595792278836</v>
       </c>
       <c r="AD11" t="n">
-        <v>328858.35479567</v>
+        <v>464715.0257416832</v>
       </c>
       <c r="AE11" t="n">
-        <v>449958.5092381124</v>
+        <v>635843.5999997645</v>
       </c>
       <c r="AF11" t="n">
         <v>6.507748558814238e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.75520833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>407015.1006371602</v>
+        <v>575159.5792278836</v>
       </c>
     </row>
     <row r="12">
@@ -17904,28 +17904,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>327.8908377312674</v>
+        <v>454.1069108160154</v>
       </c>
       <c r="AB12" t="n">
-        <v>448.6347097067564</v>
+        <v>621.329109161465</v>
       </c>
       <c r="AC12" t="n">
-        <v>405.8176426751126</v>
+        <v>562.0303310239756</v>
       </c>
       <c r="AD12" t="n">
-        <v>327890.8377312674</v>
+        <v>454106.9108160154</v>
       </c>
       <c r="AE12" t="n">
-        <v>448634.7097067564</v>
+        <v>621329.109161465</v>
       </c>
       <c r="AF12" t="n">
         <v>6.549191808541077e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>405817.6426751126</v>
+        <v>562030.3310239756</v>
       </c>
     </row>
     <row r="13">
@@ -18010,28 +18010,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>327.5470206761946</v>
+        <v>453.7630937609425</v>
       </c>
       <c r="AB13" t="n">
-        <v>448.1642840438677</v>
+        <v>620.8586834985763</v>
       </c>
       <c r="AC13" t="n">
-        <v>405.3921137772434</v>
+        <v>561.6048021261064</v>
       </c>
       <c r="AD13" t="n">
-        <v>327547.0206761946</v>
+        <v>453763.0937609425</v>
       </c>
       <c r="AE13" t="n">
-        <v>448164.2840438677</v>
+        <v>620858.6834985763</v>
       </c>
       <c r="AF13" t="n">
         <v>6.54031111217104e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH13" t="n">
-        <v>405392.1137772434</v>
+        <v>561604.8021261063</v>
       </c>
     </row>
     <row r="14">
@@ -18116,28 +18116,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>326.6753417039924</v>
+        <v>452.7899295622552</v>
       </c>
       <c r="AB14" t="n">
-        <v>446.9716144183386</v>
+        <v>619.5271573089578</v>
       </c>
       <c r="AC14" t="n">
-        <v>404.3132708668525</v>
+        <v>560.4003549272165</v>
       </c>
       <c r="AD14" t="n">
-        <v>326675.3417039925</v>
+        <v>452789.9295622552</v>
       </c>
       <c r="AE14" t="n">
-        <v>446971.6144183386</v>
+        <v>619527.1573089579</v>
       </c>
       <c r="AF14" t="n">
         <v>6.58098212743092e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH14" t="n">
-        <v>404313.2708668525</v>
+        <v>560400.3549272165</v>
       </c>
     </row>
     <row r="15">
@@ -18222,28 +18222,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>326.4957128162804</v>
+        <v>452.6103006745431</v>
       </c>
       <c r="AB15" t="n">
-        <v>446.7258382495037</v>
+        <v>619.281381140123</v>
       </c>
       <c r="AC15" t="n">
-        <v>404.0909512306222</v>
+        <v>560.1780352909861</v>
       </c>
       <c r="AD15" t="n">
-        <v>326495.7128162804</v>
+        <v>452610.3006745431</v>
       </c>
       <c r="AE15" t="n">
-        <v>446725.8382495038</v>
+        <v>619281.381140123</v>
       </c>
       <c r="AF15" t="n">
         <v>6.578150601052067e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH15" t="n">
-        <v>404090.9512306222</v>
+        <v>560178.0352909862</v>
       </c>
     </row>
     <row r="16">
@@ -18328,28 +18328,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>325.2358956508775</v>
+        <v>451.3504835091402</v>
       </c>
       <c r="AB16" t="n">
-        <v>445.0021008245887</v>
+        <v>617.557643715208</v>
       </c>
       <c r="AC16" t="n">
-        <v>402.5317248862603</v>
+        <v>558.6188089466244</v>
       </c>
       <c r="AD16" t="n">
-        <v>325235.8956508774</v>
+        <v>451350.4835091402</v>
       </c>
       <c r="AE16" t="n">
-        <v>445002.1008245887</v>
+        <v>617557.6437152079</v>
       </c>
       <c r="AF16" t="n">
         <v>6.610262684303144e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>402531.7248862603</v>
+        <v>558618.8089466244</v>
       </c>
     </row>
     <row r="17">
@@ -18434,28 +18434,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>325.2722540586789</v>
+        <v>451.3868419169416</v>
       </c>
       <c r="AB17" t="n">
-        <v>445.0518480021623</v>
+        <v>617.6073908927815</v>
       </c>
       <c r="AC17" t="n">
-        <v>402.576724263027</v>
+        <v>558.663808323391</v>
       </c>
       <c r="AD17" t="n">
-        <v>325272.2540586789</v>
+        <v>451386.8419169416</v>
       </c>
       <c r="AE17" t="n">
-        <v>445051.8480021623</v>
+        <v>617607.3908927816</v>
       </c>
       <c r="AF17" t="n">
         <v>6.613866445148955e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.33854166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>402576.724263027</v>
+        <v>558663.808323391</v>
       </c>
     </row>
     <row r="18">
@@ -18540,28 +18540,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>325.0133030532716</v>
+        <v>451.1278909115343</v>
       </c>
       <c r="AB18" t="n">
-        <v>444.697539812452</v>
+        <v>617.2530827030713</v>
       </c>
       <c r="AC18" t="n">
-        <v>402.2562307496679</v>
+        <v>558.3433148100319</v>
       </c>
       <c r="AD18" t="n">
-        <v>325013.3030532716</v>
+        <v>451127.8909115343</v>
       </c>
       <c r="AE18" t="n">
-        <v>444697.539812452</v>
+        <v>617253.0827030713</v>
       </c>
       <c r="AF18" t="n">
         <v>6.614831738232656e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.33854166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>402256.2307496679</v>
+        <v>558343.3148100319</v>
       </c>
     </row>
     <row r="19">
@@ -18646,28 +18646,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>324.2299353190016</v>
+        <v>450.3445231772644</v>
       </c>
       <c r="AB19" t="n">
-        <v>443.6257015186785</v>
+        <v>616.1812444092978</v>
       </c>
       <c r="AC19" t="n">
-        <v>401.2866871983177</v>
+        <v>557.3737712586818</v>
       </c>
       <c r="AD19" t="n">
-        <v>324229.9353190016</v>
+        <v>450344.5231772644</v>
       </c>
       <c r="AE19" t="n">
-        <v>443625.7015186785</v>
+        <v>616181.2444092978</v>
       </c>
       <c r="AF19" t="n">
         <v>6.621202672585073e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH19" t="n">
-        <v>401286.6871983177</v>
+        <v>557373.7712586818</v>
       </c>
     </row>
     <row r="20">
@@ -18752,28 +18752,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>323.5818334198111</v>
+        <v>449.6964212780738</v>
       </c>
       <c r="AB20" t="n">
-        <v>442.7389399079681</v>
+        <v>615.2944827985873</v>
       </c>
       <c r="AC20" t="n">
-        <v>400.4845568711557</v>
+        <v>556.5716409315197</v>
       </c>
       <c r="AD20" t="n">
-        <v>323581.833419811</v>
+        <v>449696.4212780738</v>
       </c>
       <c r="AE20" t="n">
-        <v>442738.9399079681</v>
+        <v>615294.4827985873</v>
       </c>
       <c r="AF20" t="n">
         <v>6.617856323228247e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH20" t="n">
-        <v>400484.5568711557</v>
+        <v>556571.6409315197</v>
       </c>
     </row>
     <row r="21">
@@ -18858,28 +18858,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>323.0278429761605</v>
+        <v>449.1424308344232</v>
       </c>
       <c r="AB21" t="n">
-        <v>441.9809457426319</v>
+        <v>614.5364886332511</v>
       </c>
       <c r="AC21" t="n">
-        <v>399.7989046051077</v>
+        <v>555.8859886654718</v>
       </c>
       <c r="AD21" t="n">
-        <v>323027.8429761605</v>
+        <v>449142.4308344232</v>
       </c>
       <c r="AE21" t="n">
-        <v>441980.945742632</v>
+        <v>614536.4886332512</v>
       </c>
       <c r="AF21" t="n">
         <v>6.656789810937468e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>399798.9046051077</v>
+        <v>555885.9886654718</v>
       </c>
     </row>
     <row r="22">
@@ -18964,28 +18964,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>322.8733355535962</v>
+        <v>448.987923411859</v>
       </c>
       <c r="AB22" t="n">
-        <v>441.7695418706932</v>
+        <v>614.3250847613125</v>
       </c>
       <c r="AC22" t="n">
-        <v>399.6076768219996</v>
+        <v>555.6947608823637</v>
       </c>
       <c r="AD22" t="n">
-        <v>322873.3355535963</v>
+        <v>448987.923411859</v>
       </c>
       <c r="AE22" t="n">
-        <v>441769.5418706932</v>
+        <v>614325.0847613125</v>
       </c>
       <c r="AF22" t="n">
         <v>6.656982869554208e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>399607.6768219997</v>
+        <v>555694.7608823637</v>
       </c>
     </row>
     <row r="23">
@@ -19070,28 +19070,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>322.6639998461216</v>
+        <v>448.7785877043842</v>
       </c>
       <c r="AB23" t="n">
-        <v>441.4831195204866</v>
+        <v>614.0386624111059</v>
       </c>
       <c r="AC23" t="n">
-        <v>399.3485902189005</v>
+        <v>555.4356742792645</v>
       </c>
       <c r="AD23" t="n">
-        <v>322663.9998461215</v>
+        <v>448778.5877043842</v>
       </c>
       <c r="AE23" t="n">
-        <v>441483.1195204866</v>
+        <v>614038.6624111058</v>
       </c>
       <c r="AF23" t="n">
         <v>6.655824517853768e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>399348.5902189005</v>
+        <v>555435.6742792645</v>
       </c>
     </row>
     <row r="24">
@@ -19176,28 +19176,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>322.2492328681677</v>
+        <v>448.3638207264304</v>
       </c>
       <c r="AB24" t="n">
-        <v>440.9156170430226</v>
+        <v>613.4711599336417</v>
       </c>
       <c r="AC24" t="n">
-        <v>398.8352493813908</v>
+        <v>554.922333441755</v>
       </c>
       <c r="AD24" t="n">
-        <v>322249.2328681677</v>
+        <v>448363.8207264305</v>
       </c>
       <c r="AE24" t="n">
-        <v>440915.6170430226</v>
+        <v>613471.1599336418</v>
       </c>
       <c r="AF24" t="n">
         <v>6.656789810937468e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>398835.2493813909</v>
+        <v>554922.3334417549</v>
       </c>
     </row>
     <row r="25">
@@ -19282,28 +19282,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>321.5512757321566</v>
+        <v>447.6658635904194</v>
       </c>
       <c r="AB25" t="n">
-        <v>439.9606412978366</v>
+        <v>612.5161841884558</v>
       </c>
       <c r="AC25" t="n">
-        <v>397.9714151810085</v>
+        <v>554.0584992413726</v>
       </c>
       <c r="AD25" t="n">
-        <v>321551.2757321566</v>
+        <v>447665.8635904194</v>
       </c>
       <c r="AE25" t="n">
-        <v>439960.6412978366</v>
+        <v>612516.1841884558</v>
       </c>
       <c r="AF25" t="n">
         <v>6.662195452206186e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH25" t="n">
-        <v>397971.4151810085</v>
+        <v>554058.4992413726</v>
       </c>
     </row>
     <row r="26">
@@ -19388,28 +19388,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>321.8317716868672</v>
+        <v>447.94635954513</v>
       </c>
       <c r="AB26" t="n">
-        <v>440.3444282376797</v>
+        <v>612.8999711282989</v>
       </c>
       <c r="AC26" t="n">
-        <v>398.3185740339613</v>
+        <v>554.4056580943253</v>
       </c>
       <c r="AD26" t="n">
-        <v>321831.7716868672</v>
+        <v>447946.3595451299</v>
       </c>
       <c r="AE26" t="n">
-        <v>440344.4282376796</v>
+        <v>612899.9711282989</v>
       </c>
       <c r="AF26" t="n">
         <v>6.659878748805306e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH26" t="n">
-        <v>398318.5740339613</v>
+        <v>554405.6580943253</v>
       </c>
     </row>
   </sheetData>
@@ -19685,28 +19685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.6050844181686</v>
+        <v>400.068823138839</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.9362559235679</v>
+        <v>547.3918136093776</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.2939185161414</v>
+        <v>495.1495071877334</v>
       </c>
       <c r="AD2" t="n">
-        <v>280605.0844181686</v>
+        <v>400068.823138839</v>
       </c>
       <c r="AE2" t="n">
-        <v>383936.2559235679</v>
+        <v>547391.8136093776</v>
       </c>
       <c r="AF2" t="n">
         <v>1.167736552264148e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>347293.9185161414</v>
+        <v>495149.5071877334</v>
       </c>
     </row>
     <row r="3">
@@ -19791,28 +19791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.0892173198864</v>
+        <v>376.296117869724</v>
       </c>
       <c r="AB3" t="n">
-        <v>364.0750061648388</v>
+        <v>514.8649494824369</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.3281985589462</v>
+        <v>465.7269613213275</v>
       </c>
       <c r="AD3" t="n">
-        <v>266089.2173198864</v>
+        <v>376296.117869724</v>
       </c>
       <c r="AE3" t="n">
-        <v>364075.0061648388</v>
+        <v>514864.9494824369</v>
       </c>
       <c r="AF3" t="n">
         <v>1.237319249744685e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>329328.1985589462</v>
+        <v>465726.9613213274</v>
       </c>
     </row>
     <row r="4">
@@ -19897,28 +19897,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.082039211916</v>
+        <v>374.4774470950281</v>
       </c>
       <c r="AB4" t="n">
-        <v>349.0144994749228</v>
+        <v>512.3765638944061</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.7050454900669</v>
+        <v>463.4760637613472</v>
       </c>
       <c r="AD4" t="n">
-        <v>255082.039211916</v>
+        <v>374477.4470950281</v>
       </c>
       <c r="AE4" t="n">
-        <v>349014.4994749228</v>
+        <v>512376.5638944061</v>
       </c>
       <c r="AF4" t="n">
         <v>1.253976646157467e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>315705.0454900669</v>
+        <v>463476.0637613472</v>
       </c>
     </row>
   </sheetData>
@@ -20194,28 +20194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.4545660900044</v>
+        <v>582.4239449923055</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.9162423537814</v>
+        <v>796.8981362694832</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.1424816800409</v>
+        <v>720.8432965974816</v>
       </c>
       <c r="AD2" t="n">
-        <v>419454.5660900044</v>
+        <v>582423.9449923055</v>
       </c>
       <c r="AE2" t="n">
-        <v>573916.2423537814</v>
+        <v>796898.1362694831</v>
       </c>
       <c r="AF2" t="n">
         <v>5.70158013476547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>519142.4816800409</v>
+        <v>720843.2965974816</v>
       </c>
     </row>
     <row r="3">
@@ -20300,28 +20300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.6369412427151</v>
+        <v>492.8078344053134</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.7028849534744</v>
+        <v>674.2814201805913</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.8708903193386</v>
+        <v>609.9289477984719</v>
       </c>
       <c r="AD3" t="n">
-        <v>358636.9412427151</v>
+        <v>492807.8344053134</v>
       </c>
       <c r="AE3" t="n">
-        <v>490702.8849534744</v>
+        <v>674281.4201805913</v>
       </c>
       <c r="AF3" t="n">
         <v>6.63850595779653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>443870.8903193386</v>
+        <v>609928.9477984719</v>
       </c>
     </row>
     <row r="4">
@@ -20406,28 +20406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.8793329351046</v>
+        <v>467.0833804866265</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.4601889215226</v>
+        <v>639.0840874462332</v>
       </c>
       <c r="AC4" t="n">
-        <v>411.9917077332417</v>
+        <v>578.090799100514</v>
       </c>
       <c r="AD4" t="n">
-        <v>332879.3329351046</v>
+        <v>467083.3804866265</v>
       </c>
       <c r="AE4" t="n">
-        <v>455460.1889215226</v>
+        <v>639084.0874462331</v>
       </c>
       <c r="AF4" t="n">
         <v>6.980118893731014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>411991.7077332417</v>
+        <v>578090.799100514</v>
       </c>
     </row>
     <row r="5">
@@ -20512,28 +20512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>329.8327401913944</v>
+        <v>454.4151895703997</v>
       </c>
       <c r="AB5" t="n">
-        <v>451.2917063233923</v>
+        <v>621.7509097535121</v>
       </c>
       <c r="AC5" t="n">
-        <v>408.2210592637749</v>
+        <v>562.4118755595188</v>
       </c>
       <c r="AD5" t="n">
-        <v>329832.7401913944</v>
+        <v>454415.1895703996</v>
       </c>
       <c r="AE5" t="n">
-        <v>451291.7063233923</v>
+        <v>621750.9097535121</v>
       </c>
       <c r="AF5" t="n">
         <v>7.147698539255551e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.11979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>408221.0592637749</v>
+        <v>562411.8755595188</v>
       </c>
     </row>
     <row r="6">
@@ -20618,28 +20618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>318.0428255071175</v>
+        <v>442.6925946938272</v>
       </c>
       <c r="AB6" t="n">
-        <v>435.1602249180381</v>
+        <v>605.7115382789993</v>
       </c>
       <c r="AC6" t="n">
-        <v>393.6291438030713</v>
+        <v>547.9032791871342</v>
       </c>
       <c r="AD6" t="n">
-        <v>318042.8255071176</v>
+        <v>442692.5946938272</v>
       </c>
       <c r="AE6" t="n">
-        <v>435160.2249180381</v>
+        <v>605711.5382789994</v>
       </c>
       <c r="AF6" t="n">
         <v>7.25518758018036e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>393629.1438030713</v>
+        <v>547903.2791871342</v>
       </c>
     </row>
     <row r="7">
@@ -20724,28 +20724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>316.4295207735454</v>
+        <v>440.9778047337697</v>
       </c>
       <c r="AB7" t="n">
-        <v>432.952830207583</v>
+        <v>603.3652870044551</v>
       </c>
       <c r="AC7" t="n">
-        <v>391.6324197456842</v>
+        <v>545.780950841248</v>
       </c>
       <c r="AD7" t="n">
-        <v>316429.5207735454</v>
+        <v>440977.8047337697</v>
       </c>
       <c r="AE7" t="n">
-        <v>432952.830207583</v>
+        <v>603365.2870044551</v>
       </c>
       <c r="AF7" t="n">
         <v>7.332201075812945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH7" t="n">
-        <v>391632.4197456841</v>
+        <v>545780.950841248</v>
       </c>
     </row>
     <row r="8">
@@ -20830,28 +20830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>315.177118609468</v>
+        <v>439.7254025696923</v>
       </c>
       <c r="AB8" t="n">
-        <v>431.2392383146084</v>
+        <v>601.6516951114804</v>
       </c>
       <c r="AC8" t="n">
-        <v>390.0823706579337</v>
+        <v>544.2309017534975</v>
       </c>
       <c r="AD8" t="n">
-        <v>315177.118609468</v>
+        <v>439725.4025696923</v>
       </c>
       <c r="AE8" t="n">
-        <v>431239.2383146083</v>
+        <v>601651.6951114804</v>
       </c>
       <c r="AF8" t="n">
         <v>7.393940945216721e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>390082.3706579336</v>
+        <v>544230.9017534975</v>
       </c>
     </row>
     <row r="9">
@@ -20936,28 +20936,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>314.2699117758374</v>
+        <v>438.8181957360619</v>
       </c>
       <c r="AB9" t="n">
-        <v>429.9979579016942</v>
+        <v>600.4104146985663</v>
       </c>
       <c r="AC9" t="n">
-        <v>388.9595563054801</v>
+        <v>543.1080874010439</v>
       </c>
       <c r="AD9" t="n">
-        <v>314269.9117758374</v>
+        <v>438818.1957360618</v>
       </c>
       <c r="AE9" t="n">
-        <v>429997.9579016942</v>
+        <v>600410.4146985663</v>
       </c>
       <c r="AF9" t="n">
         <v>7.43402525067167e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.13020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>388959.5563054801</v>
+        <v>543108.087401044</v>
       </c>
     </row>
     <row r="10">
@@ -21042,19 +21042,19 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>303.7510251032147</v>
+        <v>428.3666288711435</v>
       </c>
       <c r="AB10" t="n">
-        <v>415.6055530956835</v>
+        <v>586.1101198233971</v>
       </c>
       <c r="AC10" t="n">
-        <v>375.940742414288</v>
+        <v>530.1725925981709</v>
       </c>
       <c r="AD10" t="n">
-        <v>303751.0251032147</v>
+        <v>428366.6288711435</v>
       </c>
       <c r="AE10" t="n">
-        <v>415605.5530956836</v>
+        <v>586110.1198233971</v>
       </c>
       <c r="AF10" t="n">
         <v>7.465791524940976e-06</v>
@@ -21063,7 +21063,7 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>375940.742414288</v>
+        <v>530172.592598171</v>
       </c>
     </row>
     <row r="11">
@@ -21148,19 +21148,19 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>303.0189674482298</v>
+        <v>427.6345712161586</v>
       </c>
       <c r="AB11" t="n">
-        <v>414.6039195160289</v>
+        <v>585.1084862437424</v>
       </c>
       <c r="AC11" t="n">
-        <v>375.034703337674</v>
+        <v>529.2665535215571</v>
       </c>
       <c r="AD11" t="n">
-        <v>303018.9674482298</v>
+        <v>427634.5712161586</v>
       </c>
       <c r="AE11" t="n">
-        <v>414603.9195160289</v>
+        <v>585108.4862437424</v>
       </c>
       <c r="AF11" t="n">
         <v>7.469735419037617e-06</v>
@@ -21169,7 +21169,7 @@
         <v>25</v>
       </c>
       <c r="AH11" t="n">
-        <v>375034.703337674</v>
+        <v>529266.553521557</v>
       </c>
     </row>
     <row r="12">
@@ -21254,28 +21254,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>302.2139740747118</v>
+        <v>426.8295778426406</v>
       </c>
       <c r="AB12" t="n">
-        <v>413.5024920685804</v>
+        <v>584.0070587962939</v>
       </c>
       <c r="AC12" t="n">
-        <v>374.0383945799469</v>
+        <v>528.2702447638297</v>
       </c>
       <c r="AD12" t="n">
-        <v>302213.9740747118</v>
+        <v>426829.5778426406</v>
       </c>
       <c r="AE12" t="n">
-        <v>413502.4920685804</v>
+        <v>584007.0587962939</v>
       </c>
       <c r="AF12" t="n">
         <v>7.51032167465032e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>374038.3945799469</v>
+        <v>528270.2447638297</v>
       </c>
     </row>
     <row r="13">
@@ -21360,28 +21360,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>301.5433204825072</v>
+        <v>426.158924250436</v>
       </c>
       <c r="AB13" t="n">
-        <v>412.5848742365777</v>
+        <v>583.0894409642913</v>
       </c>
       <c r="AC13" t="n">
-        <v>373.2083529059458</v>
+        <v>527.4402030898287</v>
       </c>
       <c r="AD13" t="n">
-        <v>301543.3204825072</v>
+        <v>426158.924250436</v>
       </c>
       <c r="AE13" t="n">
-        <v>412584.8742365777</v>
+        <v>583089.4409642912</v>
       </c>
       <c r="AF13" t="n">
         <v>7.511038746304255e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>373208.3529059458</v>
+        <v>527440.2030898287</v>
       </c>
     </row>
     <row r="14">
@@ -21466,28 +21466,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>300.7839486426544</v>
+        <v>425.3995524105832</v>
       </c>
       <c r="AB14" t="n">
-        <v>411.5458681841699</v>
+        <v>582.0504349118835</v>
       </c>
       <c r="AC14" t="n">
-        <v>372.2685081329257</v>
+        <v>526.5003583168086</v>
       </c>
       <c r="AD14" t="n">
-        <v>300783.9486426544</v>
+        <v>425399.5524105832</v>
       </c>
       <c r="AE14" t="n">
-        <v>411545.8681841699</v>
+        <v>582050.4349118834</v>
       </c>
       <c r="AF14" t="n">
         <v>7.544382578212219e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>372268.5081329257</v>
+        <v>526500.3583168086</v>
       </c>
     </row>
     <row r="15">
@@ -21572,28 +21572,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>300.3409141243027</v>
+        <v>424.9565178922315</v>
       </c>
       <c r="AB15" t="n">
-        <v>410.9396888108576</v>
+        <v>581.4442555385712</v>
       </c>
       <c r="AC15" t="n">
-        <v>371.7201816682241</v>
+        <v>525.952031852107</v>
       </c>
       <c r="AD15" t="n">
-        <v>300340.9141243027</v>
+        <v>424956.5178922315</v>
       </c>
       <c r="AE15" t="n">
-        <v>410939.6888108576</v>
+        <v>581444.2555385712</v>
       </c>
       <c r="AF15" t="n">
         <v>7.548326472308859e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>371720.1816682242</v>
+        <v>525952.031852107</v>
       </c>
     </row>
     <row r="16">
@@ -21678,28 +21678,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>299.5018817123311</v>
+        <v>424.1174854802599</v>
       </c>
       <c r="AB16" t="n">
-        <v>409.7916876493005</v>
+        <v>580.296254377014</v>
       </c>
       <c r="AC16" t="n">
-        <v>370.6817441262963</v>
+        <v>524.9135943101793</v>
       </c>
       <c r="AD16" t="n">
-        <v>299501.8817123311</v>
+        <v>424117.4854802599</v>
       </c>
       <c r="AE16" t="n">
-        <v>409791.6876493005</v>
+        <v>580296.254377014</v>
       </c>
       <c r="AF16" t="n">
         <v>7.545673307189301e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>370681.7441262963</v>
+        <v>524913.5943101792</v>
       </c>
     </row>
     <row r="17">
@@ -21784,28 +21784,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>298.4729639125618</v>
+        <v>423.0885676804906</v>
       </c>
       <c r="AB17" t="n">
-        <v>408.3838769230064</v>
+        <v>578.88844365072</v>
       </c>
       <c r="AC17" t="n">
-        <v>369.408292879845</v>
+        <v>523.6401430637279</v>
       </c>
       <c r="AD17" t="n">
-        <v>298472.9639125618</v>
+        <v>423088.5676804906</v>
       </c>
       <c r="AE17" t="n">
-        <v>408383.8769230064</v>
+        <v>578888.4436507199</v>
       </c>
       <c r="AF17" t="n">
         <v>7.583176154690086e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>369408.292879845</v>
+        <v>523640.1430637279</v>
       </c>
     </row>
   </sheetData>
@@ -22081,28 +22081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.2907291287596</v>
+        <v>629.9761915117177</v>
       </c>
       <c r="AB2" t="n">
-        <v>624.3171057202259</v>
+        <v>861.9612178144</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.7331573848479</v>
+        <v>779.6968489563603</v>
       </c>
       <c r="AD2" t="n">
-        <v>456290.7291287595</v>
+        <v>629976.1915117177</v>
       </c>
       <c r="AE2" t="n">
-        <v>624317.1057202258</v>
+        <v>861961.2178144</v>
       </c>
       <c r="AF2" t="n">
         <v>5.099948689017233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.55729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>564733.1573848479</v>
+        <v>779696.8489563604</v>
       </c>
     </row>
     <row r="3">
@@ -22187,28 +22187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.0405425142328</v>
+        <v>514.1226541933285</v>
       </c>
       <c r="AB3" t="n">
-        <v>518.6199923565243</v>
+        <v>703.4452969580365</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.1236281737477</v>
+        <v>636.3094651080359</v>
       </c>
       <c r="AD3" t="n">
-        <v>379040.5425142328</v>
+        <v>514122.6541933284</v>
       </c>
       <c r="AE3" t="n">
-        <v>518619.9923565243</v>
+        <v>703445.2969580365</v>
       </c>
       <c r="AF3" t="n">
         <v>6.078609809345578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.01041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>469123.6281737477</v>
+        <v>636309.4651080358</v>
       </c>
     </row>
     <row r="4">
@@ -22293,28 +22293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>352.1423904323745</v>
+        <v>487.1561712739086</v>
       </c>
       <c r="AB4" t="n">
-        <v>481.8167540154064</v>
+        <v>666.548565350423</v>
       </c>
       <c r="AC4" t="n">
-        <v>435.8328392462365</v>
+        <v>602.9341057801649</v>
       </c>
       <c r="AD4" t="n">
-        <v>352142.3904323745</v>
+        <v>487156.1712739086</v>
       </c>
       <c r="AE4" t="n">
-        <v>481816.7540154064</v>
+        <v>666548.565350423</v>
       </c>
       <c r="AF4" t="n">
         <v>6.423466190013184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.44791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>435832.8392462365</v>
+        <v>602934.1057801649</v>
       </c>
     </row>
     <row r="5">
@@ -22399,28 +22399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.5326047670112</v>
+        <v>473.6137054162496</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.1952448466883</v>
+        <v>648.0191661125465</v>
       </c>
       <c r="AC5" t="n">
-        <v>418.9885407771288</v>
+        <v>586.1731263993762</v>
       </c>
       <c r="AD5" t="n">
-        <v>338532.6047670112</v>
+        <v>473613.7054162496</v>
       </c>
       <c r="AE5" t="n">
-        <v>463195.2448466883</v>
+        <v>648019.1661125465</v>
       </c>
       <c r="AF5" t="n">
         <v>6.612781851784978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>418988.5407771288</v>
+        <v>586173.1263993762</v>
       </c>
     </row>
     <row r="6">
@@ -22505,28 +22505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>336.3034204743074</v>
+        <v>461.7002763011922</v>
       </c>
       <c r="AB6" t="n">
-        <v>460.1451765527407</v>
+        <v>631.7186868139263</v>
       </c>
       <c r="AC6" t="n">
-        <v>416.2295667203578</v>
+        <v>571.4283419671499</v>
       </c>
       <c r="AD6" t="n">
-        <v>336303.4204743074</v>
+        <v>461700.2763011922</v>
       </c>
       <c r="AE6" t="n">
-        <v>460145.1765527407</v>
+        <v>631718.6868139263</v>
       </c>
       <c r="AF6" t="n">
         <v>6.716272608613394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>416229.5667203578</v>
+        <v>571428.3419671499</v>
       </c>
     </row>
     <row r="7">
@@ -22611,28 +22611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>324.9651927941717</v>
+        <v>460.0121280246294</v>
       </c>
       <c r="AB7" t="n">
-        <v>444.6317132334768</v>
+        <v>629.4088878660873</v>
       </c>
       <c r="AC7" t="n">
-        <v>402.196686567002</v>
+        <v>569.3389869890696</v>
       </c>
       <c r="AD7" t="n">
-        <v>324965.1927941717</v>
+        <v>460012.1280246294</v>
       </c>
       <c r="AE7" t="n">
-        <v>444631.7132334769</v>
+        <v>629408.8878660873</v>
       </c>
       <c r="AF7" t="n">
         <v>6.786462219359676e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.96354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>402196.686567002</v>
+        <v>569338.9869890695</v>
       </c>
     </row>
     <row r="8">
@@ -22717,28 +22717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.3683478466677</v>
+        <v>448.8325234812571</v>
       </c>
       <c r="AB8" t="n">
-        <v>442.4468395284747</v>
+        <v>614.1124597205016</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.2203341419157</v>
+        <v>555.5024284770268</v>
       </c>
       <c r="AD8" t="n">
-        <v>323368.3478466677</v>
+        <v>448832.5234812571</v>
       </c>
       <c r="AE8" t="n">
-        <v>442446.8395284747</v>
+        <v>614112.4597205017</v>
       </c>
       <c r="AF8" t="n">
         <v>6.865586283932871e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>400220.3341419157</v>
+        <v>555502.4284770268</v>
       </c>
     </row>
     <row r="9">
@@ -22823,28 +22823,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>322.6060530452372</v>
+        <v>448.0702286798265</v>
       </c>
       <c r="AB9" t="n">
-        <v>441.4038341510843</v>
+        <v>613.0694543431113</v>
       </c>
       <c r="AC9" t="n">
-        <v>399.2768717338762</v>
+        <v>554.5589660689873</v>
       </c>
       <c r="AD9" t="n">
-        <v>322606.0530452372</v>
+        <v>448070.2286798265</v>
       </c>
       <c r="AE9" t="n">
-        <v>441403.8341510843</v>
+        <v>613069.4543431113</v>
       </c>
       <c r="AF9" t="n">
         <v>6.891442051825909e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>399276.8717338762</v>
+        <v>554558.9660689873</v>
       </c>
     </row>
     <row r="10">
@@ -22929,28 +22929,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>321.5366915726572</v>
+        <v>446.8993819807613</v>
       </c>
       <c r="AB10" t="n">
-        <v>439.9406866074018</v>
+        <v>611.4674502353395</v>
       </c>
       <c r="AC10" t="n">
-        <v>397.9533649382223</v>
+        <v>553.1098549848343</v>
       </c>
       <c r="AD10" t="n">
-        <v>321536.6915726572</v>
+        <v>446899.3819807613</v>
       </c>
       <c r="AE10" t="n">
-        <v>439940.6866074018</v>
+        <v>611467.4502353395</v>
       </c>
       <c r="AF10" t="n">
         <v>6.93557283891036e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>397953.3649382223</v>
+        <v>553109.8549848343</v>
       </c>
     </row>
     <row r="11">
@@ -23035,28 +23035,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>320.886645627094</v>
+        <v>446.2493360351981</v>
       </c>
       <c r="AB11" t="n">
-        <v>439.0512650666791</v>
+        <v>610.5780286946168</v>
       </c>
       <c r="AC11" t="n">
-        <v>397.1488285410352</v>
+        <v>552.3053185876473</v>
       </c>
       <c r="AD11" t="n">
-        <v>320886.645627094</v>
+        <v>446249.3360351981</v>
       </c>
       <c r="AE11" t="n">
-        <v>439051.2650666791</v>
+        <v>610578.0286946169</v>
       </c>
       <c r="AF11" t="n">
         <v>6.963932961285184e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH11" t="n">
-        <v>397148.8285410352</v>
+        <v>552305.3185876473</v>
       </c>
     </row>
     <row r="12">
@@ -23141,28 +23141,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>320.2855910472983</v>
+        <v>445.6482814554024</v>
       </c>
       <c r="AB12" t="n">
-        <v>438.228875673946</v>
+        <v>609.7556393018838</v>
       </c>
       <c r="AC12" t="n">
-        <v>396.4049268377138</v>
+        <v>551.5614168843259</v>
       </c>
       <c r="AD12" t="n">
-        <v>320285.5910472983</v>
+        <v>445648.2814554024</v>
       </c>
       <c r="AE12" t="n">
-        <v>438228.8756739461</v>
+        <v>609755.6393018838</v>
       </c>
       <c r="AF12" t="n">
         <v>6.96372990551639e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH12" t="n">
-        <v>396404.9268377138</v>
+        <v>551561.4168843259</v>
       </c>
     </row>
     <row r="13">
@@ -23247,28 +23247,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>319.5164077621831</v>
+        <v>444.8790981702873</v>
       </c>
       <c r="AB13" t="n">
-        <v>437.1764451692798</v>
+        <v>608.7032087972176</v>
       </c>
       <c r="AC13" t="n">
-        <v>395.4529388233174</v>
+        <v>550.6094288699296</v>
       </c>
       <c r="AD13" t="n">
-        <v>319516.4077621831</v>
+        <v>444879.0981702873</v>
       </c>
       <c r="AE13" t="n">
-        <v>437176.4451692798</v>
+        <v>608703.2087972176</v>
       </c>
       <c r="AF13" t="n">
         <v>7.003325780431121e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH13" t="n">
-        <v>395452.9388233174</v>
+        <v>550609.4288699296</v>
       </c>
     </row>
     <row r="14">
@@ -23353,28 +23353,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>319.071954349857</v>
+        <v>444.4346447579611</v>
       </c>
       <c r="AB14" t="n">
-        <v>436.5683244026345</v>
+        <v>608.0950880305722</v>
       </c>
       <c r="AC14" t="n">
-        <v>394.9028562491379</v>
+        <v>550.0593462957499</v>
       </c>
       <c r="AD14" t="n">
-        <v>319071.954349857</v>
+        <v>444434.6447579611</v>
       </c>
       <c r="AE14" t="n">
-        <v>436568.3244026345</v>
+        <v>608095.0880305723</v>
       </c>
       <c r="AF14" t="n">
         <v>7.001904390049566e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>394902.8562491379</v>
+        <v>550059.34629575</v>
       </c>
     </row>
     <row r="15">
@@ -23459,28 +23459,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>318.1716768255013</v>
+        <v>433.9516076377371</v>
       </c>
       <c r="AB15" t="n">
-        <v>435.3365249763698</v>
+        <v>593.7517341637241</v>
       </c>
       <c r="AC15" t="n">
-        <v>393.7886180312746</v>
+        <v>537.0849019909303</v>
       </c>
       <c r="AD15" t="n">
-        <v>318171.6768255013</v>
+        <v>433951.6076377371</v>
       </c>
       <c r="AE15" t="n">
-        <v>435336.5249763698</v>
+        <v>593751.7341637241</v>
       </c>
       <c r="AF15" t="n">
         <v>7.029587659861745e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH15" t="n">
-        <v>393788.6180312745</v>
+        <v>537084.9019909303</v>
       </c>
     </row>
     <row r="16">
@@ -23565,28 +23565,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>317.874789652191</v>
+        <v>433.6547204644268</v>
       </c>
       <c r="AB16" t="n">
-        <v>434.9303108481089</v>
+        <v>593.3455200354633</v>
       </c>
       <c r="AC16" t="n">
-        <v>393.4211724092898</v>
+        <v>536.7174563689456</v>
       </c>
       <c r="AD16" t="n">
-        <v>317874.789652191</v>
+        <v>433654.7204644267</v>
       </c>
       <c r="AE16" t="n">
-        <v>434930.310848109</v>
+        <v>593345.5200354633</v>
       </c>
       <c r="AF16" t="n">
         <v>7.039131280995039e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>393421.1724092898</v>
+        <v>536717.4563689455</v>
       </c>
     </row>
     <row r="17">
@@ -23671,28 +23671,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>317.2736529680274</v>
+        <v>433.0535837802631</v>
       </c>
       <c r="AB17" t="n">
-        <v>434.1078091165575</v>
+        <v>592.5230183039118</v>
       </c>
       <c r="AC17" t="n">
-        <v>392.6771690886092</v>
+        <v>535.9734530482648</v>
       </c>
       <c r="AD17" t="n">
-        <v>317273.6529680274</v>
+        <v>433053.5837802631</v>
       </c>
       <c r="AE17" t="n">
-        <v>434107.8091165575</v>
+        <v>592523.0183039118</v>
       </c>
       <c r="AF17" t="n">
         <v>7.044207675214876e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>392677.1690886092</v>
+        <v>535973.4530482648</v>
       </c>
     </row>
     <row r="18">
@@ -23777,28 +23777,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>316.4689404735673</v>
+        <v>432.248871285803</v>
       </c>
       <c r="AB18" t="n">
-        <v>433.0067659802275</v>
+        <v>591.4219751675818</v>
       </c>
       <c r="AC18" t="n">
-        <v>391.6812079638867</v>
+        <v>534.9774919235425</v>
       </c>
       <c r="AD18" t="n">
-        <v>316468.9404735673</v>
+        <v>432248.871285803</v>
       </c>
       <c r="AE18" t="n">
-        <v>433006.7659802275</v>
+        <v>591421.9751675818</v>
       </c>
       <c r="AF18" t="n">
         <v>7.041771005989354e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>391681.2079638867</v>
+        <v>534977.4919235425</v>
       </c>
     </row>
     <row r="19">
@@ -23883,28 +23883,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>305.9464980119085</v>
+        <v>431.376508227717</v>
       </c>
       <c r="AB19" t="n">
-        <v>418.6094959867874</v>
+        <v>590.2283695455666</v>
       </c>
       <c r="AC19" t="n">
-        <v>378.6579932119251</v>
+        <v>533.8978023468563</v>
       </c>
       <c r="AD19" t="n">
-        <v>305946.4980119085</v>
+        <v>431376.508227717</v>
       </c>
       <c r="AE19" t="n">
-        <v>418609.4959867874</v>
+        <v>590228.3695455666</v>
       </c>
       <c r="AF19" t="n">
         <v>7.078997896934827e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>378657.9932119251</v>
+        <v>533897.8023468563</v>
       </c>
     </row>
     <row r="20">
@@ -23989,28 +23989,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>305.7799365837699</v>
+        <v>431.2099467995784</v>
       </c>
       <c r="AB20" t="n">
-        <v>418.3815992926365</v>
+        <v>590.0004728514158</v>
       </c>
       <c r="AC20" t="n">
-        <v>378.451846658409</v>
+        <v>533.6916557933401</v>
       </c>
       <c r="AD20" t="n">
-        <v>305779.9365837699</v>
+        <v>431209.9467995784</v>
       </c>
       <c r="AE20" t="n">
-        <v>418381.5992926365</v>
+        <v>590000.4728514157</v>
       </c>
       <c r="AF20" t="n">
         <v>7.079607064241207e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>378451.846658409</v>
+        <v>533691.6557933402</v>
       </c>
     </row>
     <row r="21">
@@ -24095,28 +24095,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>305.9462876292833</v>
+        <v>431.3762978450918</v>
       </c>
       <c r="AB21" t="n">
-        <v>418.6092081319981</v>
+        <v>590.2280816907773</v>
       </c>
       <c r="AC21" t="n">
-        <v>378.6577328295929</v>
+        <v>533.8975419645241</v>
       </c>
       <c r="AD21" t="n">
-        <v>305946.2876292833</v>
+        <v>431376.2978450917</v>
       </c>
       <c r="AE21" t="n">
-        <v>418609.2081319981</v>
+        <v>590228.0816907773</v>
       </c>
       <c r="AF21" t="n">
         <v>7.075545948865338e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH21" t="n">
-        <v>378657.7328295929</v>
+        <v>533897.5419645241</v>
       </c>
     </row>
   </sheetData>
@@ -24392,28 +24392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>532.6257577598205</v>
+        <v>727.7468066499782</v>
       </c>
       <c r="AB2" t="n">
-        <v>728.7620595570288</v>
+        <v>995.7352867816883</v>
       </c>
       <c r="AC2" t="n">
-        <v>659.2100314168799</v>
+        <v>900.7037085344955</v>
       </c>
       <c r="AD2" t="n">
-        <v>532625.7577598206</v>
+        <v>727746.8066499783</v>
       </c>
       <c r="AE2" t="n">
-        <v>728762.0595570288</v>
+        <v>995735.2867816882</v>
       </c>
       <c r="AF2" t="n">
         <v>4.183082932218689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.30729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>659210.03141688</v>
+        <v>900703.7085344954</v>
       </c>
     </row>
     <row r="3">
@@ -24498,28 +24498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.7643166331621</v>
+        <v>567.9355108427203</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.3941037770682</v>
+        <v>777.0744214814175</v>
       </c>
       <c r="AC3" t="n">
-        <v>509.6245612411749</v>
+        <v>702.9115293260306</v>
       </c>
       <c r="AD3" t="n">
-        <v>411764.3166331621</v>
+        <v>567935.5108427203</v>
       </c>
       <c r="AE3" t="n">
-        <v>563394.1037770682</v>
+        <v>777074.4214814175</v>
       </c>
       <c r="AF3" t="n">
         <v>5.179245507384101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>509624.5612411749</v>
+        <v>702911.5293260306</v>
       </c>
     </row>
     <row r="4">
@@ -24604,28 +24604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.5345355292649</v>
+        <v>526.942894762052</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.6641395100113</v>
+        <v>720.9865156932607</v>
       </c>
       <c r="AC4" t="n">
-        <v>470.9726847918845</v>
+        <v>652.1765745464254</v>
       </c>
       <c r="AD4" t="n">
-        <v>380534.5355292649</v>
+        <v>526942.894762052</v>
       </c>
       <c r="AE4" t="n">
-        <v>520664.1395100113</v>
+        <v>720986.5156932607</v>
       </c>
       <c r="AF4" t="n">
         <v>5.569527114195356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.77604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>470972.6847918845</v>
+        <v>652176.5745464254</v>
       </c>
     </row>
     <row r="5">
@@ -24710,28 +24710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.0449299002133</v>
+        <v>512.4191237142195</v>
       </c>
       <c r="AB5" t="n">
-        <v>500.8388218520575</v>
+        <v>701.1144514020591</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.0394676261976</v>
+        <v>634.2010721805585</v>
       </c>
       <c r="AD5" t="n">
-        <v>366044.9299002133</v>
+        <v>512419.1237142195</v>
       </c>
       <c r="AE5" t="n">
-        <v>500838.8218520575</v>
+        <v>701114.4514020591</v>
       </c>
       <c r="AF5" t="n">
         <v>5.748024188349455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.86458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>453039.4676261976</v>
+        <v>634201.0721805586</v>
       </c>
     </row>
     <row r="6">
@@ -24816,28 +24816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>363.0879043339189</v>
+        <v>499.6661087822304</v>
       </c>
       <c r="AB6" t="n">
-        <v>496.7928890174927</v>
+        <v>683.6652137488009</v>
       </c>
       <c r="AC6" t="n">
-        <v>449.3796729428613</v>
+        <v>618.4171652787684</v>
       </c>
       <c r="AD6" t="n">
-        <v>363087.9043339189</v>
+        <v>499666.1087822304</v>
       </c>
       <c r="AE6" t="n">
-        <v>496792.8890174926</v>
+        <v>683665.2137488008</v>
       </c>
       <c r="AF6" t="n">
         <v>5.869729535704438e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>449379.6729428613</v>
+        <v>618417.1652787684</v>
       </c>
     </row>
     <row r="7">
@@ -24922,28 +24922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.856502073505</v>
+        <v>487.5020263295208</v>
       </c>
       <c r="AB7" t="n">
-        <v>480.0573448334105</v>
+        <v>667.0217794955601</v>
       </c>
       <c r="AC7" t="n">
-        <v>434.2413456072242</v>
+        <v>603.3621570314504</v>
       </c>
       <c r="AD7" t="n">
-        <v>350856.502073505</v>
+        <v>487502.0263295209</v>
       </c>
       <c r="AE7" t="n">
-        <v>480057.3448334105</v>
+        <v>667021.7794955601</v>
       </c>
       <c r="AF7" t="n">
         <v>5.968607439243094e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.84895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>434241.3456072242</v>
+        <v>603362.1570314503</v>
       </c>
     </row>
     <row r="8">
@@ -25028,28 +25028,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>348.8989666932418</v>
+        <v>485.5444909492577</v>
       </c>
       <c r="AB8" t="n">
-        <v>477.3789585657684</v>
+        <v>664.3433932279181</v>
       </c>
       <c r="AC8" t="n">
-        <v>431.8185807658271</v>
+        <v>600.9393921900534</v>
       </c>
       <c r="AD8" t="n">
-        <v>348898.9666932418</v>
+        <v>485544.4909492577</v>
       </c>
       <c r="AE8" t="n">
-        <v>477378.9585657684</v>
+        <v>664343.3932279181</v>
       </c>
       <c r="AF8" t="n">
         <v>6.041027658574141e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.53645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>431818.5807658271</v>
+        <v>600939.3921900534</v>
       </c>
     </row>
     <row r="9">
@@ -25134,28 +25134,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>347.8635252629224</v>
+        <v>474.7130601532435</v>
       </c>
       <c r="AB9" t="n">
-        <v>475.9622219203534</v>
+        <v>649.5233517638096</v>
       </c>
       <c r="AC9" t="n">
-        <v>430.5370554774482</v>
+        <v>587.5337546832205</v>
       </c>
       <c r="AD9" t="n">
-        <v>347863.5252629224</v>
+        <v>474713.0601532435</v>
       </c>
       <c r="AE9" t="n">
-        <v>475962.2219203534</v>
+        <v>649523.3517638096</v>
       </c>
       <c r="AF9" t="n">
         <v>6.080160419402135e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>430537.0554774482</v>
+        <v>587533.7546832205</v>
       </c>
     </row>
     <row r="10">
@@ -25240,28 +25240,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>347.1271401990146</v>
+        <v>473.9766750893356</v>
       </c>
       <c r="AB10" t="n">
-        <v>474.9546673888985</v>
+        <v>648.5157972323547</v>
       </c>
       <c r="AC10" t="n">
-        <v>429.6256605363637</v>
+        <v>586.6223597421359</v>
       </c>
       <c r="AD10" t="n">
-        <v>347127.1401990146</v>
+        <v>473976.6750893357</v>
       </c>
       <c r="AE10" t="n">
-        <v>474954.6673888986</v>
+        <v>648515.7972323546</v>
       </c>
       <c r="AF10" t="n">
         <v>6.106495044613426e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>429625.6605363637</v>
+        <v>586622.359742136</v>
       </c>
     </row>
     <row r="11">
@@ -25346,28 +25346,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>345.9172392424127</v>
+        <v>472.7667741327338</v>
       </c>
       <c r="AB11" t="n">
-        <v>473.2992275230128</v>
+        <v>646.8603573664689</v>
       </c>
       <c r="AC11" t="n">
-        <v>428.1282135278536</v>
+        <v>585.1249127336259</v>
       </c>
       <c r="AD11" t="n">
-        <v>345917.2392424127</v>
+        <v>472766.7741327338</v>
       </c>
       <c r="AE11" t="n">
-        <v>473299.2275230128</v>
+        <v>646860.3573664689</v>
       </c>
       <c r="AF11" t="n">
         <v>6.149504163825324e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.06770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>428128.2135278536</v>
+        <v>585124.912733626</v>
       </c>
     </row>
     <row r="12">
@@ -25452,28 +25452,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>345.6569216327117</v>
+        <v>472.5064565230327</v>
       </c>
       <c r="AB12" t="n">
-        <v>472.9430494850174</v>
+        <v>646.5041793284735</v>
       </c>
       <c r="AC12" t="n">
-        <v>427.8060286219055</v>
+        <v>584.8027278276778</v>
       </c>
       <c r="AD12" t="n">
-        <v>345656.9216327117</v>
+        <v>472506.4565230327</v>
       </c>
       <c r="AE12" t="n">
-        <v>472943.0494850174</v>
+        <v>646504.1793284735</v>
       </c>
       <c r="AF12" t="n">
         <v>6.147289101891664e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>27</v>
+        <v>26.06770833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>427806.0286219055</v>
+        <v>584802.7278276779</v>
       </c>
     </row>
     <row r="13">
@@ -25558,28 +25558,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>335.1853347199875</v>
+        <v>471.7966935572225</v>
       </c>
       <c r="AB13" t="n">
-        <v>458.615362297218</v>
+        <v>645.5330503261199</v>
       </c>
       <c r="AC13" t="n">
-        <v>414.8457557902744</v>
+        <v>583.9242820143207</v>
       </c>
       <c r="AD13" t="n">
-        <v>335185.3347199875</v>
+        <v>471796.6935572225</v>
       </c>
       <c r="AE13" t="n">
-        <v>458615.3622972181</v>
+        <v>645533.0503261199</v>
       </c>
       <c r="AF13" t="n">
         <v>6.179038322940791e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH13" t="n">
-        <v>414845.7557902744</v>
+        <v>583924.2820143207</v>
       </c>
     </row>
     <row r="14">
@@ -25664,28 +25664,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>334.7168472833665</v>
+        <v>471.3282061206016</v>
       </c>
       <c r="AB14" t="n">
-        <v>457.9743571182262</v>
+        <v>644.8920451471282</v>
       </c>
       <c r="AC14" t="n">
-        <v>414.2659272459092</v>
+        <v>583.3444534699555</v>
       </c>
       <c r="AD14" t="n">
-        <v>334716.8472833665</v>
+        <v>471328.2061206016</v>
       </c>
       <c r="AE14" t="n">
-        <v>457974.3571182262</v>
+        <v>644892.0451471282</v>
       </c>
       <c r="AF14" t="n">
         <v>6.176638672512659e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH14" t="n">
-        <v>414265.9272459092</v>
+        <v>583344.4534699555</v>
       </c>
     </row>
     <row r="15">
@@ -25770,28 +25770,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>333.7740590428639</v>
+        <v>470.385417880099</v>
       </c>
       <c r="AB15" t="n">
-        <v>456.6843926546889</v>
+        <v>643.6020806835909</v>
       </c>
       <c r="AC15" t="n">
-        <v>413.0990751802954</v>
+        <v>582.1776014043417</v>
       </c>
       <c r="AD15" t="n">
-        <v>333774.0590428639</v>
+        <v>470385.417880099</v>
       </c>
       <c r="AE15" t="n">
-        <v>456684.3926546889</v>
+        <v>643602.0806835908</v>
       </c>
       <c r="AF15" t="n">
         <v>6.218417201761412e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.75520833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>413099.0751802954</v>
+        <v>582177.6014043416</v>
       </c>
     </row>
     <row r="16">
@@ -25876,28 +25876,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>333.7102773665613</v>
+        <v>470.3216362037963</v>
       </c>
       <c r="AB16" t="n">
-        <v>456.5971237513227</v>
+        <v>643.5148117802246</v>
       </c>
       <c r="AC16" t="n">
-        <v>413.0201350985838</v>
+        <v>582.0986613226301</v>
       </c>
       <c r="AD16" t="n">
-        <v>333710.2773665613</v>
+        <v>470321.6362037964</v>
       </c>
       <c r="AE16" t="n">
-        <v>456597.1237513227</v>
+        <v>643514.8117802246</v>
       </c>
       <c r="AF16" t="n">
         <v>6.215648374344337e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH16" t="n">
-        <v>413020.1350985838</v>
+        <v>582098.66132263</v>
       </c>
     </row>
     <row r="17">
@@ -25982,28 +25982,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>333.0054075160743</v>
+        <v>469.6167663533094</v>
       </c>
       <c r="AB17" t="n">
-        <v>455.6326897252234</v>
+        <v>642.5503777541252</v>
       </c>
       <c r="AC17" t="n">
-        <v>412.1477453023437</v>
+        <v>581.2262715263898</v>
       </c>
       <c r="AD17" t="n">
-        <v>333005.4075160744</v>
+        <v>469616.7663533094</v>
       </c>
       <c r="AE17" t="n">
-        <v>455632.6897252233</v>
+        <v>642550.3777541252</v>
       </c>
       <c r="AF17" t="n">
         <v>6.217863436277996e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH17" t="n">
-        <v>412147.7453023436</v>
+        <v>581226.2715263899</v>
       </c>
     </row>
     <row r="18">
@@ -26088,28 +26088,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>332.426660526522</v>
+        <v>459.3435152245476</v>
       </c>
       <c r="AB18" t="n">
-        <v>454.8408225616027</v>
+        <v>628.4940623359004</v>
       </c>
       <c r="AC18" t="n">
-        <v>411.4314528294265</v>
+        <v>568.5114711235178</v>
       </c>
       <c r="AD18" t="n">
-        <v>332426.660526522</v>
+        <v>459343.5152245475</v>
       </c>
       <c r="AE18" t="n">
-        <v>454840.8225616027</v>
+        <v>628494.0623359004</v>
       </c>
       <c r="AF18" t="n">
         <v>6.249797245821595e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>411431.4528294264</v>
+        <v>568511.4711235178</v>
       </c>
     </row>
     <row r="19">
@@ -26194,28 +26194,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>332.2990281565557</v>
+        <v>459.2158828545813</v>
       </c>
       <c r="AB19" t="n">
-        <v>454.666190322272</v>
+        <v>628.3194300965697</v>
       </c>
       <c r="AC19" t="n">
-        <v>411.2734872459196</v>
+        <v>568.3535055400109</v>
       </c>
       <c r="AD19" t="n">
-        <v>332299.0281565557</v>
+        <v>459215.8828545812</v>
       </c>
       <c r="AE19" t="n">
-        <v>454666.190322272</v>
+        <v>628319.4300965697</v>
       </c>
       <c r="AF19" t="n">
         <v>6.251950778257097e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH19" t="n">
-        <v>411273.4872459196</v>
+        <v>568353.505540011</v>
       </c>
     </row>
     <row r="20">
@@ -26300,28 +26300,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>331.8448896525144</v>
+        <v>458.7617443505399</v>
       </c>
       <c r="AB20" t="n">
-        <v>454.0448179858658</v>
+        <v>627.6980577601635</v>
       </c>
       <c r="AC20" t="n">
-        <v>410.7114178131984</v>
+        <v>567.7914361072899</v>
       </c>
       <c r="AD20" t="n">
-        <v>331844.8896525144</v>
+        <v>458761.7443505399</v>
       </c>
       <c r="AE20" t="n">
-        <v>454044.8179858658</v>
+        <v>627698.0577601634</v>
       </c>
       <c r="AF20" t="n">
         <v>6.256873138109675e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>410711.4178131984</v>
+        <v>567791.4361072899</v>
       </c>
     </row>
     <row r="21">
@@ -26406,28 +26406,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>331.2654095697187</v>
+        <v>458.1822642677441</v>
       </c>
       <c r="AB21" t="n">
-        <v>453.2519477717278</v>
+        <v>626.9051875460254</v>
       </c>
       <c r="AC21" t="n">
-        <v>409.9942180194974</v>
+        <v>567.0742363135888</v>
       </c>
       <c r="AD21" t="n">
-        <v>331265.4095697186</v>
+        <v>458182.2642677441</v>
       </c>
       <c r="AE21" t="n">
-        <v>453251.9477717278</v>
+        <v>626905.1875460255</v>
       </c>
       <c r="AF21" t="n">
         <v>6.25564254814653e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH21" t="n">
-        <v>409994.2180194974</v>
+        <v>567074.2363135888</v>
       </c>
     </row>
     <row r="22">
@@ -26512,28 +26512,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>330.0546194838612</v>
+        <v>456.8699889554016</v>
       </c>
       <c r="AB22" t="n">
-        <v>451.5952913599691</v>
+        <v>625.1096745701775</v>
       </c>
       <c r="AC22" t="n">
-        <v>408.4956705705451</v>
+        <v>565.4500845761374</v>
       </c>
       <c r="AD22" t="n">
-        <v>330054.6194838613</v>
+        <v>456869.9889554016</v>
       </c>
       <c r="AE22" t="n">
-        <v>451595.2913599691</v>
+        <v>625109.6745701774</v>
       </c>
       <c r="AF22" t="n">
         <v>6.292252599550077e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH22" t="n">
-        <v>408495.6705705451</v>
+        <v>565450.0845761375</v>
       </c>
     </row>
     <row r="23">
@@ -26618,28 +26618,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>330.2994075755457</v>
+        <v>457.1147770470859</v>
       </c>
       <c r="AB23" t="n">
-        <v>451.9302212263</v>
+        <v>625.4446044365084</v>
       </c>
       <c r="AC23" t="n">
-        <v>408.7986352005104</v>
+        <v>565.7530492061029</v>
       </c>
       <c r="AD23" t="n">
-        <v>330299.4075755457</v>
+        <v>457114.7770470859</v>
       </c>
       <c r="AE23" t="n">
-        <v>451930.2212263</v>
+        <v>625444.6044365084</v>
       </c>
       <c r="AF23" t="n">
         <v>6.292252599550077e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH23" t="n">
-        <v>408798.6352005104</v>
+        <v>565753.0492061028</v>
       </c>
     </row>
     <row r="24">
@@ -26724,28 +26724,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>330.1855642985864</v>
+        <v>457.0009337701267</v>
       </c>
       <c r="AB24" t="n">
-        <v>451.7744558323535</v>
+        <v>625.2888390425618</v>
       </c>
       <c r="AC24" t="n">
-        <v>408.657735837144</v>
+        <v>565.6121498427365</v>
       </c>
       <c r="AD24" t="n">
-        <v>330185.5642985864</v>
+        <v>457000.9337701267</v>
       </c>
       <c r="AE24" t="n">
-        <v>451774.4558323534</v>
+        <v>625288.8390425618</v>
       </c>
       <c r="AF24" t="n">
         <v>6.29151424557219e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH24" t="n">
-        <v>408657.735837144</v>
+        <v>565612.1498427364</v>
       </c>
     </row>
     <row r="25">
@@ -26830,28 +26830,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>330.0248235790945</v>
+        <v>456.8401930506348</v>
       </c>
       <c r="AB25" t="n">
-        <v>451.5545232885646</v>
+        <v>625.068906498773</v>
       </c>
       <c r="AC25" t="n">
-        <v>408.458793346657</v>
+        <v>565.4132073522495</v>
       </c>
       <c r="AD25" t="n">
-        <v>330024.8235790945</v>
+        <v>456840.1930506348</v>
       </c>
       <c r="AE25" t="n">
-        <v>451554.5232885646</v>
+        <v>625068.906498773</v>
       </c>
       <c r="AF25" t="n">
         <v>6.292068011055606e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH25" t="n">
-        <v>408458.7933466571</v>
+        <v>565413.2073522495</v>
       </c>
     </row>
     <row r="26">
@@ -26936,28 +26936,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>329.6980803068428</v>
+        <v>456.513449778383</v>
       </c>
       <c r="AB26" t="n">
-        <v>451.107458728574</v>
+        <v>624.6218419387824</v>
       </c>
       <c r="AC26" t="n">
-        <v>408.0543960008129</v>
+        <v>565.0088100064054</v>
       </c>
       <c r="AD26" t="n">
-        <v>329698.0803068428</v>
+        <v>456513.449778383</v>
       </c>
       <c r="AE26" t="n">
-        <v>451107.458728574</v>
+        <v>624621.8419387824</v>
       </c>
       <c r="AF26" t="n">
         <v>6.292252599550077e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH26" t="n">
-        <v>408054.3960008129</v>
+        <v>565008.8100064053</v>
       </c>
     </row>
     <row r="27">
@@ -27042,28 +27042,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>329.1635396376667</v>
+        <v>455.978909109207</v>
       </c>
       <c r="AB27" t="n">
-        <v>450.3760766027373</v>
+        <v>623.8904598129457</v>
       </c>
       <c r="AC27" t="n">
-        <v>407.3928159585649</v>
+        <v>564.3472299641573</v>
       </c>
       <c r="AD27" t="n">
-        <v>329163.5396376667</v>
+        <v>455978.909109207</v>
       </c>
       <c r="AE27" t="n">
-        <v>450376.0766027373</v>
+        <v>623890.4598129457</v>
       </c>
       <c r="AF27" t="n">
         <v>6.296190487432138e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>407392.8159585649</v>
+        <v>564347.2299641573</v>
       </c>
     </row>
     <row r="28">
@@ -27148,28 +27148,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>328.6350274506648</v>
+        <v>455.4503969222051</v>
       </c>
       <c r="AB28" t="n">
-        <v>449.6529429121692</v>
+        <v>623.1673261223775</v>
       </c>
       <c r="AC28" t="n">
-        <v>406.7386971325001</v>
+        <v>563.6931111380925</v>
       </c>
       <c r="AD28" t="n">
-        <v>328635.0274506648</v>
+        <v>455450.3969222051</v>
       </c>
       <c r="AE28" t="n">
-        <v>449652.9429121692</v>
+        <v>623167.3261223775</v>
       </c>
       <c r="AF28" t="n">
         <v>6.294959897468995e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>406738.6971325001</v>
+        <v>563693.1111380925</v>
       </c>
     </row>
     <row r="29">
@@ -27254,28 +27254,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>327.8193186076847</v>
+        <v>454.634688079225</v>
       </c>
       <c r="AB29" t="n">
-        <v>448.5368540866695</v>
+        <v>622.0512372968778</v>
       </c>
       <c r="AC29" t="n">
-        <v>405.7291262580655</v>
+        <v>562.683540263658</v>
       </c>
       <c r="AD29" t="n">
-        <v>327819.3186076847</v>
+        <v>454634.688079225</v>
       </c>
       <c r="AE29" t="n">
-        <v>448536.8540866695</v>
+        <v>622051.2372968779</v>
       </c>
       <c r="AF29" t="n">
         <v>6.298528608362114e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH29" t="n">
-        <v>405729.1262580656</v>
+        <v>562683.5402636579</v>
       </c>
     </row>
     <row r="30">
@@ -27360,28 +27360,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>327.0256919889709</v>
+        <v>453.8410614605112</v>
       </c>
       <c r="AB30" t="n">
-        <v>447.4509791346099</v>
+        <v>620.9653623448183</v>
       </c>
       <c r="AC30" t="n">
-        <v>404.7468856873955</v>
+        <v>561.701299692988</v>
       </c>
       <c r="AD30" t="n">
-        <v>327025.691988971</v>
+        <v>453841.0614605112</v>
       </c>
       <c r="AE30" t="n">
-        <v>447450.9791346099</v>
+        <v>620965.3623448183</v>
       </c>
       <c r="AF30" t="n">
         <v>6.296744252915555e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH30" t="n">
-        <v>404746.8856873955</v>
+        <v>561701.2996929879</v>
       </c>
     </row>
     <row r="31">
@@ -27466,28 +27466,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>326.3619546271941</v>
+        <v>453.1773240987343</v>
       </c>
       <c r="AB31" t="n">
-        <v>446.542824394201</v>
+        <v>620.0572076044094</v>
       </c>
       <c r="AC31" t="n">
-        <v>403.925403960808</v>
+        <v>560.8798179664004</v>
       </c>
       <c r="AD31" t="n">
-        <v>326361.9546271941</v>
+        <v>453177.3240987343</v>
       </c>
       <c r="AE31" t="n">
-        <v>446542.824394201</v>
+        <v>620057.2076044094</v>
       </c>
       <c r="AF31" t="n">
         <v>6.334154187795144e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH31" t="n">
-        <v>403925.403960808</v>
+        <v>560879.8179664004</v>
       </c>
     </row>
   </sheetData>
@@ -27763,28 +27763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.297051323982</v>
+        <v>545.5114379247938</v>
       </c>
       <c r="AB2" t="n">
-        <v>538.1263766628024</v>
+        <v>746.3928156348329</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.768350539217</v>
+        <v>675.1581328795398</v>
       </c>
       <c r="AD2" t="n">
-        <v>393297.051323982</v>
+        <v>545511.4379247938</v>
       </c>
       <c r="AE2" t="n">
-        <v>538126.3766628024</v>
+        <v>746392.815634833</v>
       </c>
       <c r="AF2" t="n">
         <v>6.433376887510143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>486768.350539217</v>
+        <v>675158.1328795399</v>
       </c>
     </row>
     <row r="3">
@@ -27869,28 +27869,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.1588137444095</v>
+        <v>471.3337163668091</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.6838074790686</v>
+        <v>644.8995845090842</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.5259142740678</v>
+        <v>583.351273285788</v>
       </c>
       <c r="AD3" t="n">
-        <v>338158.8137444095</v>
+        <v>471333.7163668092</v>
       </c>
       <c r="AE3" t="n">
-        <v>462683.8074790686</v>
+        <v>644899.5845090842</v>
       </c>
       <c r="AF3" t="n">
         <v>7.322164883308214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>418525.9142740677</v>
+        <v>583351.273285788</v>
       </c>
     </row>
     <row r="4">
@@ -27975,28 +27975,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.1741688324802</v>
+        <v>446.8634948844547</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.1811552346898</v>
+        <v>611.4183479269459</v>
       </c>
       <c r="AC4" t="n">
-        <v>399.9800063842394</v>
+        <v>553.0654389318381</v>
       </c>
       <c r="AD4" t="n">
-        <v>323174.1688324802</v>
+        <v>446863.4948844546</v>
       </c>
       <c r="AE4" t="n">
-        <v>442181.1552346898</v>
+        <v>611418.3479269459</v>
       </c>
       <c r="AF4" t="n">
         <v>7.658672429486357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>399980.0063842394</v>
+        <v>553065.4389318381</v>
       </c>
     </row>
     <row r="5">
@@ -28081,28 +28081,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.6285107790761</v>
+        <v>434.2836714122697</v>
       </c>
       <c r="AB5" t="n">
-        <v>425.0156324106513</v>
+        <v>594.2060784696596</v>
       </c>
       <c r="AC5" t="n">
-        <v>384.4527369665645</v>
+        <v>537.4958843139834</v>
       </c>
       <c r="AD5" t="n">
-        <v>310628.5107790761</v>
+        <v>434283.6714122697</v>
       </c>
       <c r="AE5" t="n">
-        <v>425015.6324106513</v>
+        <v>594206.0784696596</v>
       </c>
       <c r="AF5" t="n">
         <v>7.838853926174859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.49479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>384452.7369665645</v>
+        <v>537495.8843139834</v>
       </c>
     </row>
     <row r="6">
@@ -28187,28 +28187,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.7230281275099</v>
+        <v>432.3781887607036</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.4084669828169</v>
+        <v>591.5989130418251</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.0943957479829</v>
+        <v>535.1375430954017</v>
       </c>
       <c r="AD6" t="n">
-        <v>308723.0281275099</v>
+        <v>432378.1887607035</v>
       </c>
       <c r="AE6" t="n">
-        <v>422408.4669828169</v>
+        <v>591598.9130418251</v>
       </c>
       <c r="AF6" t="n">
         <v>7.945091207108692e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.13020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>382094.3957479829</v>
+        <v>535137.5430954017</v>
       </c>
     </row>
     <row r="7">
@@ -28293,28 +28293,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.772039279528</v>
+        <v>421.9757887610771</v>
       </c>
       <c r="AB7" t="n">
-        <v>421.1072820863409</v>
+        <v>577.3658904408372</v>
       </c>
       <c r="AC7" t="n">
-        <v>380.9173941118022</v>
+        <v>522.2629001952796</v>
       </c>
       <c r="AD7" t="n">
-        <v>307772.039279528</v>
+        <v>421975.7887610771</v>
       </c>
       <c r="AE7" t="n">
-        <v>421107.2820863409</v>
+        <v>577365.8904408372</v>
       </c>
       <c r="AF7" t="n">
         <v>7.981142847569994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>380917.3941118022</v>
+        <v>522262.9001952796</v>
       </c>
     </row>
     <row r="8">
@@ -28399,28 +28399,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>296.6660637198534</v>
+        <v>420.3885441607514</v>
       </c>
       <c r="AB8" t="n">
-        <v>405.9115963645323</v>
+        <v>575.194152354382</v>
       </c>
       <c r="AC8" t="n">
-        <v>367.171963308004</v>
+        <v>520.298429743742</v>
       </c>
       <c r="AD8" t="n">
-        <v>296666.0637198534</v>
+        <v>420388.5441607514</v>
       </c>
       <c r="AE8" t="n">
-        <v>405911.5963645322</v>
+        <v>575194.152354382</v>
       </c>
       <c r="AF8" t="n">
         <v>8.060149634112842e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>367171.963308004</v>
+        <v>520298.4297437419</v>
       </c>
     </row>
     <row r="9">
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>295.8203914912525</v>
+        <v>419.5428719321505</v>
       </c>
       <c r="AB9" t="n">
-        <v>404.7545103129349</v>
+        <v>574.0370663027846</v>
       </c>
       <c r="AC9" t="n">
-        <v>366.1253079251907</v>
+        <v>519.2517743609286</v>
       </c>
       <c r="AD9" t="n">
-        <v>295820.3914912525</v>
+        <v>419542.8719321505</v>
       </c>
       <c r="AE9" t="n">
-        <v>404754.5103129349</v>
+        <v>574037.0663027846</v>
       </c>
       <c r="AF9" t="n">
         <v>8.094897279068097e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.6875</v>
       </c>
       <c r="AH9" t="n">
-        <v>366125.3079251907</v>
+        <v>519251.7743609286</v>
       </c>
     </row>
     <row r="10">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>295.1698899598233</v>
+        <v>418.8923704007212</v>
       </c>
       <c r="AB10" t="n">
-        <v>403.8644654195312</v>
+        <v>573.1470214093808</v>
       </c>
       <c r="AC10" t="n">
-        <v>365.3202076672275</v>
+        <v>518.4466741029654</v>
       </c>
       <c r="AD10" t="n">
-        <v>295169.8899598232</v>
+        <v>418892.3704007212</v>
       </c>
       <c r="AE10" t="n">
-        <v>403864.4654195312</v>
+        <v>573147.0214093808</v>
       </c>
       <c r="AF10" t="n">
         <v>8.086076132997779e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>365320.2076672275</v>
+        <v>518446.6741029655</v>
       </c>
     </row>
     <row r="11">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>294.3078727378694</v>
+        <v>418.0303531787675</v>
       </c>
       <c r="AB11" t="n">
-        <v>402.6850154269383</v>
+        <v>571.9675714167879</v>
       </c>
       <c r="AC11" t="n">
-        <v>364.2533227265592</v>
+        <v>517.3797891622971</v>
       </c>
       <c r="AD11" t="n">
-        <v>294307.8727378694</v>
+        <v>418030.3531787675</v>
       </c>
       <c r="AE11" t="n">
-        <v>402685.0154269382</v>
+        <v>571967.5714167879</v>
       </c>
       <c r="AF11" t="n">
         <v>8.133019971215474e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.55729166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>364253.3227265592</v>
+        <v>517379.7891622971</v>
       </c>
     </row>
     <row r="12">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>292.9565093050318</v>
+        <v>416.5775045194445</v>
       </c>
       <c r="AB12" t="n">
-        <v>400.8360203601827</v>
+        <v>569.9797197859431</v>
       </c>
       <c r="AC12" t="n">
-        <v>362.580793153894</v>
+        <v>515.5816553011329</v>
       </c>
       <c r="AD12" t="n">
-        <v>292956.5093050318</v>
+        <v>416577.5045194445</v>
       </c>
       <c r="AE12" t="n">
-        <v>400836.0203601827</v>
+        <v>569979.719785943</v>
       </c>
       <c r="AF12" t="n">
         <v>8.165236330776637e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>362580.793153894</v>
+        <v>515581.6553011328</v>
       </c>
     </row>
     <row r="13">
@@ -28929,28 +28929,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>292.8951620844816</v>
+        <v>416.5161572988944</v>
       </c>
       <c r="AB13" t="n">
-        <v>400.7520823865776</v>
+        <v>569.8957818123379</v>
       </c>
       <c r="AC13" t="n">
-        <v>362.5048661026819</v>
+        <v>515.5057282499209</v>
       </c>
       <c r="AD13" t="n">
-        <v>292895.1620844816</v>
+        <v>416516.1572988944</v>
       </c>
       <c r="AE13" t="n">
-        <v>400752.0823865776</v>
+        <v>569895.7818123379</v>
       </c>
       <c r="AF13" t="n">
         <v>8.165236330776637e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.453125</v>
       </c>
       <c r="AH13" t="n">
-        <v>362504.866102682</v>
+        <v>515505.7282499209</v>
       </c>
     </row>
     <row r="14">
@@ -29035,28 +29035,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>293.106448462329</v>
+        <v>416.7274436767418</v>
       </c>
       <c r="AB14" t="n">
-        <v>401.0411737300454</v>
+        <v>570.1848731558058</v>
       </c>
       <c r="AC14" t="n">
-        <v>362.7663669740716</v>
+        <v>515.7672291213104</v>
       </c>
       <c r="AD14" t="n">
-        <v>293106.4484623289</v>
+        <v>416727.4436767417</v>
       </c>
       <c r="AE14" t="n">
-        <v>401041.1737300454</v>
+        <v>570184.8731558057</v>
       </c>
       <c r="AF14" t="n">
         <v>8.159713526280437e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>362766.3669740715</v>
+        <v>515767.2291213104</v>
       </c>
     </row>
   </sheetData>
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.1726706832562</v>
+        <v>482.1525057941776</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.8074995047827</v>
+        <v>659.7023294949136</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.256046920486</v>
+        <v>596.741265065953</v>
       </c>
       <c r="AD2" t="n">
-        <v>341172.6706832562</v>
+        <v>482152.5057941776</v>
       </c>
       <c r="AE2" t="n">
-        <v>466807.4995047827</v>
+        <v>659702.3294949136</v>
       </c>
       <c r="AF2" t="n">
         <v>7.913869802955934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.69791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>422256.046920486</v>
+        <v>596741.265065953</v>
       </c>
     </row>
     <row r="3">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.9418371994112</v>
+        <v>433.486573522905</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.1301423899625</v>
+        <v>593.1154539719536</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.7015814320602</v>
+        <v>536.5093474876376</v>
       </c>
       <c r="AD3" t="n">
-        <v>301941.8371994112</v>
+        <v>433486.573522905</v>
       </c>
       <c r="AE3" t="n">
-        <v>413130.1423899625</v>
+        <v>593115.4539719536</v>
       </c>
       <c r="AF3" t="n">
         <v>8.743066476970395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>373701.5814320602</v>
+        <v>536509.3474876375</v>
       </c>
     </row>
     <row r="4">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.3858500210486</v>
+        <v>420.4964985869719</v>
       </c>
       <c r="AB4" t="n">
-        <v>408.2646838534444</v>
+        <v>575.3418603629499</v>
       </c>
       <c r="AC4" t="n">
-        <v>369.3004754295534</v>
+        <v>520.4320407072818</v>
       </c>
       <c r="AD4" t="n">
-        <v>298385.8500210486</v>
+        <v>420496.4985869719</v>
       </c>
       <c r="AE4" t="n">
-        <v>408264.6838534444</v>
+        <v>575341.8603629499</v>
       </c>
       <c r="AF4" t="n">
         <v>9.02687903374362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>369300.4754295534</v>
+        <v>520432.0407072818</v>
       </c>
     </row>
     <row r="5">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>286.5862092067691</v>
+        <v>408.7641775803969</v>
       </c>
       <c r="AB5" t="n">
-        <v>392.1198947279341</v>
+        <v>559.2891811682812</v>
       </c>
       <c r="AC5" t="n">
-        <v>354.6965223188279</v>
+        <v>505.9114066848754</v>
       </c>
       <c r="AD5" t="n">
-        <v>286586.2092067691</v>
+        <v>408764.1775803969</v>
       </c>
       <c r="AE5" t="n">
-        <v>392119.8947279341</v>
+        <v>559289.1811682811</v>
       </c>
       <c r="AF5" t="n">
         <v>9.186142011207637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>354696.5223188279</v>
+        <v>505911.4066848754</v>
       </c>
     </row>
     <row r="6">
@@ -29756,28 +29756,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>284.7232710458122</v>
+        <v>406.7997541929548</v>
       </c>
       <c r="AB6" t="n">
-        <v>389.5709405490816</v>
+        <v>556.6013704253393</v>
       </c>
       <c r="AC6" t="n">
-        <v>352.3908367493255</v>
+        <v>503.480116826874</v>
       </c>
       <c r="AD6" t="n">
-        <v>284723.2710458122</v>
+        <v>406799.7541929547</v>
       </c>
       <c r="AE6" t="n">
-        <v>389570.9405490816</v>
+        <v>556601.3704253393</v>
       </c>
       <c r="AF6" t="n">
         <v>9.301533533214698e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>352390.8367493255</v>
+        <v>503480.116826874</v>
       </c>
     </row>
     <row r="7">
@@ -29862,28 +29862,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>283.6134575957092</v>
+        <v>396.3573382117667</v>
       </c>
       <c r="AB7" t="n">
-        <v>388.0524448251369</v>
+        <v>542.3135961929984</v>
       </c>
       <c r="AC7" t="n">
-        <v>351.017264126052</v>
+        <v>490.5559477142505</v>
       </c>
       <c r="AD7" t="n">
-        <v>283613.4575957092</v>
+        <v>396357.3382117667</v>
       </c>
       <c r="AE7" t="n">
-        <v>388052.4448251369</v>
+        <v>542313.5961929983</v>
       </c>
       <c r="AF7" t="n">
         <v>9.351946458173188e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>351017.264126052</v>
+        <v>490555.9477142505</v>
       </c>
     </row>
     <row r="8">
@@ -29968,28 +29968,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>282.5760184409683</v>
+        <v>395.3198990570257</v>
       </c>
       <c r="AB8" t="n">
-        <v>386.632974805035</v>
+        <v>540.8941261728963</v>
       </c>
       <c r="AC8" t="n">
-        <v>349.7332663324298</v>
+        <v>489.2719499206283</v>
       </c>
       <c r="AD8" t="n">
-        <v>282576.0184409683</v>
+        <v>395319.8990570257</v>
       </c>
       <c r="AE8" t="n">
-        <v>386632.974805035</v>
+        <v>540894.1261728964</v>
       </c>
       <c r="AF8" t="n">
         <v>9.381775559100182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH8" t="n">
-        <v>349733.2663324298</v>
+        <v>489271.9499206283</v>
       </c>
     </row>
     <row r="9">
@@ -30074,28 +30074,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>281.8551624303355</v>
+        <v>394.5990430463929</v>
       </c>
       <c r="AB9" t="n">
-        <v>385.6466678093644</v>
+        <v>539.9078191772259</v>
       </c>
       <c r="AC9" t="n">
-        <v>348.8410910921355</v>
+        <v>488.379774680334</v>
       </c>
       <c r="AD9" t="n">
-        <v>281855.1624303355</v>
+        <v>394599.0430463928</v>
       </c>
       <c r="AE9" t="n">
-        <v>385646.6678093644</v>
+        <v>539907.8191772258</v>
       </c>
       <c r="AF9" t="n">
         <v>9.415267882948038e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>348841.0910921355</v>
+        <v>488379.774680334</v>
       </c>
     </row>
   </sheetData>
@@ -56904,28 +56904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.0055270367291</v>
+        <v>446.187585657376</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.3727032715874</v>
+        <v>610.4935391034463</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.1076593102466</v>
+        <v>552.2288925644763</v>
       </c>
       <c r="AD2" t="n">
-        <v>316005.527036729</v>
+        <v>446187.585657376</v>
       </c>
       <c r="AE2" t="n">
-        <v>432372.7032715874</v>
+        <v>610493.5391034463</v>
       </c>
       <c r="AF2" t="n">
         <v>9.386284361327802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>391107.6593102466</v>
+        <v>552228.8925644762</v>
       </c>
     </row>
     <row r="3">
@@ -57010,28 +57010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.5773792560411</v>
+        <v>410.4534704590358</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.2125455504572</v>
+        <v>561.6005462111768</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.3985762909209</v>
+        <v>508.0021782920984</v>
       </c>
       <c r="AD3" t="n">
-        <v>289577.3792560411</v>
+        <v>410453.4704590358</v>
       </c>
       <c r="AE3" t="n">
-        <v>396212.5455504571</v>
+        <v>561600.5462111768</v>
       </c>
       <c r="AF3" t="n">
         <v>1.016323432849801e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>358398.5762909209</v>
+        <v>508002.1782920985</v>
       </c>
     </row>
     <row r="4">
@@ -57116,28 +57116,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.4329430806256</v>
+        <v>398.2748688648396</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.5959922005428</v>
+        <v>544.9372462280147</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.3678834712433</v>
+        <v>492.9292002722409</v>
       </c>
       <c r="AD4" t="n">
-        <v>277432.9430806257</v>
+        <v>398274.8688648396</v>
       </c>
       <c r="AE4" t="n">
-        <v>379595.9922005428</v>
+        <v>544937.2462280147</v>
       </c>
       <c r="AF4" t="n">
         <v>1.041878935426037e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>343367.8834712433</v>
+        <v>492929.2002722409</v>
       </c>
     </row>
     <row r="5">
@@ -57222,28 +57222,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.4339618430909</v>
+        <v>387.0382510472141</v>
       </c>
       <c r="AB5" t="n">
-        <v>376.8608978825196</v>
+        <v>529.5628100053478</v>
       </c>
       <c r="AC5" t="n">
-        <v>340.8938227162032</v>
+        <v>479.0220786645086</v>
       </c>
       <c r="AD5" t="n">
-        <v>275433.9618430908</v>
+        <v>387038.2510472141</v>
       </c>
       <c r="AE5" t="n">
-        <v>376860.8978825196</v>
+        <v>529562.8100053478</v>
       </c>
       <c r="AF5" t="n">
         <v>1.054818306412319e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>340893.8227162032</v>
+        <v>479022.0786645086</v>
       </c>
     </row>
     <row r="6">
@@ -57328,28 +57328,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>274.1054425940314</v>
+        <v>385.7097317981548</v>
       </c>
       <c r="AB6" t="n">
-        <v>375.0431592358238</v>
+        <v>527.7450713586521</v>
       </c>
       <c r="AC6" t="n">
-        <v>339.2495664947359</v>
+        <v>477.3778224430412</v>
       </c>
       <c r="AD6" t="n">
-        <v>274105.4425940315</v>
+        <v>385709.7317981548</v>
       </c>
       <c r="AE6" t="n">
-        <v>375043.1592358238</v>
+        <v>527745.0713586521</v>
       </c>
       <c r="AF6" t="n">
         <v>1.062478100591934e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>339249.5664947359</v>
+        <v>477377.8224430413</v>
       </c>
     </row>
     <row r="7">
@@ -57434,28 +57434,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>264.78149297417</v>
+        <v>385.6907385660884</v>
       </c>
       <c r="AB7" t="n">
-        <v>362.2857200223031</v>
+        <v>527.7190839806166</v>
       </c>
       <c r="AC7" t="n">
-        <v>327.7096793745753</v>
+        <v>477.354315263892</v>
       </c>
       <c r="AD7" t="n">
-        <v>264781.49297417</v>
+        <v>385690.7385660884</v>
       </c>
       <c r="AE7" t="n">
-        <v>362285.7200223031</v>
+        <v>527719.0839806165</v>
       </c>
       <c r="AF7" t="n">
         <v>1.063114784251365e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>327709.6793745753</v>
+        <v>477354.315263892</v>
       </c>
     </row>
   </sheetData>
@@ -57731,28 +57731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.6021315981678</v>
+        <v>380.0982670578433</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.9355775241324</v>
+        <v>520.0672177406057</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.7747083709667</v>
+        <v>470.4327323983659</v>
       </c>
       <c r="AD2" t="n">
-        <v>261602.1315981678</v>
+        <v>380098.2670578433</v>
       </c>
       <c r="AE2" t="n">
-        <v>357935.5775241324</v>
+        <v>520067.2177406057</v>
       </c>
       <c r="AF2" t="n">
         <v>1.353353291381428e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>323774.7083709667</v>
+        <v>470432.7323983659</v>
       </c>
     </row>
     <row r="3">
@@ -57837,28 +57837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.4219376737425</v>
+        <v>367.7672032923054</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.5842958964797</v>
+        <v>503.1953122884575</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.8387069547949</v>
+        <v>455.1710579227029</v>
       </c>
       <c r="AD3" t="n">
-        <v>258421.9376737425</v>
+        <v>367767.2032923054</v>
       </c>
       <c r="AE3" t="n">
-        <v>353584.2958964797</v>
+        <v>503195.3122884575</v>
       </c>
       <c r="AF3" t="n">
         <v>1.404292210663413e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>319838.7069547949</v>
+        <v>455171.0579227029</v>
       </c>
     </row>
   </sheetData>
@@ -58134,28 +58134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.794934264117</v>
+        <v>600.3423325318093</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.6420990926549</v>
+        <v>821.4148646044994</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.6039759512054</v>
+        <v>743.0201827896484</v>
       </c>
       <c r="AD2" t="n">
-        <v>436794.934264117</v>
+        <v>600342.3325318093</v>
       </c>
       <c r="AE2" t="n">
-        <v>597642.0990926549</v>
+        <v>821414.8646044994</v>
       </c>
       <c r="AF2" t="n">
         <v>5.409299326918562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>540603.9759512054</v>
+        <v>743020.1827896484</v>
       </c>
     </row>
     <row r="3">
@@ -58240,28 +58240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.6841550684235</v>
+        <v>507.8550323064154</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.6087055771678</v>
+        <v>694.8696601843993</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.1176291150867</v>
+        <v>628.5522750720929</v>
       </c>
       <c r="AD3" t="n">
-        <v>363684.1550684235</v>
+        <v>507855.0323064154</v>
       </c>
       <c r="AE3" t="n">
-        <v>497608.7055771677</v>
+        <v>694869.6601843993</v>
       </c>
       <c r="AF3" t="n">
         <v>6.360250320846066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.48958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>450117.6291150867</v>
+        <v>628552.2750720929</v>
       </c>
     </row>
     <row r="4">
@@ -58346,28 +58346,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.2973658873842</v>
+        <v>481.8819733519396</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.1875776855531</v>
+        <v>659.3321750723946</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.8363422011972</v>
+        <v>596.4064376620042</v>
       </c>
       <c r="AD4" t="n">
-        <v>347297.3658873842</v>
+        <v>481881.9733519396</v>
       </c>
       <c r="AE4" t="n">
-        <v>475187.5776855531</v>
+        <v>659332.1750723947</v>
       </c>
       <c r="AF4" t="n">
         <v>6.692568163059462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>429836.3422011972</v>
+        <v>596406.4376620043</v>
       </c>
     </row>
     <row r="5">
@@ -58452,28 +58452,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.9068563698535</v>
+        <v>458.9051940609725</v>
       </c>
       <c r="AB5" t="n">
-        <v>456.8660918160806</v>
+        <v>627.894331982532</v>
       </c>
       <c r="AC5" t="n">
-        <v>413.2634332287402</v>
+        <v>567.9689781933481</v>
       </c>
       <c r="AD5" t="n">
-        <v>333906.8563698535</v>
+        <v>458905.1940609725</v>
       </c>
       <c r="AE5" t="n">
-        <v>456866.0918160806</v>
+        <v>627894.3319825319</v>
       </c>
       <c r="AF5" t="n">
         <v>6.886252048898179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>413263.4332287402</v>
+        <v>567968.9781933482</v>
       </c>
     </row>
     <row r="6">
@@ -58558,28 +58558,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>322.2477968030382</v>
+        <v>456.8655586565172</v>
       </c>
       <c r="AB6" t="n">
-        <v>440.9136521553576</v>
+        <v>625.1036128397928</v>
       </c>
       <c r="AC6" t="n">
-        <v>398.8334720198469</v>
+        <v>565.4446013687931</v>
       </c>
       <c r="AD6" t="n">
-        <v>322247.7968030382</v>
+        <v>456865.5586565172</v>
       </c>
       <c r="AE6" t="n">
-        <v>440913.6521553576</v>
+        <v>625103.6128397929</v>
       </c>
       <c r="AF6" t="n">
         <v>6.987304511074901e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>398833.4720198469</v>
+        <v>565444.6013687931</v>
       </c>
     </row>
     <row r="7">
@@ -58664,28 +58664,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>320.4417633331869</v>
+        <v>445.5074208320104</v>
       </c>
       <c r="AB7" t="n">
-        <v>438.4425574853337</v>
+        <v>609.5629075826266</v>
       </c>
       <c r="AC7" t="n">
-        <v>396.5982151569269</v>
+        <v>551.3870792098542</v>
       </c>
       <c r="AD7" t="n">
-        <v>320441.7633331869</v>
+        <v>445507.4208320105</v>
       </c>
       <c r="AE7" t="n">
-        <v>438442.5574853338</v>
+        <v>609562.9075826267</v>
       </c>
       <c r="AF7" t="n">
         <v>7.064903337057716e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>396598.2151569269</v>
+        <v>551387.0792098541</v>
       </c>
     </row>
     <row r="8">
@@ -58770,28 +58770,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>319.5144060194124</v>
+        <v>444.5800635182359</v>
       </c>
       <c r="AB8" t="n">
-        <v>437.1737062965103</v>
+        <v>608.2940563938031</v>
       </c>
       <c r="AC8" t="n">
-        <v>395.4504613447209</v>
+        <v>550.239325397648</v>
       </c>
       <c r="AD8" t="n">
-        <v>319514.4060194124</v>
+        <v>444580.0635182359</v>
       </c>
       <c r="AE8" t="n">
-        <v>437173.7062965102</v>
+        <v>608294.0563938031</v>
       </c>
       <c r="AF8" t="n">
         <v>7.099353040072508e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>395450.4613447209</v>
+        <v>550239.325397648</v>
       </c>
     </row>
     <row r="9">
@@ -58876,28 +58876,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>318.0858972635349</v>
+        <v>443.0500695358732</v>
       </c>
       <c r="AB9" t="n">
-        <v>435.2191575953601</v>
+        <v>606.2006511285638</v>
       </c>
       <c r="AC9" t="n">
-        <v>393.6824520283823</v>
+        <v>548.3457117928103</v>
       </c>
       <c r="AD9" t="n">
-        <v>318085.8972635349</v>
+        <v>443050.0695358732</v>
       </c>
       <c r="AE9" t="n">
-        <v>435219.1575953601</v>
+        <v>606200.6511285638</v>
       </c>
       <c r="AF9" t="n">
         <v>7.169017995057975e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>393682.4520283823</v>
+        <v>548345.7117928104</v>
       </c>
     </row>
     <row r="10">
@@ -58982,28 +58982,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>317.5890924728141</v>
+        <v>442.5532647451524</v>
       </c>
       <c r="AB10" t="n">
-        <v>434.5394073632153</v>
+        <v>605.5209008964191</v>
       </c>
       <c r="AC10" t="n">
-        <v>393.067576204358</v>
+        <v>547.7308359687861</v>
       </c>
       <c r="AD10" t="n">
-        <v>317589.0924728141</v>
+        <v>442553.2647451524</v>
       </c>
       <c r="AE10" t="n">
-        <v>434539.4073632153</v>
+        <v>605520.9008964191</v>
       </c>
       <c r="AF10" t="n">
         <v>7.173750479512531e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>393067.576204358</v>
+        <v>547730.8359687862</v>
       </c>
     </row>
     <row r="11">
@@ -59088,28 +59088,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>316.9669047837925</v>
+        <v>441.9310770561307</v>
       </c>
       <c r="AB11" t="n">
-        <v>433.6881027181125</v>
+        <v>604.6695962513161</v>
       </c>
       <c r="AC11" t="n">
-        <v>392.2975188797701</v>
+        <v>546.9607786441982</v>
       </c>
       <c r="AD11" t="n">
-        <v>316966.9047837924</v>
+        <v>441931.0770561307</v>
       </c>
       <c r="AE11" t="n">
-        <v>433688.1027181125</v>
+        <v>604669.5962513161</v>
       </c>
       <c r="AF11" t="n">
         <v>7.204720414546032e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH11" t="n">
-        <v>392297.5188797701</v>
+        <v>546960.7786441982</v>
       </c>
     </row>
     <row r="12">
@@ -59194,19 +59194,19 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>305.8486382802633</v>
+        <v>430.8801303603059</v>
       </c>
       <c r="AB12" t="n">
-        <v>418.4755999846837</v>
+        <v>589.5492034487288</v>
       </c>
       <c r="AC12" t="n">
-        <v>378.536876056338</v>
+        <v>533.2834549090852</v>
       </c>
       <c r="AD12" t="n">
-        <v>305848.6382802633</v>
+        <v>430880.1303603059</v>
       </c>
       <c r="AE12" t="n">
-        <v>418475.5999846837</v>
+        <v>589549.2034487288</v>
       </c>
       <c r="AF12" t="n">
         <v>7.250374970460583e-06</v>
@@ -59215,7 +59215,7 @@
         <v>25</v>
       </c>
       <c r="AH12" t="n">
-        <v>378536.876056338</v>
+        <v>533283.4549090852</v>
       </c>
     </row>
     <row r="13">
@@ -59300,19 +59300,19 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>305.7874123729002</v>
+        <v>430.8189044529428</v>
       </c>
       <c r="AB13" t="n">
-        <v>418.3918279971331</v>
+        <v>589.4654314611782</v>
       </c>
       <c r="AC13" t="n">
-        <v>378.4610991497046</v>
+        <v>533.2076780024516</v>
       </c>
       <c r="AD13" t="n">
-        <v>305787.4123729002</v>
+        <v>430818.9044529428</v>
       </c>
       <c r="AE13" t="n">
-        <v>418391.8279971331</v>
+        <v>589465.4314611782</v>
       </c>
       <c r="AF13" t="n">
         <v>7.24592086744453e-06</v>
@@ -59321,7 +59321,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>378461.0991497046</v>
+        <v>533207.6780024517</v>
       </c>
     </row>
     <row r="14">
@@ -59406,28 +59406,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>314.7669963720576</v>
+        <v>430.1790642897402</v>
       </c>
       <c r="AB14" t="n">
-        <v>430.6780909760672</v>
+        <v>588.5899739221286</v>
       </c>
       <c r="AC14" t="n">
-        <v>389.5747784338076</v>
+        <v>532.4157729022166</v>
       </c>
       <c r="AD14" t="n">
-        <v>314766.9963720576</v>
+        <v>430179.0642897402</v>
       </c>
       <c r="AE14" t="n">
-        <v>430678.0909760672</v>
+        <v>588589.9739221286</v>
       </c>
       <c r="AF14" t="n">
         <v>7.239030926841571e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>389574.7784338077</v>
+        <v>532415.7729022166</v>
       </c>
     </row>
     <row r="15">
@@ -59512,28 +59512,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>304.4056506986691</v>
+        <v>429.4371427787117</v>
       </c>
       <c r="AB15" t="n">
-        <v>416.5012407154273</v>
+        <v>587.5748441794724</v>
       </c>
       <c r="AC15" t="n">
-        <v>376.7509468647089</v>
+        <v>531.497525717456</v>
       </c>
       <c r="AD15" t="n">
-        <v>304405.6506986691</v>
+        <v>429437.1427787117</v>
       </c>
       <c r="AE15" t="n">
-        <v>416501.2407154273</v>
+        <v>587574.8441794724</v>
       </c>
       <c r="AF15" t="n">
         <v>7.281762477651838e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>376750.9468647089</v>
+        <v>531497.525717456</v>
       </c>
     </row>
     <row r="16">
@@ -59618,28 +59618,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>303.9584899226488</v>
+        <v>428.9899820026915</v>
       </c>
       <c r="AB16" t="n">
-        <v>415.8894156143353</v>
+        <v>586.9630190783804</v>
       </c>
       <c r="AC16" t="n">
-        <v>376.1975134925631</v>
+        <v>530.9440923453103</v>
       </c>
       <c r="AD16" t="n">
-        <v>303958.4899226488</v>
+        <v>428989.9820026915</v>
       </c>
       <c r="AE16" t="n">
-        <v>415889.4156143353</v>
+        <v>586963.0190783804</v>
       </c>
       <c r="AF16" t="n">
         <v>7.284267910598368e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>376197.5134925631</v>
+        <v>530944.0923453103</v>
       </c>
     </row>
     <row r="17">
@@ -59724,28 +59724,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>303.1730110754272</v>
+        <v>428.2045031554698</v>
       </c>
       <c r="AB17" t="n">
-        <v>414.8146888026855</v>
+        <v>585.8882922667307</v>
       </c>
       <c r="AC17" t="n">
-        <v>375.2253570994287</v>
+        <v>529.9719359521758</v>
       </c>
       <c r="AD17" t="n">
-        <v>303173.0110754272</v>
+        <v>428204.5031554698</v>
       </c>
       <c r="AE17" t="n">
-        <v>414814.6888026855</v>
+        <v>585888.2922667307</v>
       </c>
       <c r="AF17" t="n">
         <v>7.280509761178572e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>375225.3570994287</v>
+        <v>529971.9359521759</v>
       </c>
     </row>
     <row r="18">
@@ -59830,28 +59830,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>302.1952720187203</v>
+        <v>427.2267640987629</v>
       </c>
       <c r="AB18" t="n">
-        <v>413.4769030904963</v>
+        <v>584.5505065545414</v>
       </c>
       <c r="AC18" t="n">
-        <v>374.0152477780167</v>
+        <v>528.7618266307638</v>
       </c>
       <c r="AD18" t="n">
-        <v>302195.2720187203</v>
+        <v>427226.7640987629</v>
       </c>
       <c r="AE18" t="n">
-        <v>413476.9030904963</v>
+        <v>584550.5065545414</v>
       </c>
       <c r="AF18" t="n">
         <v>7.322614953752207e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>374015.2477780167</v>
+        <v>528761.8266307638</v>
       </c>
     </row>
     <row r="19">
@@ -59936,28 +59936,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>302.5038492134519</v>
+        <v>427.5353412934945</v>
       </c>
       <c r="AB19" t="n">
-        <v>413.899112021793</v>
+        <v>584.9727154858381</v>
       </c>
       <c r="AC19" t="n">
-        <v>374.3971616814844</v>
+        <v>529.1437405342316</v>
       </c>
       <c r="AD19" t="n">
-        <v>302503.8492134518</v>
+        <v>427535.3412934945</v>
       </c>
       <c r="AE19" t="n">
-        <v>413899.112021793</v>
+        <v>584972.7154858381</v>
       </c>
       <c r="AF19" t="n">
         <v>7.31704732498214e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH19" t="n">
-        <v>374397.1616814844</v>
+        <v>529143.7405342316</v>
       </c>
     </row>
   </sheetData>
@@ -60233,28 +60233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.5544914668745</v>
+        <v>698.4432533066279</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.6679116501318</v>
+        <v>955.6408723157823</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.6062723628505</v>
+        <v>864.4358487123516</v>
       </c>
       <c r="AD2" t="n">
-        <v>513554.4914668745</v>
+        <v>698443.2533066279</v>
       </c>
       <c r="AE2" t="n">
-        <v>702667.9116501318</v>
+        <v>955640.8723157824</v>
       </c>
       <c r="AF2" t="n">
         <v>4.378635728850996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.39583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>635606.2723628505</v>
+        <v>864435.8487123515</v>
       </c>
     </row>
     <row r="3">
@@ -60339,28 +60339,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.8059396317175</v>
+        <v>561.4515496738103</v>
       </c>
       <c r="AB3" t="n">
-        <v>555.2415894986506</v>
+        <v>768.2027797579364</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.2501114833638</v>
+        <v>694.8865846372113</v>
       </c>
       <c r="AD3" t="n">
-        <v>405805.9396317175</v>
+        <v>561451.5496738103</v>
       </c>
       <c r="AE3" t="n">
-        <v>555241.5894986505</v>
+        <v>768202.7797579364</v>
       </c>
       <c r="AF3" t="n">
         <v>5.380348955209179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>502250.1114833638</v>
+        <v>694886.5846372113</v>
       </c>
     </row>
     <row r="4">
@@ -60445,28 +60445,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.6398811664978</v>
+        <v>521.5491624156307</v>
       </c>
       <c r="AB4" t="n">
-        <v>513.9670574739629</v>
+        <v>713.6065731422099</v>
       </c>
       <c r="AC4" t="n">
-        <v>464.9147628659429</v>
+        <v>645.5009633546325</v>
       </c>
       <c r="AD4" t="n">
-        <v>375639.8811664978</v>
+        <v>521549.1624156306</v>
       </c>
       <c r="AE4" t="n">
-        <v>513967.0574739629</v>
+        <v>713606.5731422099</v>
       </c>
       <c r="AF4" t="n">
         <v>5.769048148637512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.38541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>464914.7628659429</v>
+        <v>645500.9633546325</v>
       </c>
     </row>
     <row r="5">
@@ -60551,28 +60551,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.5304255840164</v>
+        <v>497.8390286854553</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.6618778807629</v>
+        <v>681.1653221553081</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.4520425181282</v>
+        <v>616.1558598303387</v>
       </c>
       <c r="AD5" t="n">
-        <v>361530.4255840164</v>
+        <v>497839.0286854553</v>
       </c>
       <c r="AE5" t="n">
-        <v>494661.8778807629</v>
+        <v>681165.3221553081</v>
       </c>
       <c r="AF5" t="n">
         <v>5.948399402424538e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.52604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>447452.0425181282</v>
+        <v>616155.8598303387</v>
       </c>
     </row>
     <row r="6">
@@ -60657,28 +60657,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>348.5793114557145</v>
+        <v>484.8537491383726</v>
       </c>
       <c r="AB6" t="n">
-        <v>476.9415921675896</v>
+        <v>663.3982898088871</v>
       </c>
       <c r="AC6" t="n">
-        <v>431.422956002843</v>
+        <v>600.0844881148737</v>
       </c>
       <c r="AD6" t="n">
-        <v>348579.3114557145</v>
+        <v>484853.7491383726</v>
       </c>
       <c r="AE6" t="n">
-        <v>476941.5921675896</v>
+        <v>663398.2898088871</v>
       </c>
       <c r="AF6" t="n">
         <v>6.078888130197357e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.92708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>431422.956002843</v>
+        <v>600084.4881148736</v>
       </c>
     </row>
     <row r="7">
@@ -60763,28 +60763,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>346.6874057097321</v>
+        <v>482.9618433923902</v>
       </c>
       <c r="AB7" t="n">
-        <v>474.3530032609457</v>
+        <v>660.809700902243</v>
       </c>
       <c r="AC7" t="n">
-        <v>429.0814183883417</v>
+        <v>597.7429505003723</v>
       </c>
       <c r="AD7" t="n">
-        <v>346687.4057097321</v>
+        <v>482961.8433923902</v>
       </c>
       <c r="AE7" t="n">
-        <v>474353.0032609457</v>
+        <v>660809.700902243</v>
       </c>
       <c r="AF7" t="n">
         <v>6.154225718569327e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.61458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>429081.4183883417</v>
+        <v>597742.9505003723</v>
       </c>
     </row>
     <row r="8">
@@ -60869,28 +60869,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>345.2107237352573</v>
+        <v>471.7156782360319</v>
       </c>
       <c r="AB8" t="n">
-        <v>472.3325418368584</v>
+        <v>645.4222015895231</v>
       </c>
       <c r="AC8" t="n">
-        <v>427.2537869668338</v>
+        <v>583.8240125255675</v>
       </c>
       <c r="AD8" t="n">
-        <v>345210.7237352573</v>
+        <v>471715.6782360318</v>
       </c>
       <c r="AE8" t="n">
-        <v>472332.5418368584</v>
+        <v>645422.2015895231</v>
       </c>
       <c r="AF8" t="n">
         <v>6.21440774867949e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>427253.7869668339</v>
+        <v>583824.0125255674</v>
       </c>
     </row>
     <row r="9">
@@ -60975,28 +60975,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>344.2135303429279</v>
+        <v>470.7184848437025</v>
       </c>
       <c r="AB9" t="n">
-        <v>470.9681378444057</v>
+        <v>644.0577975970705</v>
       </c>
       <c r="AC9" t="n">
-        <v>426.0195997764679</v>
+        <v>582.5898253352016</v>
       </c>
       <c r="AD9" t="n">
-        <v>344213.5303429279</v>
+        <v>470718.4848437025</v>
       </c>
       <c r="AE9" t="n">
-        <v>470968.1378444057</v>
+        <v>644057.7975970705</v>
       </c>
       <c r="AF9" t="n">
         <v>6.251824998330009e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.19791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>426019.5997764679</v>
+        <v>582589.8253352016</v>
       </c>
     </row>
     <row r="10">
@@ -61081,28 +61081,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>343.3932614963525</v>
+        <v>469.8982159971271</v>
       </c>
       <c r="AB10" t="n">
-        <v>469.8458098208137</v>
+        <v>642.9354695734785</v>
       </c>
       <c r="AC10" t="n">
-        <v>425.0043851642503</v>
+        <v>581.5746107229839</v>
       </c>
       <c r="AD10" t="n">
-        <v>343393.2614963525</v>
+        <v>469898.2159971271</v>
       </c>
       <c r="AE10" t="n">
-        <v>469845.8098208137</v>
+        <v>642935.4695734784</v>
       </c>
       <c r="AF10" t="n">
         <v>6.281255708979493e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.06770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>425004.3851642503</v>
+        <v>581574.610722984</v>
       </c>
     </row>
     <row r="11">
@@ -61187,28 +61187,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>332.6141542687674</v>
+        <v>468.8544265326448</v>
       </c>
       <c r="AB11" t="n">
-        <v>455.097359771383</v>
+        <v>641.5073107794325</v>
       </c>
       <c r="AC11" t="n">
-        <v>411.6635064879575</v>
+        <v>580.2827533998081</v>
       </c>
       <c r="AD11" t="n">
-        <v>332614.1542687675</v>
+        <v>468854.4265326448</v>
       </c>
       <c r="AE11" t="n">
-        <v>455097.3597713831</v>
+        <v>641507.3107794325</v>
       </c>
       <c r="AF11" t="n">
         <v>6.320245111976672e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>411663.5064879576</v>
+        <v>580282.7533998082</v>
       </c>
     </row>
     <row r="12">
@@ -61293,28 +61293,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>331.572186434127</v>
+        <v>467.8124586980044</v>
       </c>
       <c r="AB12" t="n">
-        <v>453.6716934116514</v>
+        <v>640.081644419701</v>
       </c>
       <c r="AC12" t="n">
-        <v>410.3739037246634</v>
+        <v>578.9931506365141</v>
       </c>
       <c r="AD12" t="n">
-        <v>331572.186434127</v>
+        <v>467812.4586980044</v>
       </c>
       <c r="AE12" t="n">
-        <v>453671.6934116514</v>
+        <v>640081.644419701</v>
       </c>
       <c r="AF12" t="n">
         <v>6.356027322146665e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.75520833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>410373.9037246634</v>
+        <v>578993.1506365141</v>
       </c>
     </row>
     <row r="13">
@@ -61399,28 +61399,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>331.3853556515347</v>
+        <v>467.6256279154121</v>
       </c>
       <c r="AB13" t="n">
-        <v>453.4160632925163</v>
+        <v>639.8260143005657</v>
       </c>
       <c r="AC13" t="n">
-        <v>410.1426705853194</v>
+        <v>578.7619174971701</v>
       </c>
       <c r="AD13" t="n">
-        <v>331385.3556515347</v>
+        <v>467625.6279154121</v>
       </c>
       <c r="AE13" t="n">
-        <v>453416.0632925163</v>
+        <v>639826.0143005657</v>
       </c>
       <c r="AF13" t="n">
         <v>6.354832485603202e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH13" t="n">
-        <v>410142.6705853193</v>
+        <v>578761.91749717</v>
       </c>
     </row>
     <row r="14">
@@ -61505,28 +61505,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>330.1226231109108</v>
+        <v>456.6948974193898</v>
       </c>
       <c r="AB14" t="n">
-        <v>451.6883369226065</v>
+        <v>624.8701066061127</v>
       </c>
       <c r="AC14" t="n">
-        <v>408.5798359952747</v>
+        <v>565.2333806423272</v>
       </c>
       <c r="AD14" t="n">
-        <v>330122.6231109108</v>
+        <v>456694.8974193898</v>
       </c>
       <c r="AE14" t="n">
-        <v>451688.3369226065</v>
+        <v>624870.1066061127</v>
       </c>
       <c r="AF14" t="n">
         <v>6.394136319269714e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH14" t="n">
-        <v>408579.8359952747</v>
+        <v>565233.3806423272</v>
       </c>
     </row>
     <row r="15">
@@ -61611,28 +61611,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>330.1564723446746</v>
+        <v>456.7287466531537</v>
       </c>
       <c r="AB15" t="n">
-        <v>451.734650937565</v>
+        <v>624.9164206210712</v>
       </c>
       <c r="AC15" t="n">
-        <v>408.6217298656477</v>
+        <v>565.2752745127003</v>
       </c>
       <c r="AD15" t="n">
-        <v>330156.4723446746</v>
+        <v>456728.7466531537</v>
       </c>
       <c r="AE15" t="n">
-        <v>451734.650937565</v>
+        <v>624916.4206210712</v>
       </c>
       <c r="AF15" t="n">
         <v>6.394450749939046e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>408621.7298656477</v>
+        <v>565275.2745127003</v>
       </c>
     </row>
     <row r="16">
@@ -61717,28 +61717,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>329.7180947701075</v>
+        <v>456.2903690785865</v>
       </c>
       <c r="AB16" t="n">
-        <v>451.1348434001886</v>
+        <v>624.3166130836948</v>
       </c>
       <c r="AC16" t="n">
-        <v>408.0791671178033</v>
+        <v>564.7327117648559</v>
       </c>
       <c r="AD16" t="n">
-        <v>329718.0947701075</v>
+        <v>456290.3690785865</v>
       </c>
       <c r="AE16" t="n">
-        <v>451134.8434001886</v>
+        <v>624316.6130836948</v>
       </c>
       <c r="AF16" t="n">
         <v>6.393004368860118e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH16" t="n">
-        <v>408079.1671178032</v>
+        <v>564732.7117648559</v>
       </c>
     </row>
     <row r="17">
@@ -61823,28 +61823,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>329.0221577291208</v>
+        <v>455.5944320375997</v>
       </c>
       <c r="AB17" t="n">
-        <v>450.1826316381352</v>
+        <v>623.3644013216414</v>
       </c>
       <c r="AC17" t="n">
-        <v>407.2178331098826</v>
+        <v>563.8713777569353</v>
       </c>
       <c r="AD17" t="n">
-        <v>329022.1577291208</v>
+        <v>455594.4320375997</v>
       </c>
       <c r="AE17" t="n">
-        <v>450182.6316381352</v>
+        <v>623364.4013216414</v>
       </c>
       <c r="AF17" t="n">
         <v>6.419479431217881e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>407217.8331098827</v>
+        <v>563871.3777569353</v>
       </c>
     </row>
     <row r="18">
@@ -61929,28 +61929,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>328.7247076334236</v>
+        <v>455.1954967154173</v>
       </c>
       <c r="AB18" t="n">
-        <v>449.7756472946302</v>
+        <v>622.8185604140471</v>
       </c>
       <c r="AC18" t="n">
-        <v>406.8496907809156</v>
+        <v>563.3776311394694</v>
       </c>
       <c r="AD18" t="n">
-        <v>328724.7076334236</v>
+        <v>455195.4967154173</v>
       </c>
       <c r="AE18" t="n">
-        <v>449775.6472946302</v>
+        <v>622818.5604140471</v>
       </c>
       <c r="AF18" t="n">
         <v>6.428220603825312e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH18" t="n">
-        <v>406849.6907809156</v>
+        <v>563377.6311394693</v>
       </c>
     </row>
     <row r="19">
@@ -62035,28 +62035,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>328.4492768028936</v>
+        <v>454.9200658848873</v>
       </c>
       <c r="AB19" t="n">
-        <v>449.3987906811484</v>
+        <v>622.4417038005653</v>
       </c>
       <c r="AC19" t="n">
-        <v>406.5088008337029</v>
+        <v>563.0367411922566</v>
       </c>
       <c r="AD19" t="n">
-        <v>328449.2768028936</v>
+        <v>454920.0658848873</v>
       </c>
       <c r="AE19" t="n">
-        <v>449398.7906811484</v>
+        <v>622441.7038005653</v>
       </c>
       <c r="AF19" t="n">
         <v>6.428094831557581e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH19" t="n">
-        <v>406508.8008337029</v>
+        <v>563036.7411922566</v>
       </c>
     </row>
     <row r="20">
@@ -62141,28 +62141,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>327.7041089077071</v>
+        <v>454.1748979897008</v>
       </c>
       <c r="AB20" t="n">
-        <v>448.3792190924668</v>
+        <v>621.4221322118838</v>
       </c>
       <c r="AC20" t="n">
-        <v>405.5865357264674</v>
+        <v>562.114476085021</v>
       </c>
       <c r="AD20" t="n">
-        <v>327704.108907707</v>
+        <v>454174.8979897008</v>
       </c>
       <c r="AE20" t="n">
-        <v>448379.2190924668</v>
+        <v>621422.1322118838</v>
       </c>
       <c r="AF20" t="n">
         <v>6.431930885723432e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH20" t="n">
-        <v>405586.5357264674</v>
+        <v>562114.476085021</v>
       </c>
     </row>
     <row r="21">
@@ -62247,28 +62247,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>327.2006600180129</v>
+        <v>453.6714491000067</v>
       </c>
       <c r="AB21" t="n">
-        <v>447.6903781109898</v>
+        <v>620.7332912304067</v>
       </c>
       <c r="AC21" t="n">
-        <v>404.9634367614682</v>
+        <v>561.4913771200219</v>
       </c>
       <c r="AD21" t="n">
-        <v>327200.6600180129</v>
+        <v>453671.4491000067</v>
       </c>
       <c r="AE21" t="n">
-        <v>447690.3781109898</v>
+        <v>620733.2912304067</v>
       </c>
       <c r="AF21" t="n">
         <v>6.427717514754381e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH21" t="n">
-        <v>404963.4367614682</v>
+        <v>561491.3771200218</v>
       </c>
     </row>
     <row r="22">
@@ -62353,28 +62353,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>326.6899446779952</v>
+        <v>453.1607337599889</v>
       </c>
       <c r="AB22" t="n">
-        <v>446.9915948516069</v>
+        <v>620.0345079710239</v>
       </c>
       <c r="AC22" t="n">
-        <v>404.3313443956123</v>
+        <v>560.8592847541661</v>
       </c>
       <c r="AD22" t="n">
-        <v>326689.9446779952</v>
+        <v>453160.7337599889</v>
       </c>
       <c r="AE22" t="n">
-        <v>446991.5948516069</v>
+        <v>620034.5079710239</v>
       </c>
       <c r="AF22" t="n">
         <v>6.467210006822493e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH22" t="n">
-        <v>404331.3443956124</v>
+        <v>560859.284754166</v>
       </c>
     </row>
     <row r="23">
@@ -62459,28 +62459,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>326.5564410399706</v>
+        <v>453.0272301219644</v>
       </c>
       <c r="AB23" t="n">
-        <v>446.8089292842968</v>
+        <v>619.8518424037137</v>
       </c>
       <c r="AC23" t="n">
-        <v>404.1661121736736</v>
+        <v>560.6940525322273</v>
       </c>
       <c r="AD23" t="n">
-        <v>326556.4410399706</v>
+        <v>453027.2301219644</v>
       </c>
       <c r="AE23" t="n">
-        <v>446808.9292842968</v>
+        <v>619851.8424037137</v>
       </c>
       <c r="AF23" t="n">
         <v>6.466832690019294e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH23" t="n">
-        <v>404166.1121736736</v>
+        <v>560694.0525322272</v>
       </c>
     </row>
     <row r="24">
@@ -62565,28 +62565,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>326.3344627470029</v>
+        <v>452.8052518289966</v>
       </c>
       <c r="AB24" t="n">
-        <v>446.5052087908674</v>
+        <v>619.5481219102843</v>
       </c>
       <c r="AC24" t="n">
-        <v>403.8913783378626</v>
+        <v>560.4193186964163</v>
       </c>
       <c r="AD24" t="n">
-        <v>326334.4627470029</v>
+        <v>452805.2518289966</v>
       </c>
       <c r="AE24" t="n">
-        <v>446505.2087908674</v>
+        <v>619548.1219102843</v>
       </c>
       <c r="AF24" t="n">
         <v>6.468279071098221e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH24" t="n">
-        <v>403891.3783378627</v>
+        <v>560419.3186964163</v>
       </c>
     </row>
     <row r="25">
@@ -62671,28 +62671,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>325.9628605306363</v>
+        <v>452.4336496126301</v>
       </c>
       <c r="AB25" t="n">
-        <v>445.9967662445019</v>
+        <v>619.0396793639187</v>
       </c>
       <c r="AC25" t="n">
-        <v>403.4314608345186</v>
+        <v>559.9594011930723</v>
       </c>
       <c r="AD25" t="n">
-        <v>325962.8605306363</v>
+        <v>452433.6496126301</v>
       </c>
       <c r="AE25" t="n">
-        <v>445996.7662445019</v>
+        <v>619039.6793639187</v>
       </c>
       <c r="AF25" t="n">
         <v>6.467901754295023e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH25" t="n">
-        <v>403431.4608345187</v>
+        <v>559959.4011930723</v>
       </c>
     </row>
     <row r="26">
@@ -62777,28 +62777,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>325.2932642398047</v>
+        <v>451.7640533217984</v>
       </c>
       <c r="AB26" t="n">
-        <v>445.0805950588825</v>
+        <v>618.1235081782994</v>
       </c>
       <c r="AC26" t="n">
-        <v>402.6027277410005</v>
+        <v>559.1306680995541</v>
       </c>
       <c r="AD26" t="n">
-        <v>325293.2642398047</v>
+        <v>451764.0533217984</v>
       </c>
       <c r="AE26" t="n">
-        <v>445080.5950588825</v>
+        <v>618123.5081782994</v>
       </c>
       <c r="AF26" t="n">
         <v>6.473813050878466e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>402602.7277410005</v>
+        <v>559130.6680995541</v>
       </c>
     </row>
     <row r="27">
@@ -62883,28 +62883,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>324.7419036181222</v>
+        <v>451.212692700116</v>
       </c>
       <c r="AB27" t="n">
-        <v>444.3261991319828</v>
+        <v>617.3691122513995</v>
       </c>
       <c r="AC27" t="n">
-        <v>401.9203303025627</v>
+        <v>558.4482706611163</v>
       </c>
       <c r="AD27" t="n">
-        <v>324741.9036181222</v>
+        <v>451212.692700116</v>
       </c>
       <c r="AE27" t="n">
-        <v>444326.1991319828</v>
+        <v>617369.1122513996</v>
       </c>
       <c r="AF27" t="n">
         <v>6.470291427381948e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH27" t="n">
-        <v>401920.3303025627</v>
+        <v>558448.2706611163</v>
       </c>
     </row>
     <row r="28">
@@ -62989,28 +62989,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>324.3723645764611</v>
+        <v>450.8431536584548</v>
       </c>
       <c r="AB28" t="n">
-        <v>443.8205795122699</v>
+        <v>616.8634926316869</v>
       </c>
       <c r="AC28" t="n">
-        <v>401.4629663097138</v>
+        <v>557.9909066682675</v>
       </c>
       <c r="AD28" t="n">
-        <v>324372.3645764611</v>
+        <v>450843.1536584548</v>
       </c>
       <c r="AE28" t="n">
-        <v>443820.5795122699</v>
+        <v>616863.4926316869</v>
       </c>
       <c r="AF28" t="n">
         <v>6.471234719389943e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH28" t="n">
-        <v>401462.9663097138</v>
+        <v>557990.9066682674</v>
       </c>
     </row>
     <row r="29">
@@ -63095,28 +63095,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>324.6152858569813</v>
+        <v>451.0860749389751</v>
       </c>
       <c r="AB29" t="n">
-        <v>444.1529551252082</v>
+        <v>617.1958682446252</v>
       </c>
       <c r="AC29" t="n">
-        <v>401.7636204606453</v>
+        <v>558.2915608191989</v>
       </c>
       <c r="AD29" t="n">
-        <v>324615.2858569813</v>
+        <v>451086.074938975</v>
       </c>
       <c r="AE29" t="n">
-        <v>444152.9551252082</v>
+        <v>617195.8682446252</v>
       </c>
       <c r="AF29" t="n">
         <v>6.471423377791542e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH29" t="n">
-        <v>401763.6204606453</v>
+        <v>558291.560819199</v>
       </c>
     </row>
   </sheetData>
@@ -63392,28 +63392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.9903856956381</v>
+        <v>368.3419219274434</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.4161186229409</v>
+        <v>503.9816676798501</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.6409662492195</v>
+        <v>455.8823646591975</v>
       </c>
       <c r="AD2" t="n">
-        <v>250990.3856956381</v>
+        <v>368341.9219274434</v>
       </c>
       <c r="AE2" t="n">
-        <v>343416.1186229408</v>
+        <v>503981.6676798501</v>
       </c>
       <c r="AF2" t="n">
         <v>1.619868974007678e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>310640.9662492195</v>
+        <v>455882.3646591975</v>
       </c>
     </row>
   </sheetData>
@@ -63689,28 +63689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.5765085845911</v>
+        <v>500.223126492309</v>
       </c>
       <c r="AB2" t="n">
-        <v>490.6201983245286</v>
+        <v>684.4273499536174</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.7960951862079</v>
+        <v>619.1065642738622</v>
       </c>
       <c r="AD2" t="n">
-        <v>358576.5085845911</v>
+        <v>500223.126492309</v>
       </c>
       <c r="AE2" t="n">
-        <v>490620.1983245286</v>
+        <v>684427.3499536174</v>
       </c>
       <c r="AF2" t="n">
         <v>7.343483458203106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>443796.0951862079</v>
+        <v>619106.5642738622</v>
       </c>
     </row>
     <row r="3">
@@ -63795,28 +63795,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.077595903937</v>
+        <v>439.7706782829216</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.8395551920418</v>
+        <v>601.713643339744</v>
       </c>
       <c r="AC3" t="n">
-        <v>392.4345169421525</v>
+        <v>544.2869377298006</v>
       </c>
       <c r="AD3" t="n">
-        <v>317077.595903937</v>
+        <v>439770.6782829216</v>
       </c>
       <c r="AE3" t="n">
-        <v>433839.5551920417</v>
+        <v>601713.643339744</v>
       </c>
       <c r="AF3" t="n">
         <v>8.21055878837761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>392434.5169421525</v>
+        <v>544286.9377298006</v>
       </c>
     </row>
     <row r="4">
@@ -63901,28 +63901,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.6689910970198</v>
+        <v>426.3279080572236</v>
       </c>
       <c r="AB4" t="n">
-        <v>415.4933105493229</v>
+        <v>583.3206520637773</v>
       </c>
       <c r="AC4" t="n">
-        <v>375.8392121390186</v>
+        <v>527.6493477264867</v>
       </c>
       <c r="AD4" t="n">
-        <v>303668.9910970199</v>
+        <v>426327.9080572235</v>
       </c>
       <c r="AE4" t="n">
-        <v>415493.3105493229</v>
+        <v>583320.6520637773</v>
       </c>
       <c r="AF4" t="n">
         <v>8.50049879806474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>375839.2121390186</v>
+        <v>527649.3477264866</v>
       </c>
     </row>
     <row r="5">
@@ -64007,28 +64007,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>301.3112853004644</v>
+        <v>414.5954252377151</v>
       </c>
       <c r="AB5" t="n">
-        <v>412.267393463837</v>
+        <v>567.2677514695143</v>
       </c>
       <c r="AC5" t="n">
-        <v>372.9211720525684</v>
+        <v>513.1285134345527</v>
       </c>
       <c r="AD5" t="n">
-        <v>301311.2853004644</v>
+        <v>414595.4252377151</v>
       </c>
       <c r="AE5" t="n">
-        <v>412267.393463837</v>
+        <v>567267.7514695143</v>
       </c>
       <c r="AF5" t="n">
         <v>8.659025951955636e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>372921.1720525683</v>
+        <v>513128.5134345527</v>
       </c>
     </row>
     <row r="6">
@@ -64113,28 +64113,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>289.8934950638749</v>
+        <v>412.619731831783</v>
       </c>
       <c r="AB6" t="n">
-        <v>396.6450691447806</v>
+        <v>564.5645205900765</v>
       </c>
       <c r="AC6" t="n">
-        <v>358.7898204404529</v>
+        <v>510.68327511624</v>
       </c>
       <c r="AD6" t="n">
-        <v>289893.4950638749</v>
+        <v>412619.731831783</v>
       </c>
       <c r="AE6" t="n">
-        <v>396645.0691447806</v>
+        <v>564564.5205900766</v>
       </c>
       <c r="AF6" t="n">
         <v>8.781206638768716e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>358789.8204404529</v>
+        <v>510683.27511624</v>
       </c>
     </row>
     <row r="7">
@@ -64219,28 +64219,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>288.8270622656011</v>
+        <v>411.5532990335092</v>
       </c>
       <c r="AB7" t="n">
-        <v>395.1859287424878</v>
+        <v>563.1053801877838</v>
       </c>
       <c r="AC7" t="n">
-        <v>357.4699383502384</v>
+        <v>509.3633930260256</v>
       </c>
       <c r="AD7" t="n">
-        <v>288827.0622656011</v>
+        <v>411553.2990335092</v>
       </c>
       <c r="AE7" t="n">
-        <v>395185.9287424878</v>
+        <v>563105.3801877837</v>
       </c>
       <c r="AF7" t="n">
         <v>8.812230053459851e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>357469.9383502384</v>
+        <v>509363.3930260256</v>
       </c>
     </row>
     <row r="8">
@@ -64325,28 +64325,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>287.5222076676849</v>
+        <v>400.7721821861549</v>
       </c>
       <c r="AB8" t="n">
-        <v>393.4005691154969</v>
+        <v>548.3541804879263</v>
       </c>
       <c r="AC8" t="n">
-        <v>355.8549709402795</v>
+        <v>496.0200271220839</v>
       </c>
       <c r="AD8" t="n">
-        <v>287522.2076676849</v>
+        <v>400772.1821861548</v>
       </c>
       <c r="AE8" t="n">
-        <v>393400.5691154969</v>
+        <v>548354.1804879264</v>
       </c>
       <c r="AF8" t="n">
         <v>8.888333068050708e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH8" t="n">
-        <v>355854.9709402795</v>
+        <v>496020.0271220839</v>
       </c>
     </row>
     <row r="9">
@@ -64431,28 +64431,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>286.1643312774321</v>
+        <v>399.414305795902</v>
       </c>
       <c r="AB9" t="n">
-        <v>391.5426627330745</v>
+        <v>546.4962741055041</v>
       </c>
       <c r="AC9" t="n">
-        <v>354.1743805354076</v>
+        <v>494.3394367172119</v>
       </c>
       <c r="AD9" t="n">
-        <v>286164.3312774321</v>
+        <v>399414.305795902</v>
       </c>
       <c r="AE9" t="n">
-        <v>391542.6627330745</v>
+        <v>546496.274105504</v>
       </c>
       <c r="AF9" t="n">
         <v>8.925677607451029e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>354174.3805354076</v>
+        <v>494339.4367172119</v>
       </c>
     </row>
     <row r="10">
@@ -64537,28 +64537,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>285.882798232405</v>
+        <v>399.1327727508749</v>
       </c>
       <c r="AB10" t="n">
-        <v>391.157456800507</v>
+        <v>546.1110681729366</v>
       </c>
       <c r="AC10" t="n">
-        <v>353.8259381164044</v>
+        <v>493.9909942982088</v>
       </c>
       <c r="AD10" t="n">
-        <v>285882.798232405</v>
+        <v>399132.7727508749</v>
       </c>
       <c r="AE10" t="n">
-        <v>391157.456800507</v>
+        <v>546111.0681729366</v>
       </c>
       <c r="AF10" t="n">
         <v>8.931000659837712e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>353825.9381164044</v>
+        <v>493990.9942982088</v>
       </c>
     </row>
     <row r="11">
@@ -64643,28 +64643,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>285.7629979060127</v>
+        <v>399.0129724244827</v>
       </c>
       <c r="AB11" t="n">
-        <v>390.9935407087198</v>
+        <v>545.9471520811493</v>
       </c>
       <c r="AC11" t="n">
-        <v>353.6776659463596</v>
+        <v>493.842722128164</v>
       </c>
       <c r="AD11" t="n">
-        <v>285762.9979060127</v>
+        <v>399012.9724244826</v>
       </c>
       <c r="AE11" t="n">
-        <v>390993.5407087198</v>
+        <v>545947.1520811493</v>
       </c>
       <c r="AF11" t="n">
         <v>8.929669896741041e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>353677.6659463596</v>
+        <v>493842.722128164</v>
       </c>
     </row>
   </sheetData>
@@ -64940,28 +64940,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.713932105816</v>
+        <v>564.5257794840667</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.3251654439448</v>
+        <v>772.4090766097763</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.5622022858092</v>
+        <v>698.6914384210864</v>
       </c>
       <c r="AD2" t="n">
-        <v>411713.932105816</v>
+        <v>564525.7794840666</v>
       </c>
       <c r="AE2" t="n">
-        <v>563325.1654439447</v>
+        <v>772409.0766097764</v>
       </c>
       <c r="AF2" t="n">
         <v>6.028198433692732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>509562.2022858092</v>
+        <v>698691.4384210864</v>
       </c>
     </row>
     <row r="3">
@@ -65046,28 +65046,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.1592940614772</v>
+        <v>476.9285653491878</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.5256852545027</v>
+        <v>652.5547037140916</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.7148128372502</v>
+        <v>590.2757986578968</v>
       </c>
       <c r="AD3" t="n">
-        <v>343159.2940614772</v>
+        <v>476928.5653491878</v>
       </c>
       <c r="AE3" t="n">
-        <v>469525.6852545027</v>
+        <v>652554.7037140916</v>
       </c>
       <c r="AF3" t="n">
         <v>6.984092546224947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>424714.8128372502</v>
+        <v>590275.7986578968</v>
       </c>
     </row>
     <row r="4">
@@ -65152,28 +65152,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.7135641810125</v>
+        <v>451.8605677118966</v>
       </c>
       <c r="AB4" t="n">
-        <v>448.3921562145406</v>
+        <v>618.255563424746</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.5982381477679</v>
+        <v>559.2501201786207</v>
       </c>
       <c r="AD4" t="n">
-        <v>327713.5641810126</v>
+        <v>451860.5677118966</v>
       </c>
       <c r="AE4" t="n">
-        <v>448392.1562145406</v>
+        <v>618255.563424746</v>
       </c>
       <c r="AF4" t="n">
         <v>7.317215016060688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>405598.2381477678</v>
+        <v>559250.1201786207</v>
       </c>
     </row>
     <row r="5">
@@ -65258,28 +65258,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.2856288273605</v>
+        <v>448.9865692775096</v>
       </c>
       <c r="AB5" t="n">
-        <v>431.3877067818618</v>
+        <v>614.3232319749552</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.2166695030492</v>
+        <v>555.6930849233361</v>
       </c>
       <c r="AD5" t="n">
-        <v>315285.6288273605</v>
+        <v>448986.5692775096</v>
       </c>
       <c r="AE5" t="n">
-        <v>431387.7067818618</v>
+        <v>614323.2319749552</v>
       </c>
       <c r="AF5" t="n">
         <v>7.480369484946444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>390216.6695030492</v>
+        <v>555693.084923336</v>
       </c>
     </row>
     <row r="6">
@@ -65364,28 +65364,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>313.4498756731585</v>
+        <v>437.5627137852617</v>
       </c>
       <c r="AB6" t="n">
-        <v>428.8759483285693</v>
+        <v>598.6926089055271</v>
       </c>
       <c r="AC6" t="n">
-        <v>387.9446297512638</v>
+        <v>541.5542265819369</v>
       </c>
       <c r="AD6" t="n">
-        <v>313449.8756731585</v>
+        <v>437562.7137852617</v>
       </c>
       <c r="AE6" t="n">
-        <v>428875.9483285694</v>
+        <v>598692.608905527</v>
       </c>
       <c r="AF6" t="n">
         <v>7.58405366853249e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>387944.6297512638</v>
+        <v>541554.2265819368</v>
       </c>
     </row>
     <row r="7">
@@ -65470,28 +65470,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>311.9253956700266</v>
+        <v>436.0382337821299</v>
       </c>
       <c r="AB7" t="n">
-        <v>426.7900875329731</v>
+        <v>596.6067481099308</v>
       </c>
       <c r="AC7" t="n">
-        <v>386.0578405824754</v>
+        <v>539.6674374131483</v>
       </c>
       <c r="AD7" t="n">
-        <v>311925.3956700266</v>
+        <v>436038.2337821298</v>
       </c>
       <c r="AE7" t="n">
-        <v>426790.0875329731</v>
+        <v>596606.7481099308</v>
       </c>
       <c r="AF7" t="n">
         <v>7.661594625828626e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>386057.8405824754</v>
+        <v>539667.4374131482</v>
       </c>
     </row>
     <row r="8">
@@ -65576,28 +65576,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>311.0026224229927</v>
+        <v>425.6288434235353</v>
       </c>
       <c r="AB8" t="n">
-        <v>425.5275084664989</v>
+        <v>582.36416099141</v>
       </c>
       <c r="AC8" t="n">
-        <v>384.9157602900645</v>
+        <v>526.7841428196226</v>
       </c>
       <c r="AD8" t="n">
-        <v>311002.6224229927</v>
+        <v>425628.8434235353</v>
       </c>
       <c r="AE8" t="n">
-        <v>425527.5084664989</v>
+        <v>582364.16099141</v>
       </c>
       <c r="AF8" t="n">
         <v>7.692107399855377e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>384915.7602900645</v>
+        <v>526784.1428196226</v>
       </c>
     </row>
     <row r="9">
@@ -65682,28 +65682,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>300.5485741575213</v>
+        <v>424.7287320773289</v>
       </c>
       <c r="AB9" t="n">
-        <v>411.2238184296214</v>
+        <v>581.1325889374205</v>
       </c>
       <c r="AC9" t="n">
-        <v>371.9771943549515</v>
+        <v>525.6701102739434</v>
       </c>
       <c r="AD9" t="n">
-        <v>300548.5741575212</v>
+        <v>424728.7320773288</v>
       </c>
       <c r="AE9" t="n">
-        <v>411223.8184296213</v>
+        <v>581132.5889374204</v>
       </c>
       <c r="AF9" t="n">
         <v>7.723953256242519e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.97395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>371977.1943549514</v>
+        <v>525670.1102739434</v>
       </c>
     </row>
     <row r="10">
@@ -65788,28 +65788,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>299.6688820006399</v>
+        <v>423.8490399204476</v>
       </c>
       <c r="AB10" t="n">
-        <v>410.0201848112973</v>
+        <v>579.9289553190964</v>
       </c>
       <c r="AC10" t="n">
-        <v>370.8884338398499</v>
+        <v>524.581349758842</v>
       </c>
       <c r="AD10" t="n">
-        <v>299668.8820006399</v>
+        <v>423849.0399204476</v>
       </c>
       <c r="AE10" t="n">
-        <v>410020.1848112973</v>
+        <v>579928.9553190965</v>
       </c>
       <c r="AF10" t="n">
         <v>7.762020163644827e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH10" t="n">
-        <v>370888.4338398499</v>
+        <v>524581.3497588419</v>
       </c>
     </row>
     <row r="11">
@@ -65894,28 +65894,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>298.313544903992</v>
+        <v>422.4937028237997</v>
       </c>
       <c r="AB11" t="n">
-        <v>408.165752802411</v>
+        <v>578.0745233102101</v>
       </c>
       <c r="AC11" t="n">
-        <v>369.21098621918</v>
+        <v>522.903902138172</v>
       </c>
       <c r="AD11" t="n">
-        <v>298313.544903992</v>
+        <v>422493.7028237997</v>
       </c>
       <c r="AE11" t="n">
-        <v>408165.752802411</v>
+        <v>578074.5233102101</v>
       </c>
       <c r="AF11" t="n">
         <v>7.805863761275496e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>369210.98621918</v>
+        <v>522903.902138172</v>
       </c>
     </row>
     <row r="12">
@@ -66000,28 +66000,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>298.1243344229706</v>
+        <v>422.3044923427782</v>
       </c>
       <c r="AB12" t="n">
-        <v>407.9068666749002</v>
+        <v>577.8156371826993</v>
       </c>
       <c r="AC12" t="n">
-        <v>368.9768078203298</v>
+        <v>522.6697237393219</v>
       </c>
       <c r="AD12" t="n">
-        <v>298124.3344229706</v>
+        <v>422304.4923427782</v>
       </c>
       <c r="AE12" t="n">
-        <v>407906.8666749002</v>
+        <v>577815.6371826993</v>
       </c>
       <c r="AF12" t="n">
         <v>7.801049852751859e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>368976.8078203299</v>
+        <v>522669.7237393219</v>
       </c>
     </row>
     <row r="13">
@@ -66106,28 +66106,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>297.0545081855229</v>
+        <v>421.2346661053305</v>
       </c>
       <c r="AB13" t="n">
-        <v>406.4430832194216</v>
+        <v>576.3518537272207</v>
       </c>
       <c r="AC13" t="n">
-        <v>367.6527258034092</v>
+        <v>521.3456417224012</v>
       </c>
       <c r="AD13" t="n">
-        <v>297054.5081855229</v>
+        <v>421234.6661053305</v>
       </c>
       <c r="AE13" t="n">
-        <v>406443.0832194216</v>
+        <v>576351.8537272207</v>
       </c>
       <c r="AF13" t="n">
         <v>7.832229167958805e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>367652.7258034092</v>
+        <v>521345.6417224012</v>
       </c>
     </row>
     <row r="14">
@@ -66212,28 +66212,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>296.6753594741256</v>
+        <v>420.8555173939333</v>
       </c>
       <c r="AB14" t="n">
-        <v>405.9243152256273</v>
+        <v>575.8330857334264</v>
       </c>
       <c r="AC14" t="n">
-        <v>367.1834682988472</v>
+        <v>520.8763842178391</v>
       </c>
       <c r="AD14" t="n">
-        <v>296675.3594741256</v>
+        <v>420855.5173939333</v>
       </c>
       <c r="AE14" t="n">
-        <v>405924.3152256273</v>
+        <v>575833.0857334264</v>
       </c>
       <c r="AF14" t="n">
         <v>7.838894579760766e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH14" t="n">
-        <v>367183.4682988471</v>
+        <v>520876.3842178392</v>
       </c>
     </row>
     <row r="15">
@@ -66318,28 +66318,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>295.9542598342947</v>
+        <v>420.1344177541024</v>
       </c>
       <c r="AB15" t="n">
-        <v>404.9376748857398</v>
+        <v>574.8464453935389</v>
       </c>
       <c r="AC15" t="n">
-        <v>366.2909915282401</v>
+        <v>519.9839074472321</v>
       </c>
       <c r="AD15" t="n">
-        <v>295954.2598342947</v>
+        <v>420134.4177541024</v>
       </c>
       <c r="AE15" t="n">
-        <v>404937.6748857398</v>
+        <v>574846.4453935389</v>
       </c>
       <c r="AF15" t="n">
         <v>7.846078412480657e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>366290.9915282401</v>
+        <v>519983.9074472321</v>
       </c>
     </row>
     <row r="16">
@@ -66424,28 +66424,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>295.89261902819</v>
+        <v>420.0727769479976</v>
       </c>
       <c r="AB16" t="n">
-        <v>404.8533352154269</v>
+        <v>574.762105723226</v>
       </c>
       <c r="AC16" t="n">
-        <v>366.2147011176903</v>
+        <v>519.9076170366823</v>
       </c>
       <c r="AD16" t="n">
-        <v>295892.61902819</v>
+        <v>420072.7769479976</v>
       </c>
       <c r="AE16" t="n">
-        <v>404853.3352154269</v>
+        <v>574762.105723226</v>
       </c>
       <c r="AF16" t="n">
         <v>7.846078412480657e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>366214.7011176903</v>
+        <v>519907.6170366823</v>
       </c>
     </row>
   </sheetData>
